--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="charactorDataBase" sheetId="1" r:id="rId1"/>
     <sheet name="mapChipDataBase" sheetId="2" r:id="rId2"/>
+    <sheet name="expDataBase" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>職業ID</t>
   </si>
@@ -180,6 +181,15 @@
   </si>
   <si>
     <t>mapchip4.png</t>
+  </si>
+  <si>
+    <t>レベル</t>
+  </si>
+  <si>
+    <t>必要経験値</t>
+  </si>
+  <si>
+    <t>取得経験値</t>
   </si>
 </sst>
 </file>
@@ -201,9 +211,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,43 +244,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,16 +296,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,17 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,9 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,9 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,7 +370,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,12 +526,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,72 +533,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,74 +548,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -551,6 +561,19 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -566,7 +589,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -581,6 +604,17 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -594,7 +628,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -607,6 +641,19 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -622,7 +669,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -637,6 +684,19 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -652,10 +712,25 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -667,13 +742,26 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -682,10 +770,25 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -695,13 +798,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -710,7 +828,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -718,6 +836,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,15 +864,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -757,6 +875,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,43 +932,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,7 +945,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,174 +954,210 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -1799,7 +1953,7 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1813,738 +1967,1418 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>32</v>
+      </c>
+      <c r="G2" s="16">
+        <v>32</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>32</v>
+      </c>
+      <c r="G3" s="18">
+        <v>32</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="18">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18">
+        <v>32</v>
+      </c>
+      <c r="F4" s="18">
+        <v>32</v>
+      </c>
+      <c r="G4" s="18">
+        <v>32</v>
+      </c>
+      <c r="H4" s="18">
+        <v>65280</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>30</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>32</v>
+      </c>
+      <c r="G5" s="18">
+        <v>32</v>
+      </c>
+      <c r="H5" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I5" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>32</v>
+      </c>
+      <c r="F6" s="18">
+        <v>32</v>
+      </c>
+      <c r="G6" s="18">
+        <v>32</v>
+      </c>
+      <c r="H6" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I6" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>64</v>
+      </c>
+      <c r="F7" s="18">
+        <v>32</v>
+      </c>
+      <c r="G7" s="18">
+        <v>32</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>96</v>
+      </c>
+      <c r="F8" s="18">
+        <v>32</v>
+      </c>
+      <c r="G8" s="18">
+        <v>32</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I8" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>128</v>
+      </c>
+      <c r="F9" s="18">
+        <v>32</v>
+      </c>
+      <c r="G9" s="18">
+        <v>32</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I9" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>160</v>
+      </c>
+      <c r="F10" s="18">
+        <v>32</v>
+      </c>
+      <c r="G10" s="18">
+        <v>32</v>
+      </c>
+      <c r="H10" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I10" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>192</v>
+      </c>
+      <c r="F11" s="18">
+        <v>32</v>
+      </c>
+      <c r="G11" s="18">
+        <v>32</v>
+      </c>
+      <c r="H11" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I11" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>224</v>
+      </c>
+      <c r="F12" s="18">
+        <v>32</v>
+      </c>
+      <c r="G12" s="18">
+        <v>32</v>
+      </c>
+      <c r="H12" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I12" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>256</v>
+      </c>
+      <c r="F13" s="18">
+        <v>32</v>
+      </c>
+      <c r="G13" s="18">
+        <v>32</v>
+      </c>
+      <c r="H13" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I13" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>32</v>
+      </c>
+      <c r="G14" s="18">
+        <v>32</v>
+      </c>
+      <c r="H14" s="18">
+        <v>6697728</v>
+      </c>
+      <c r="I14" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>64</v>
+      </c>
+      <c r="G15" s="18">
+        <v>64</v>
+      </c>
+      <c r="H15" s="18">
+        <v>8947848</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>2</v>
+      </c>
+      <c r="K15" s="18">
+        <v>30</v>
+      </c>
+      <c r="L15" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>32</v>
+      </c>
+      <c r="G16" s="18">
+        <v>32</v>
+      </c>
+      <c r="H16" s="18">
+        <v>16711680</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="18">
+        <v>-20</v>
+      </c>
+      <c r="L16" s="23">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="23"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="23"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:12">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <f>ROUNDDOWN(B2*1.1,0)</f>
+        <v>110</v>
+      </c>
+      <c r="C3" s="9">
+        <f>ROUNDDOWN(C2*1.1,0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
+        <v>121</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>655</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>792</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>871</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>958</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>1053</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>1158</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>1273</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>1694</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="1"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="0"/>
+        <v>1863</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="1"/>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B34" s="8">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B35" s="8">
+        <f t="shared" si="0"/>
+        <v>2253</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B36" s="8">
+        <f t="shared" si="0"/>
+        <v>2478</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B37" s="8">
+        <f t="shared" si="0"/>
+        <v>2725</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="1"/>
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B38" s="8">
+        <f t="shared" si="0"/>
+        <v>2997</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="1"/>
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B39" s="8">
+        <f t="shared" si="0"/>
+        <v>3296</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="1"/>
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B40" s="8">
+        <f t="shared" si="0"/>
+        <v>3625</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" si="1"/>
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B41" s="8">
+        <f t="shared" si="0"/>
+        <v>3987</v>
+      </c>
+      <c r="C41" s="9">
+        <f t="shared" si="1"/>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B42" s="8">
+        <f t="shared" si="0"/>
+        <v>4385</v>
+      </c>
+      <c r="C42" s="9">
+        <f t="shared" si="1"/>
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B43" s="8">
+        <f t="shared" si="0"/>
+        <v>4823</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" si="1"/>
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B44" s="8">
+        <f t="shared" si="0"/>
+        <v>5305</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" si="1"/>
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B45" s="8">
+        <f t="shared" si="0"/>
+        <v>5835</v>
+      </c>
+      <c r="C45" s="9">
+        <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>32</v>
-      </c>
-      <c r="G3" s="6">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B46" s="8">
+        <f t="shared" si="0"/>
+        <v>6418</v>
+      </c>
+      <c r="C46" s="9">
+        <f t="shared" si="2"/>
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="6">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6">
-        <v>32</v>
-      </c>
-      <c r="H4" s="6">
-        <v>65280</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>30</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B47" s="8">
+        <f t="shared" si="0"/>
+        <v>7059</v>
+      </c>
+      <c r="C47" s="9">
+        <f t="shared" si="2"/>
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B48" s="8">
+        <f t="shared" si="0"/>
+        <v>7764</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" si="2"/>
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6">
-        <v>32</v>
-      </c>
-      <c r="H5" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>64</v>
-      </c>
-      <c r="F7" s="6">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>96</v>
-      </c>
-      <c r="F8" s="6">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6">
-        <v>32</v>
-      </c>
-      <c r="H8" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>128</v>
-      </c>
-      <c r="F9" s="6">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>160</v>
-      </c>
-      <c r="F10" s="6">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6">
-        <v>32</v>
-      </c>
-      <c r="H10" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I10" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>192</v>
-      </c>
-      <c r="F11" s="6">
-        <v>32</v>
-      </c>
-      <c r="G11" s="6">
-        <v>32</v>
-      </c>
-      <c r="H11" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>224</v>
-      </c>
-      <c r="F12" s="6">
-        <v>32</v>
-      </c>
-      <c r="G12" s="6">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>256</v>
-      </c>
-      <c r="F13" s="6">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6">
-        <v>6724095</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B49" s="8">
+        <f t="shared" si="0"/>
+        <v>8540</v>
+      </c>
+      <c r="C49" s="9">
+        <f t="shared" si="2"/>
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B50" s="8">
+        <f t="shared" si="0"/>
+        <v>9394</v>
+      </c>
+      <c r="C50" s="9">
+        <f t="shared" si="2"/>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:3">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>32</v>
-      </c>
-      <c r="G14" s="6">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6">
-        <v>6697728</v>
-      </c>
-      <c r="I14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>64</v>
-      </c>
-      <c r="G15" s="6">
-        <v>64</v>
-      </c>
-      <c r="H15" s="6">
-        <v>8947848</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>30</v>
-      </c>
-      <c r="L15" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>32</v>
-      </c>
-      <c r="G16" s="6">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6">
-        <v>16711680</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>-20</v>
-      </c>
-      <c r="L16" s="11">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:12">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="12"/>
+      <c r="B51" s="11">
+        <f t="shared" si="0"/>
+        <v>10333</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="2"/>
+        <v>4895</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="charactorDataBase" sheetId="1" r:id="rId1"/>
-    <sheet name="mapChipDataBase" sheetId="2" r:id="rId2"/>
-    <sheet name="expDataBase" sheetId="3" r:id="rId3"/>
+    <sheet name="Charactor" sheetId="1" r:id="rId1"/>
+    <sheet name="MapChip" sheetId="2" r:id="rId2"/>
+    <sheet name="Exp" sheetId="3" r:id="rId3"/>
+    <sheet name="Attribute" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>職業ID</t>
   </si>
@@ -51,6 +52,9 @@
     <t>移動力</t>
   </si>
   <si>
+    <t>属性ID</t>
+  </si>
+  <si>
     <t>魔法攻撃</t>
   </si>
   <si>
@@ -190,6 +194,27 @@
   </si>
   <si>
     <t>取得経験値</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>属性色</t>
+  </si>
+  <si>
+    <t>赤</t>
+  </si>
+  <si>
+    <t>緑</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>攻＼守</t>
   </si>
 </sst>
 </file>
@@ -197,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -208,91 +233,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +250,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -325,11 +319,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,15 +349,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +425,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,25 +491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,37 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,91 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +586,180 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -586,21 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -625,19 +809,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -666,21 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -705,146 +861,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,6 +876,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,15 +948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -913,30 +962,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,149 +970,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,6 +1158,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1151,17 +1224,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1484,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1546,19 +1613,19 @@
         <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1566,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1614,13 +1681,13 @@
         <v>40</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1628,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1676,13 +1743,13 @@
         <v>41</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1690,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1738,13 +1805,13 @@
         <v>42</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1752,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1800,16 +1867,16 @@
         <v>43</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1817,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1865,13 +1932,13 @@
         <v>44</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1879,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1927,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1936,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +2021,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1967,738 +2034,738 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8">
+        <v>65280</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>30</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8">
+        <v>32</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>64</v>
+      </c>
+      <c r="F7" s="8">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>96</v>
+      </c>
+      <c r="F8" s="8">
+        <v>32</v>
+      </c>
+      <c r="G8" s="8">
+        <v>32</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>128</v>
+      </c>
+      <c r="F9" s="8">
+        <v>32</v>
+      </c>
+      <c r="G9" s="8">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>160</v>
+      </c>
+      <c r="F10" s="8">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8">
+        <v>32</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>192</v>
+      </c>
+      <c r="F11" s="8">
+        <v>32</v>
+      </c>
+      <c r="G11" s="8">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>224</v>
+      </c>
+      <c r="F12" s="8">
+        <v>32</v>
+      </c>
+      <c r="G12" s="8">
+        <v>32</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>256</v>
+      </c>
+      <c r="F13" s="8">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8">
+        <v>32</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6724095</v>
+      </c>
+      <c r="I13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>32</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G14" s="8">
         <v>32</v>
       </c>
-      <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="H14" s="8">
+        <v>6697728</v>
+      </c>
+      <c r="I14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>64</v>
+      </c>
+      <c r="G15" s="8">
+        <v>64</v>
+      </c>
+      <c r="H15" s="8">
+        <v>8947848</v>
+      </c>
+      <c r="I15" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="16">
-        <v>0</v>
-      </c>
-      <c r="K2" s="16">
-        <v>0</v>
-      </c>
-      <c r="L2" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="17">
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>30</v>
+      </c>
+      <c r="L15" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>32</v>
+      </c>
+      <c r="G16" s="8">
+        <v>32</v>
+      </c>
+      <c r="H16" s="8">
+        <v>16711680</v>
+      </c>
+      <c r="I16" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>32</v>
-      </c>
-      <c r="G3" s="18">
-        <v>32</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="18">
-        <v>32</v>
-      </c>
-      <c r="E4" s="18">
-        <v>32</v>
-      </c>
-      <c r="F4" s="18">
-        <v>32</v>
-      </c>
-      <c r="G4" s="18">
-        <v>32</v>
-      </c>
-      <c r="H4" s="18">
-        <v>65280</v>
-      </c>
-      <c r="I4" s="18">
-        <v>2</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>30</v>
-      </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>32</v>
-      </c>
-      <c r="G5" s="18">
-        <v>32</v>
-      </c>
-      <c r="H5" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="J16" s="8">
         <v>-1</v>
       </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>32</v>
-      </c>
-      <c r="F6" s="18">
-        <v>32</v>
-      </c>
-      <c r="G6" s="18">
-        <v>32</v>
-      </c>
-      <c r="H6" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I6" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>64</v>
-      </c>
-      <c r="F7" s="18">
-        <v>32</v>
-      </c>
-      <c r="G7" s="18">
-        <v>32</v>
-      </c>
-      <c r="H7" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I7" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>96</v>
-      </c>
-      <c r="F8" s="18">
-        <v>32</v>
-      </c>
-      <c r="G8" s="18">
-        <v>32</v>
-      </c>
-      <c r="H8" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I8" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
-      <c r="L8" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>128</v>
-      </c>
-      <c r="F9" s="18">
-        <v>32</v>
-      </c>
-      <c r="G9" s="18">
-        <v>32</v>
-      </c>
-      <c r="H9" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I9" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="17">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <v>160</v>
-      </c>
-      <c r="F10" s="18">
-        <v>32</v>
-      </c>
-      <c r="G10" s="18">
-        <v>32</v>
-      </c>
-      <c r="H10" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I10" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>192</v>
-      </c>
-      <c r="F11" s="18">
-        <v>32</v>
-      </c>
-      <c r="G11" s="18">
-        <v>32</v>
-      </c>
-      <c r="H11" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I11" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>224</v>
-      </c>
-      <c r="F12" s="18">
-        <v>32</v>
-      </c>
-      <c r="G12" s="18">
-        <v>32</v>
-      </c>
-      <c r="H12" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I12" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="17">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>256</v>
-      </c>
-      <c r="F13" s="18">
-        <v>32</v>
-      </c>
-      <c r="G13" s="18">
-        <v>32</v>
-      </c>
-      <c r="H13" s="18">
-        <v>6724095</v>
-      </c>
-      <c r="I13" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="17">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>32</v>
-      </c>
-      <c r="G14" s="18">
-        <v>32</v>
-      </c>
-      <c r="H14" s="18">
-        <v>6697728</v>
-      </c>
-      <c r="I14" s="18">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="17">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>64</v>
-      </c>
-      <c r="G15" s="18">
-        <v>64</v>
-      </c>
-      <c r="H15" s="18">
-        <v>8947848</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18">
-        <v>2</v>
-      </c>
-      <c r="K15" s="18">
-        <v>30</v>
-      </c>
-      <c r="L15" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="17">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>32</v>
-      </c>
-      <c r="G16" s="18">
-        <v>32</v>
-      </c>
-      <c r="H16" s="18">
-        <v>16711680</v>
-      </c>
-      <c r="I16" s="18">
-        <v>1</v>
-      </c>
-      <c r="J16" s="18">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="18">
+      <c r="K16" s="8">
         <v>-20</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="9">
         <v>-20</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="23"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="23"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="23"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="23"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="23"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="23"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="23"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="23"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" ht="14.25" spans="1:12">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="24"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2711,7 +2778,7 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2722,21 +2789,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>56</v>
       </c>
+      <c r="B1" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="32">
         <v>100</v>
       </c>
       <c r="C2" s="6">
@@ -2744,10 +2811,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="34">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
@@ -2757,10 +2824,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="34">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
@@ -2770,10 +2837,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="34">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
@@ -2783,10 +2850,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
@@ -2796,10 +2863,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -2809,10 +2876,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="34">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
@@ -2822,10 +2889,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
@@ -2835,10 +2902,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
@@ -2848,10 +2915,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
@@ -2861,10 +2928,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
@@ -2874,10 +2941,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
@@ -2887,10 +2954,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
@@ -2900,10 +2967,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
@@ -2913,10 +2980,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
@@ -2926,10 +2993,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
@@ -2939,10 +3006,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
@@ -2952,10 +3019,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
@@ -2965,10 +3032,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7">
+      <c r="A20" s="33">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
@@ -2978,10 +3045,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="34">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
@@ -2991,10 +3058,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="34">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
@@ -3004,10 +3071,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="34">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
@@ -3017,10 +3084,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="7">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
@@ -3030,10 +3097,10 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="7">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
@@ -3043,10 +3110,10 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="7">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="34">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
@@ -3056,10 +3123,10 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="7">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="34">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
@@ -3069,10 +3136,10 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7">
+      <c r="A28" s="33">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="34">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
@@ -3082,10 +3149,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7">
+      <c r="A29" s="33">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="34">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
@@ -3095,10 +3162,10 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7">
+      <c r="A30" s="33">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="34">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
@@ -3108,10 +3175,10 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7">
+      <c r="A31" s="33">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="34">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
@@ -3121,10 +3188,10 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7">
+      <c r="A32" s="33">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="34">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
@@ -3134,10 +3201,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7">
+      <c r="A33" s="33">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="34">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
@@ -3147,10 +3214,10 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7">
+      <c r="A34" s="33">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="34">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
@@ -3160,10 +3227,10 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="7">
+      <c r="A35" s="33">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="34">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
@@ -3173,10 +3240,10 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="7">
+      <c r="A36" s="33">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="34">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
@@ -3186,10 +3253,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="7">
+      <c r="A37" s="33">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="34">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
@@ -3199,10 +3266,10 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7">
+      <c r="A38" s="33">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="34">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
@@ -3212,10 +3279,10 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="7">
+      <c r="A39" s="33">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="34">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
@@ -3225,10 +3292,10 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7">
+      <c r="A40" s="33">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="34">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
@@ -3238,10 +3305,10 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="7">
+      <c r="A41" s="33">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="34">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
@@ -3251,10 +3318,10 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="7">
+      <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="34">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
@@ -3264,10 +3331,10 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="7">
+      <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="34">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
@@ -3277,10 +3344,10 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="7">
+      <c r="A44" s="33">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="34">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
@@ -3290,10 +3357,10 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="7">
+      <c r="A45" s="33">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="34">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
@@ -3303,10 +3370,10 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="7">
+      <c r="A46" s="33">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="34">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
@@ -3316,10 +3383,10 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="7">
+      <c r="A47" s="33">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="34">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
@@ -3329,10 +3396,10 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="7">
+      <c r="A48" s="33">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="34">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
@@ -3342,10 +3409,10 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="7">
+      <c r="A49" s="33">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="34">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
@@ -3355,10 +3422,10 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="7">
+      <c r="A50" s="33">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="34">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
@@ -3368,16 +3435,176 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="10">
+      <c r="A51" s="35">
         <v>50</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="36">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
       <c r="C51" s="12">
         <f t="shared" si="2"/>
         <v>4895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6">
+        <v>16711680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9">
+        <v>65280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8947848</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="25">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -11,6 +11,7 @@
     <sheet name="MapChip" sheetId="2" r:id="rId2"/>
     <sheet name="Exp" sheetId="3" r:id="rId3"/>
     <sheet name="Attribute" sheetId="4" r:id="rId4"/>
+    <sheet name="AttributeRate" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -82,16 +83,16 @@
     <t>Resource/Image/Charactor/soldier</t>
   </si>
   <si>
+    <t>Resource/Image/Icon/spearIcon.png</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/warrior</t>
+  </si>
+  <si>
     <t>Resource/Image/Icon/axIcon.png</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>Resource/Image/Charactor/warrior</t>
-  </si>
-  <si>
-    <t>Resource/Image/Icon/spearIcon.png</t>
   </si>
   <si>
     <t>Mage</t>
@@ -222,37 +223,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,8 +246,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,45 +298,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -335,7 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +337,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -372,9 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,31 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,91 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,25 +426,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +486,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,180 +587,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -785,6 +612,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -809,6 +666,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -837,6 +720,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -861,6 +774,103 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,7 +894,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,24 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -933,6 +925,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,7 +971,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,157 +980,157 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1140,8 +1141,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1155,80 +1156,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1551,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1641,22 +1615,22 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="29">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="29">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="29">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="29">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="29">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="29">
         <v>5</v>
       </c>
       <c r="K2">
@@ -1703,23 +1677,23 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
+      <c r="E3" s="29">
+        <v>20</v>
+      </c>
+      <c r="F3" s="29">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>5</v>
+      </c>
+      <c r="J3" s="29">
+        <v>5</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1765,23 +1739,23 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
+      <c r="E4" s="29">
+        <v>20</v>
+      </c>
+      <c r="F4" s="29">
+        <v>10</v>
+      </c>
+      <c r="G4" s="29">
+        <v>5</v>
+      </c>
+      <c r="H4" s="29">
+        <v>5</v>
+      </c>
+      <c r="I4" s="29">
+        <v>5</v>
+      </c>
+      <c r="J4" s="29">
+        <v>5</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1827,23 +1801,23 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
+      <c r="E5" s="29">
+        <v>20</v>
+      </c>
+      <c r="F5" s="29">
+        <v>10</v>
+      </c>
+      <c r="G5" s="29">
+        <v>5</v>
+      </c>
+      <c r="H5" s="29">
+        <v>5</v>
+      </c>
+      <c r="I5" s="29">
+        <v>5</v>
+      </c>
+      <c r="J5" s="29">
+        <v>5</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1892,23 +1866,23 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
+      <c r="E6" s="29">
+        <v>20</v>
+      </c>
+      <c r="F6" s="29">
+        <v>10</v>
+      </c>
+      <c r="G6" s="29">
+        <v>5</v>
+      </c>
+      <c r="H6" s="29">
+        <v>5</v>
+      </c>
+      <c r="I6" s="29">
+        <v>5</v>
+      </c>
+      <c r="J6" s="29">
+        <v>5</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1954,22 +1928,22 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="29">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="29">
+        <v>10</v>
+      </c>
+      <c r="G7" s="29">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="29">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
+      <c r="I7" s="29">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="29">
         <v>5</v>
       </c>
       <c r="K7">
@@ -2034,738 +2008,738 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
         <v>32</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>32</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
         <v>32</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="11">
         <v>32</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>32</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="11">
         <v>32</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="11">
         <v>32</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="11">
         <v>32</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <v>65280</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="11">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
         <v>30</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
         <v>32</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11">
         <v>32</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <v>6724095</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="11">
         <v>-1</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>32</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="11">
         <v>32</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="11">
         <v>32</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="11">
         <v>6724095</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="11">
         <v>-1</v>
       </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
         <v>64</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <v>32</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
         <v>32</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <v>6724095</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="11">
         <v>-1</v>
       </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>96</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <v>32</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
         <v>32</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <v>6724095</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="11">
         <v>-1</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>128</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <v>32</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="11">
         <v>32</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="11">
         <v>6724095</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="11">
         <v>-1</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>160</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>32</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>32</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <v>6724095</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="11">
         <v>-1</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
         <v>192</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>32</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="11">
         <v>32</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="11">
         <v>6724095</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="11">
         <v>-1</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
         <v>224</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="11">
         <v>32</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11">
         <v>32</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <v>6724095</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="11">
         <v>-1</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
         <v>256</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="11">
         <v>32</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11">
         <v>32</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="11">
         <v>6724095</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="11">
         <v>-1</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
         <v>32</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
         <v>32</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="11">
         <v>6697728</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="11">
         <v>-1</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
         <v>64</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="11">
         <v>64</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="11">
         <v>8947848</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="11">
         <v>1</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="11">
         <v>2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="11">
         <v>30</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
         <v>32</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="11">
         <v>32</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="11">
         <v>16711680</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="11">
         <v>1</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="11">
         <v>-1</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="11">
         <v>-20</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="12">
         <v>-20</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" ht="14.25" spans="1:12">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2789,660 +2763,660 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="6">
         <v>100</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="10">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="10">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="33">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="10">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="33">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="12">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="33">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="12">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="33">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="12">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="33">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="12">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="33">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="33">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="12">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="33">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="12">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="33">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="12">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="33">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="33">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="12">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="33">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="12">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="33">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="12">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="33">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="12">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="33">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="12">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="33">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="12">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="33">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="12">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="33">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="12">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="33">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="12">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="33">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="12">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="33">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="12">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="33">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="12">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="33">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="12">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="33">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="12">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="33">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="10">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="12">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="33">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="12">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="33">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="33">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="12">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="33">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="33">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="12">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="33">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="10">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="33">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="10">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="12">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="33">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="33">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="10">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="12">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="33">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="12">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="33">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="12">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="33">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="10">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="12">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="33">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="10">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="12">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="33">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="10">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="12">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="33">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="10">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="12">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="33">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="10">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="12">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="33">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="10">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="12">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="33">
+      <c r="A49" s="26">
         <v>48</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="10">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="12">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="33">
+      <c r="A50" s="26">
         <v>49</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="10">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="12">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="35">
+      <c r="A51" s="27">
         <v>50</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="14">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="16">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -3456,154 +3430,171 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8">
+        <v>16711680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="12">
+        <v>65280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="16">
+        <v>8947848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6">
-        <v>16711680</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="9">
-        <v>65280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="9">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="10">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="12">
-        <v>8947848</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="C2" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="B4" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17">
-        <v>0</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="21">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="21">
-        <v>2</v>
-      </c>
-      <c r="B10" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="25">
-        <v>3</v>
-      </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="27">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
     </row>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Exp" sheetId="3" r:id="rId3"/>
     <sheet name="Attribute" sheetId="4" r:id="rId4"/>
     <sheet name="AttributeRate" sheetId="5" r:id="rId5"/>
+    <sheet name="MapSelect" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>職業ID</t>
   </si>
@@ -216,6 +217,33 @@
   </si>
   <si>
     <t>攻＼守</t>
+  </si>
+  <si>
+    <t>マップID</t>
+  </si>
+  <si>
+    <t>マップ名</t>
+  </si>
+  <si>
+    <t>データパス</t>
+  </si>
+  <si>
+    <t>ワルシャワ</t>
+  </si>
+  <si>
+    <t>Resource/Map/map0.map</t>
+  </si>
+  <si>
+    <t>パリ</t>
+  </si>
+  <si>
+    <t>ロンドン</t>
+  </si>
+  <si>
+    <t>モスクワ</t>
+  </si>
+  <si>
+    <t>ワシントンD.C.</t>
   </si>
 </sst>
 </file>
@@ -237,33 +265,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,21 +296,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,38 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,9 +378,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,21 +395,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +418,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +466,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,103 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,37 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +615,180 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -612,36 +814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -666,32 +838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -720,36 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -774,103 +890,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,15 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -914,6 +924,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -925,6 +959,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,21 +991,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -971,7 +999,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,144 +1008,183 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1126,35 +1193,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1162,43 +1256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1525,7 +1589,7 @@
   <sheetPr/>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
@@ -1615,22 +1679,22 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="41">
         <v>20</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="41">
         <v>10</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="41">
         <v>5</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="41">
         <v>5</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="41">
         <v>5</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="41">
         <v>5</v>
       </c>
       <c r="K2">
@@ -1677,22 +1741,22 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="41">
         <v>20</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="41">
         <v>10</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="41">
         <v>5</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="41">
         <v>5</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="41">
         <v>5</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="41">
         <v>5</v>
       </c>
       <c r="K3">
@@ -1739,22 +1803,22 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="41">
         <v>20</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="41">
         <v>10</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="41">
         <v>5</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="41">
         <v>5</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="41">
         <v>5</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="41">
         <v>5</v>
       </c>
       <c r="K4">
@@ -1801,22 +1865,22 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="41">
         <v>20</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="41">
         <v>10</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="41">
         <v>5</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="41">
         <v>5</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="41">
         <v>5</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="41">
         <v>5</v>
       </c>
       <c r="K5">
@@ -1866,22 +1930,22 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="41">
         <v>20</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="41">
         <v>10</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="41">
         <v>5</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="41">
         <v>5</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="41">
         <v>5</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="41">
         <v>5</v>
       </c>
       <c r="K6">
@@ -1928,22 +1992,22 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="41">
         <v>20</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="41">
         <v>10</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="41">
         <v>5</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="41">
         <v>5</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="41">
         <v>5</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="41">
         <v>5</v>
       </c>
       <c r="K7">
@@ -2008,738 +2072,738 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="20">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="32">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
         <v>32</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="19">
         <v>32</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="21">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
         <v>32</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="23">
         <v>32</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23">
         <v>1</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="21">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="23">
         <v>32</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="23">
         <v>32</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="23">
         <v>32</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="23">
         <v>32</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="23">
         <v>65280</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="23">
         <v>2</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
         <v>30</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="21">
+      <c r="A5" s="33">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
         <v>32</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="23">
         <v>32</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="23">
         <v>6724095</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="23">
         <v>-1</v>
       </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="21">
+      <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23">
         <v>32</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="23">
         <v>32</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="23">
         <v>32</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="23">
         <v>6724095</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="23">
         <v>-1</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="21">
+      <c r="A7" s="33">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
         <v>64</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="23">
         <v>32</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="23">
         <v>32</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="23">
         <v>6724095</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="23">
         <v>-1</v>
       </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="21">
+      <c r="A8" s="33">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
         <v>96</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="23">
         <v>32</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="23">
         <v>32</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="23">
         <v>6724095</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="23">
         <v>-1</v>
       </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="J8" s="23">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="L8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="21">
+      <c r="A9" s="33">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
         <v>128</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="23">
         <v>32</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="23">
         <v>32</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="23">
         <v>6724095</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="23">
         <v>-1</v>
       </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="21">
+      <c r="A10" s="33">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23">
         <v>160</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="23">
         <v>32</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="23">
         <v>32</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="23">
         <v>6724095</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="23">
         <v>-1</v>
       </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="21">
+      <c r="A11" s="33">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
         <v>192</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="23">
         <v>32</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="23">
         <v>32</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="23">
         <v>6724095</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="23">
         <v>-1</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="21">
+      <c r="A12" s="33">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
         <v>224</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="23">
         <v>32</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="23">
         <v>32</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="23">
         <v>6724095</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="23">
         <v>-1</v>
       </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="21">
+      <c r="A13" s="33">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
         <v>256</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="23">
         <v>32</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="23">
         <v>32</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="23">
         <v>6724095</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="23">
         <v>-1</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="21">
+      <c r="A14" s="33">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
         <v>32</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="23">
         <v>32</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="23">
         <v>6697728</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="23">
         <v>-1</v>
       </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+      <c r="L14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="21">
+      <c r="A15" s="33">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
         <v>64</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="23">
         <v>64</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="23">
         <v>8947848</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="23">
         <v>1</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="23">
         <v>2</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="23">
         <v>30</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="21">
+      <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
         <v>32</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="23">
         <v>32</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="23">
         <v>16711680</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="23">
         <v>1</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="23">
         <v>-1</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="23">
         <v>-20</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="24">
         <v>-20</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="21"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="21"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="21"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="21"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="21"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" ht="14.25" spans="1:12">
-      <c r="A25" s="22"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2763,660 +2827,660 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="18">
         <v>100</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="20">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="22">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="24">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="22">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="22">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="24">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26">
+      <c r="A6" s="38">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="22">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="24">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26">
+      <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="22">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="24">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="22">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="24">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="26">
+      <c r="A9" s="38">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="22">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="24">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="26">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="22">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="24">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="22">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="24">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="26">
+      <c r="A12" s="38">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="22">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="24">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="26">
+      <c r="A13" s="38">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="22">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="24">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="26">
+      <c r="A14" s="38">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="22">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="24">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="26">
+      <c r="A15" s="38">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="22">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="24">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="26">
+      <c r="A16" s="38">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="22">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="24">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26">
+      <c r="A17" s="38">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="22">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="24">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26">
+      <c r="A18" s="38">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="22">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="24">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="26">
+      <c r="A19" s="38">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="22">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="24">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="26">
+      <c r="A20" s="38">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="22">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="24">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="26">
+      <c r="A21" s="38">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="22">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="24">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="26">
+      <c r="A22" s="38">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="22">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="24">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="26">
+      <c r="A23" s="38">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="22">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="24">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="26">
+      <c r="A24" s="38">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="22">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="24">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="26">
+      <c r="A25" s="38">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="22">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="24">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="26">
+      <c r="A26" s="38">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="22">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="24">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="26">
+      <c r="A27" s="38">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="22">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="24">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="26">
+      <c r="A28" s="38">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="22">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="24">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="26">
+      <c r="A29" s="38">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="22">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="24">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="26">
+      <c r="A30" s="38">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="22">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="24">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="26">
+      <c r="A31" s="38">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="22">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="24">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="26">
+      <c r="A32" s="38">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="22">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="24">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="26">
+      <c r="A33" s="38">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="22">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="24">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="26">
+      <c r="A34" s="38">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="22">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="24">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="26">
+      <c r="A35" s="38">
         <v>34</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="22">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="24">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="26">
+      <c r="A36" s="38">
         <v>35</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="22">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="24">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="26">
+      <c r="A37" s="38">
         <v>36</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="22">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="24">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="26">
+      <c r="A38" s="38">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="22">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="24">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="26">
+      <c r="A39" s="38">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="22">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="24">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="26">
+      <c r="A40" s="38">
         <v>39</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="22">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="24">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="26">
+      <c r="A41" s="38">
         <v>40</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="22">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="24">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="26">
+      <c r="A42" s="38">
         <v>41</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="22">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="24">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="26">
+      <c r="A43" s="38">
         <v>42</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="22">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="24">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="26">
+      <c r="A44" s="38">
         <v>43</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="22">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="24">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="26">
+      <c r="A45" s="38">
         <v>44</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="22">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="24">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="26">
+      <c r="A46" s="38">
         <v>45</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="22">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="24">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="26">
+      <c r="A47" s="38">
         <v>46</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="22">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="24">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="26">
+      <c r="A48" s="38">
         <v>47</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="22">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="24">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="26">
+      <c r="A49" s="38">
         <v>48</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="22">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="24">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="26">
+      <c r="A50" s="38">
         <v>49</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="22">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="24">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="27">
+      <c r="A51" s="39">
         <v>50</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="26">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="28">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -3442,57 +3506,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="32">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="20">
         <v>16711680</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="24">
         <v>65280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="24">
         <v>255</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="22">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="28">
         <v>8947848</v>
       </c>
     </row>
@@ -3514,88 +3578,175 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="14">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Exp" sheetId="3" r:id="rId3"/>
     <sheet name="Attribute" sheetId="4" r:id="rId4"/>
     <sheet name="AttributeRate" sheetId="5" r:id="rId5"/>
-    <sheet name="MapSelect" sheetId="6" r:id="rId6"/>
+    <sheet name="Map" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -231,7 +231,7 @@
     <t>ワルシャワ</t>
   </si>
   <si>
-    <t>Resource/Map/map0.map</t>
+    <t>map0.map</t>
   </si>
   <si>
     <t>パリ</t>
@@ -252,8 +252,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -265,21 +265,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -289,24 +275,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,17 +297,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,29 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,16 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +374,36 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,19 +418,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +454,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,19 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,67 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,25 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,6 +890,17 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,45 +916,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,7 +939,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,13 +953,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,149 +999,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,54 +1199,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,6 +1228,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1590,7 +1557,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1679,22 +1646,22 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="30">
         <v>20</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="30">
         <v>10</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="30">
         <v>5</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="30">
         <v>5</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="30">
         <v>5</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="30">
         <v>5</v>
       </c>
       <c r="K2">
@@ -1741,22 +1708,22 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="30">
         <v>20</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="30">
         <v>10</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="30">
         <v>5</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="30">
         <v>5</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="30">
         <v>5</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="30">
         <v>5</v>
       </c>
       <c r="K3">
@@ -1803,22 +1770,22 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="30">
         <v>20</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="30">
         <v>10</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="30">
         <v>5</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="30">
         <v>5</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="30">
         <v>5</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="30">
         <v>5</v>
       </c>
       <c r="K4">
@@ -1865,22 +1832,22 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="30">
         <v>20</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="30">
         <v>10</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="30">
         <v>5</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="30">
         <v>5</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="30">
         <v>5</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="30">
         <v>5</v>
       </c>
       <c r="K5">
@@ -1930,22 +1897,22 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="30">
         <v>20</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="30">
         <v>10</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="30">
         <v>5</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="30">
         <v>5</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="30">
         <v>5</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="30">
         <v>5</v>
       </c>
       <c r="K6">
@@ -1992,22 +1959,22 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="30">
         <v>20</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="30">
         <v>10</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="30">
         <v>5</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="30">
         <v>5</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="30">
         <v>5</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="30">
         <v>5</v>
       </c>
       <c r="K7">
@@ -2059,7 +2026,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2072,7 +2039,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -2105,705 +2072,705 @@
       <c r="K1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="32">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="19">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>32</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="5">
         <v>32</v>
       </c>
-      <c r="H2" s="19">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="19">
-        <v>0</v>
-      </c>
-      <c r="K2" s="19">
-        <v>0</v>
-      </c>
-      <c r="L2" s="20">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="33">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>32</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="8">
         <v>32</v>
       </c>
-      <c r="H3" s="23">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="23">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24">
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="33">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="8">
         <v>32</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="8">
         <v>32</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="8">
         <v>32</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="8">
         <v>32</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="8">
         <v>65280</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
         <v>30</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="33">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <v>32</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="8">
         <v>32</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="8">
         <v>6724095</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="8">
         <v>-1</v>
       </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="33">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>32</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="8">
         <v>32</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="8">
         <v>32</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="8">
         <v>6724095</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="8">
         <v>-1</v>
       </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="23">
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="33">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>64</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="8">
         <v>32</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="8">
         <v>32</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="8">
         <v>6724095</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="8">
         <v>-1</v>
       </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="33">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="23">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
         <v>96</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="8">
         <v>32</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="8">
         <v>32</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="8">
         <v>6724095</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="8">
         <v>-1</v>
       </c>
-      <c r="J8" s="23">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="33">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <v>128</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="8">
         <v>32</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="8">
         <v>32</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="8">
         <v>6724095</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="8">
         <v>-1</v>
       </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="33">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
         <v>160</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="8">
         <v>32</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="8">
         <v>32</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="8">
         <v>6724095</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="8">
         <v>-1</v>
       </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24">
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="33">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
         <v>192</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="8">
         <v>32</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="8">
         <v>32</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="8">
         <v>6724095</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="8">
         <v>-1</v>
       </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="33">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
         <v>224</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="8">
         <v>32</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="8">
         <v>32</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="8">
         <v>6724095</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="8">
         <v>-1</v>
       </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="33">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
         <v>256</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="8">
         <v>32</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="8">
         <v>32</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="8">
         <v>6724095</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="8">
         <v>-1</v>
       </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="24">
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="33">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>32</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="8">
         <v>32</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="8">
         <v>6697728</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="8">
         <v>-1</v>
       </c>
-      <c r="J14" s="23">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="33">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
         <v>64</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="8">
         <v>64</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="8">
         <v>8947848</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="8">
         <v>1</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="8">
         <v>2</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="8">
         <v>30</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="33">
+    <row r="16" ht="14.25" spans="1:12">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
         <v>32</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="11">
         <v>32</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="11">
         <v>16711680</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="11">
         <v>1</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="11">
         <v>-1</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="11">
         <v>-20</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="12">
         <v>-20</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="33"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="33"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="33"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="33"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="33"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="33"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="33"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="33"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:12">
-      <c r="A25" s="34"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2816,7 +2783,7 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2827,660 +2794,660 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="37">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="18">
         <v>100</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="38">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="9">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="38">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="9">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="38">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="9">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="38">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="38">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="38">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="38">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="38">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="38">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="9">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="38">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="9">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="38">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="9">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="38">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="9">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="38">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="9">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="38">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="20">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="9">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="38">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="9">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="38">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="9">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="38">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="9">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="38">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="9">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="38">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="9">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="38">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="9">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="38">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="9">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="38">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="9">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="38">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="9">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="38">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="9">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="38">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="20">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="9">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="38">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="9">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="38">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="20">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="9">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="38">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="9">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="38">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="20">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="9">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="38">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="9">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="38">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="9">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="38">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="20">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="9">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="38">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="20">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="9">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="38">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="20">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="9">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="38">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="20">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="9">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="38">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="20">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="9">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="38">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="20">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="9">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="38">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="20">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="9">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="38">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="20">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="9">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="38">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="20">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="9">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="38">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="20">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="9">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="38">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="20">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="9">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="38">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="20">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="9">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="38">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="20">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="9">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="38">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="20">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="9">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="38">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="20">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="9">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="38">
+      <c r="A49" s="26">
         <v>48</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="20">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="9">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="38">
+      <c r="A50" s="26">
         <v>49</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="20">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="9">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="39">
+      <c r="A51" s="27">
         <v>50</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="22">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="12">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -3506,57 +3473,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="6">
         <v>16711680</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="9">
         <v>65280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="9">
         <v>255</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="34">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="12">
         <v>8947848</v>
       </c>
     </row>
@@ -3601,64 +3568,64 @@
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="5">
         <v>1.2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="5">
         <v>0.8</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>0.8</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="8">
         <v>1.2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>1.2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="8">
         <v>0.8</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="25">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3674,7 +3641,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>職業ID</t>
   </si>
@@ -237,7 +237,13 @@
     <t>パリ</t>
   </si>
   <si>
+    <t>map1.map</t>
+  </si>
+  <si>
     <t>ロンドン</t>
+  </si>
+  <si>
+    <t>map2.map</t>
   </si>
   <si>
     <t>モスクワ</t>
@@ -275,9 +281,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,6 +292,29 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,16 +333,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,74 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,37 +478,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,13 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,55 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +566,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -905,6 +911,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -916,21 +931,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,17 +953,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,11 +983,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,7 +1005,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,136 +1014,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3641,7 +3647,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -3680,7 +3686,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3688,10 +3694,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3699,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>70</v>
@@ -3710,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>70</v>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="5505" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -49,199 +49,199 @@
     <t>移動力</t>
   </si>
   <si>
+    <t>キャラクター画像パス</t>
+  </si>
+  <si>
+    <t>職業アイコンパス</t>
+  </si>
+  <si>
+    <t>Swordman</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/swordman</t>
+  </si>
+  <si>
+    <t>Resource/Image/Icon/swordIcon.png</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/soldier</t>
+  </si>
+  <si>
+    <t>Resource/Image/Icon/spearIcon.png</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/warrior</t>
+  </si>
+  <si>
+    <t>Resource/Image/Icon/axIcon.png</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/mage</t>
+  </si>
+  <si>
+    <t>Resource/Image/Icon/mageIcon.png</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/archer</t>
+  </si>
+  <si>
+    <t>Resource/Image/Icon/archerIcon.png</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/priest</t>
+  </si>
+  <si>
+    <t>Resource/Image/Icon/priestIcon.png</t>
+  </si>
+  <si>
+    <t>マップチップID</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>画像パス</t>
+  </si>
+  <si>
+    <t>左上座標X</t>
+  </si>
+  <si>
+    <t>左上座標Y</t>
+  </si>
+  <si>
+    <t>サイズW</t>
+  </si>
+  <si>
+    <t>サイズH</t>
+  </si>
+  <si>
+    <t>簡略化色</t>
+  </si>
+  <si>
+    <t>移動コスト</t>
+  </si>
+  <si>
+    <t>防御補正値</t>
+  </si>
+  <si>
+    <t>回避補正値</t>
+  </si>
+  <si>
+    <t>回復</t>
+  </si>
+  <si>
+    <t>草原</t>
+  </si>
+  <si>
+    <t>mapchip0.png</t>
+  </si>
+  <si>
+    <t>森</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>mapchip1.png</t>
+  </si>
+  <si>
+    <t>岩</t>
+  </si>
+  <si>
+    <t>mapchip2.png</t>
+  </si>
+  <si>
+    <t>砦</t>
+  </si>
+  <si>
+    <t>mapchip3.png</t>
+  </si>
+  <si>
+    <t>溶岩</t>
+  </si>
+  <si>
+    <t>mapchip4.png</t>
+  </si>
+  <si>
+    <t>レベル</t>
+  </si>
+  <si>
+    <t>必要経験値</t>
+  </si>
+  <si>
+    <t>取得経験値</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>属性色</t>
+  </si>
+  <si>
+    <t>赤</t>
+  </si>
+  <si>
+    <t>緑</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>攻＼守</t>
+  </si>
+  <si>
+    <t>マップID</t>
+  </si>
+  <si>
+    <t>マップ名</t>
+  </si>
+  <si>
+    <t>データパス</t>
+  </si>
+  <si>
+    <t>ワルシャワ</t>
+  </si>
+  <si>
+    <t>map0.map</t>
+  </si>
+  <si>
+    <t>パリ</t>
+  </si>
+  <si>
+    <t>map1.map</t>
+  </si>
+  <si>
+    <t>ロンドン</t>
+  </si>
+  <si>
+    <t>map2.map</t>
+  </si>
+  <si>
+    <t>モスクワ</t>
+  </si>
+  <si>
+    <t>ワシントンD.C.</t>
+  </si>
+  <si>
     <t>武器ID</t>
-  </si>
-  <si>
-    <t>キャラクター画像パス</t>
-  </si>
-  <si>
-    <t>職業アイコンパス</t>
-  </si>
-  <si>
-    <t>Swordman</t>
-  </si>
-  <si>
-    <t>Resource/Image/Charactor/swordman</t>
-  </si>
-  <si>
-    <t>Resource/Image/Icon/swordIcon.png</t>
-  </si>
-  <si>
-    <t>Soldier</t>
-  </si>
-  <si>
-    <t>Resource/Image/Charactor/soldier</t>
-  </si>
-  <si>
-    <t>Resource/Image/Icon/spearIcon.png</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>Resource/Image/Charactor/warrior</t>
-  </si>
-  <si>
-    <t>Resource/Image/Icon/axIcon.png</t>
-  </si>
-  <si>
-    <t>Mage</t>
-  </si>
-  <si>
-    <t>Resource/Image/Charactor/mage</t>
-  </si>
-  <si>
-    <t>Resource/Image/Icon/mageIcon.png</t>
-  </si>
-  <si>
-    <t>Archer</t>
-  </si>
-  <si>
-    <t>Resource/Image/Charactor/archer</t>
-  </si>
-  <si>
-    <t>Resource/Image/Icon/archerIcon.png</t>
-  </si>
-  <si>
-    <t>Priest</t>
-  </si>
-  <si>
-    <t>Resource/Image/Charactor/priest</t>
-  </si>
-  <si>
-    <t>Resource/Image/Icon/priestIcon.png</t>
-  </si>
-  <si>
-    <t>マップチップID</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>画像パス</t>
-  </si>
-  <si>
-    <t>左上座標X</t>
-  </si>
-  <si>
-    <t>左上座標Y</t>
-  </si>
-  <si>
-    <t>サイズW</t>
-  </si>
-  <si>
-    <t>サイズH</t>
-  </si>
-  <si>
-    <t>簡略化色</t>
-  </si>
-  <si>
-    <t>移動コスト</t>
-  </si>
-  <si>
-    <t>防御補正値</t>
-  </si>
-  <si>
-    <t>回避補正値</t>
-  </si>
-  <si>
-    <t>回復</t>
-  </si>
-  <si>
-    <t>草原</t>
-  </si>
-  <si>
-    <t>mapchip0.png</t>
-  </si>
-  <si>
-    <t>森</t>
-  </si>
-  <si>
-    <t>川</t>
-  </si>
-  <si>
-    <t>mapchip1.png</t>
-  </si>
-  <si>
-    <t>岩</t>
-  </si>
-  <si>
-    <t>mapchip2.png</t>
-  </si>
-  <si>
-    <t>砦</t>
-  </si>
-  <si>
-    <t>mapchip3.png</t>
-  </si>
-  <si>
-    <t>溶岩</t>
-  </si>
-  <si>
-    <t>mapchip4.png</t>
-  </si>
-  <si>
-    <t>レベル</t>
-  </si>
-  <si>
-    <t>必要経験値</t>
-  </si>
-  <si>
-    <t>取得経験値</t>
-  </si>
-  <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>属性色</t>
-  </si>
-  <si>
-    <t>赤</t>
-  </si>
-  <si>
-    <t>緑</t>
-  </si>
-  <si>
-    <t>青</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>攻＼守</t>
-  </si>
-  <si>
-    <t>マップID</t>
-  </si>
-  <si>
-    <t>マップ名</t>
-  </si>
-  <si>
-    <t>データパス</t>
-  </si>
-  <si>
-    <t>ワルシャワ</t>
-  </si>
-  <si>
-    <t>map0.map</t>
-  </si>
-  <si>
-    <t>パリ</t>
-  </si>
-  <si>
-    <t>map1.map</t>
-  </si>
-  <si>
-    <t>ロンドン</t>
-  </si>
-  <si>
-    <t>map2.map</t>
-  </si>
-  <si>
-    <t>モスクワ</t>
-  </si>
-  <si>
-    <t>ワシントンD.C.</t>
   </si>
   <si>
     <t>武器名</t>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,8 +314,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,21 +400,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,46 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,22 +440,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,13 +457,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -467,7 +467,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,19 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,19 +587,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,97 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,32 +939,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,8 +961,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,8 +985,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,22 +1036,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,145 +1048,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,10 +1291,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1615,409 +1615,389 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
+    <col min="16" max="16" width="32.25" customWidth="1"/>
     <col min="17" max="17" width="32" customWidth="1"/>
     <col min="18" max="18" width="32.25" customWidth="1"/>
     <col min="21" max="21" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="M1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="33">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="34">
+        <v>20</v>
+      </c>
+      <c r="D2" s="34">
+        <v>10</v>
+      </c>
+      <c r="E2" s="34">
+        <v>5</v>
+      </c>
+      <c r="F2" s="34">
+        <v>5</v>
+      </c>
+      <c r="G2" s="34">
+        <v>5</v>
+      </c>
+      <c r="H2" s="34">
+        <v>5</v>
+      </c>
+      <c r="I2" s="34">
+        <v>5</v>
+      </c>
+      <c r="J2" s="34">
+        <v>60</v>
+      </c>
+      <c r="K2" s="34">
+        <v>40</v>
+      </c>
+      <c r="L2" s="34">
+        <v>40</v>
+      </c>
+      <c r="M2" s="34">
+        <v>20</v>
+      </c>
+      <c r="N2" s="34">
+        <v>40</v>
+      </c>
+      <c r="O2" s="34">
+        <v>40</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33">
+      <c r="Q2" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="34">
         <v>20</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D3" s="34">
         <v>10</v>
       </c>
-      <c r="E2" s="33">
-        <v>5</v>
-      </c>
-      <c r="F2" s="33">
-        <v>5</v>
-      </c>
-      <c r="G2" s="33">
-        <v>5</v>
-      </c>
-      <c r="H2" s="33">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
-      <c r="K2">
+      <c r="E3" s="34">
+        <v>5</v>
+      </c>
+      <c r="F3" s="34">
+        <v>5</v>
+      </c>
+      <c r="G3" s="34">
+        <v>5</v>
+      </c>
+      <c r="H3" s="34">
+        <v>5</v>
+      </c>
+      <c r="I3" s="34">
+        <v>5</v>
+      </c>
+      <c r="J3" s="34">
+        <v>61</v>
+      </c>
+      <c r="K3" s="34">
+        <v>41</v>
+      </c>
+      <c r="L3" s="34">
+        <v>41</v>
+      </c>
+      <c r="M3" s="34">
+        <v>21</v>
+      </c>
+      <c r="N3" s="34">
+        <v>41</v>
+      </c>
+      <c r="O3" s="34">
+        <v>41</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="34">
+        <v>20</v>
+      </c>
+      <c r="D4" s="34">
+        <v>10</v>
+      </c>
+      <c r="E4" s="34">
+        <v>5</v>
+      </c>
+      <c r="F4" s="34">
+        <v>5</v>
+      </c>
+      <c r="G4" s="34">
+        <v>5</v>
+      </c>
+      <c r="H4" s="34">
+        <v>5</v>
+      </c>
+      <c r="I4" s="34">
+        <v>5</v>
+      </c>
+      <c r="J4" s="34">
+        <v>62</v>
+      </c>
+      <c r="K4" s="34">
+        <v>42</v>
+      </c>
+      <c r="L4" s="34">
+        <v>42</v>
+      </c>
+      <c r="M4" s="34">
+        <v>22</v>
+      </c>
+      <c r="N4" s="34">
+        <v>42</v>
+      </c>
+      <c r="O4" s="34">
+        <v>42</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="34">
+        <v>20</v>
+      </c>
+      <c r="D5" s="34">
+        <v>10</v>
+      </c>
+      <c r="E5" s="34">
+        <v>5</v>
+      </c>
+      <c r="F5" s="34">
+        <v>5</v>
+      </c>
+      <c r="G5" s="34">
+        <v>5</v>
+      </c>
+      <c r="H5" s="34">
+        <v>5</v>
+      </c>
+      <c r="I5" s="34">
+        <v>5</v>
+      </c>
+      <c r="J5" s="34">
+        <v>63</v>
+      </c>
+      <c r="K5" s="34">
+        <v>43</v>
+      </c>
+      <c r="L5" s="34">
+        <v>43</v>
+      </c>
+      <c r="M5" s="34">
+        <v>23</v>
+      </c>
+      <c r="N5" s="34">
+        <v>43</v>
+      </c>
+      <c r="O5" s="34">
+        <v>43</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="34">
+        <v>20</v>
+      </c>
+      <c r="D6" s="34">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34">
+        <v>5</v>
+      </c>
+      <c r="G6" s="34">
+        <v>5</v>
+      </c>
+      <c r="H6" s="34">
+        <v>5</v>
+      </c>
+      <c r="I6" s="34">
+        <v>5</v>
+      </c>
+      <c r="J6" s="34">
+        <v>64</v>
+      </c>
+      <c r="K6" s="34">
+        <v>44</v>
+      </c>
+      <c r="L6" s="34">
+        <v>44</v>
+      </c>
+      <c r="M6" s="34">
+        <v>24</v>
+      </c>
+      <c r="N6" s="34">
+        <v>44</v>
+      </c>
+      <c r="O6" s="34">
+        <v>44</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="33">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="34">
+        <v>20</v>
+      </c>
+      <c r="D7" s="34">
+        <v>10</v>
+      </c>
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
+      <c r="F7" s="34">
+        <v>5</v>
+      </c>
+      <c r="G7" s="34">
+        <v>5</v>
+      </c>
+      <c r="H7" s="34">
+        <v>5</v>
+      </c>
+      <c r="I7" s="34">
+        <v>5</v>
+      </c>
+      <c r="J7" s="34">
         <v>40</v>
       </c>
-      <c r="L2">
-        <v>40</v>
-      </c>
-      <c r="M2">
+      <c r="K7" s="34">
         <v>20</v>
       </c>
-      <c r="N2">
-        <v>40</v>
-      </c>
-      <c r="O2">
-        <v>40</v>
-      </c>
-      <c r="P2" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="L7" s="34">
         <v>20</v>
       </c>
-      <c r="D3" s="33">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33">
-        <v>5</v>
-      </c>
-      <c r="F3" s="33">
-        <v>5</v>
-      </c>
-      <c r="G3" s="33">
-        <v>5</v>
-      </c>
-      <c r="H3" s="33">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>61</v>
-      </c>
-      <c r="K3">
-        <v>41</v>
-      </c>
-      <c r="L3">
-        <v>41</v>
-      </c>
-      <c r="M3">
-        <v>21</v>
-      </c>
-      <c r="N3">
-        <v>41</v>
-      </c>
-      <c r="O3">
-        <v>41</v>
-      </c>
-      <c r="P3" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="M7" s="34">
+        <v>50</v>
+      </c>
+      <c r="N7" s="34">
         <v>20</v>
       </c>
-      <c r="D4" s="33">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33">
-        <v>5</v>
-      </c>
-      <c r="F4" s="33">
-        <v>5</v>
-      </c>
-      <c r="G4" s="33">
-        <v>5</v>
-      </c>
-      <c r="H4" s="33">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>62</v>
-      </c>
-      <c r="K4">
-        <v>42</v>
-      </c>
-      <c r="L4">
-        <v>42</v>
-      </c>
-      <c r="M4">
-        <v>22</v>
-      </c>
-      <c r="N4">
-        <v>42</v>
-      </c>
-      <c r="O4">
-        <v>42</v>
-      </c>
-      <c r="P4" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="O7" s="34">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="33">
-        <v>20</v>
-      </c>
-      <c r="D5" s="33">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33">
-        <v>5</v>
-      </c>
-      <c r="F5" s="33">
-        <v>5</v>
-      </c>
-      <c r="G5" s="33">
-        <v>5</v>
-      </c>
-      <c r="H5" s="33">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>63</v>
-      </c>
-      <c r="K5">
-        <v>43</v>
-      </c>
-      <c r="L5">
-        <v>43</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>43</v>
-      </c>
-      <c r="O5">
-        <v>43</v>
-      </c>
-      <c r="P5" s="34">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="33">
-        <v>20</v>
-      </c>
-      <c r="D6" s="33">
-        <v>10</v>
-      </c>
-      <c r="E6" s="33">
-        <v>5</v>
-      </c>
-      <c r="F6" s="33">
-        <v>5</v>
-      </c>
-      <c r="G6" s="33">
-        <v>5</v>
-      </c>
-      <c r="H6" s="33">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>64</v>
-      </c>
-      <c r="K6">
-        <v>44</v>
-      </c>
-      <c r="L6">
-        <v>44</v>
-      </c>
-      <c r="M6">
-        <v>24</v>
-      </c>
-      <c r="N6">
-        <v>44</v>
-      </c>
-      <c r="O6">
-        <v>44</v>
-      </c>
-      <c r="P6" s="34">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="P7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="33">
-        <v>20</v>
-      </c>
-      <c r="D7" s="33">
-        <v>10</v>
-      </c>
-      <c r="E7" s="33">
-        <v>5</v>
-      </c>
-      <c r="F7" s="33">
-        <v>5</v>
-      </c>
-      <c r="G7" s="33">
-        <v>5</v>
-      </c>
-      <c r="H7" s="33">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>50</v>
-      </c>
-      <c r="N7">
-        <v>20</v>
-      </c>
-      <c r="O7">
-        <v>20</v>
-      </c>
-      <c r="P7" s="34">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="34" t="s">
         <v>28</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2046,40 +2026,40 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
       <c r="A1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2087,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2125,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -2163,10 +2143,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6">
         <v>32</v>
@@ -2201,10 +2181,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -2239,10 +2219,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -2277,10 +2257,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -2315,10 +2295,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -2353,10 +2333,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -2391,10 +2371,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -2429,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
@@ -2467,10 +2447,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -2505,10 +2485,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -2543,10 +2523,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
@@ -2581,10 +2561,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
@@ -2619,10 +2599,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -2801,13 +2781,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3480,15 +3460,15 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11">
         <v>16711680</v>
@@ -3496,7 +3476,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="13">
         <v>65280</v>
@@ -3504,7 +3484,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="13">
         <v>255</v>
@@ -3512,7 +3492,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="15">
         <v>8947848</v>
@@ -3537,24 +3517,24 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
@@ -3571,7 +3551,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="23">
         <v>0.8</v>
@@ -3588,7 +3568,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="23">
         <v>1.2</v>
@@ -3605,7 +3585,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="25">
         <v>1</v>
@@ -3643,13 +3623,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3657,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3668,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3679,10 +3659,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3690,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
@@ -3701,10 +3681,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3698,7 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L7"/>
     </sheetView>
   </sheetViews>
@@ -3732,7 +3712,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>74</v>
@@ -3759,7 +3739,7 @@
         <v>81</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>82</v>
@@ -3796,7 +3776,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>85</v>
@@ -3830,7 +3810,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>85</v>
@@ -3864,7 +3844,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>85</v>
@@ -3900,7 +3880,7 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>85</v>
@@ -3934,7 +3914,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>85</v>
@@ -3970,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>85</v>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>職業ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>力</t>
   </si>
   <si>
+    <t>魔力</t>
+  </si>
+  <si>
     <t>守備</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>技術</t>
+  </si>
+  <si>
+    <t>幸運</t>
   </si>
   <si>
     <t>移動力</t>
@@ -300,10 +306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,39 +320,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,9 +350,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,69 +449,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,7 +473,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,13 +581,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,73 +617,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,6 +945,51 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,47 +1012,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,17 +1029,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,149 +1054,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,6 +1301,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1615,21 +1624,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="16" max="16" width="32.25" customWidth="1"/>
-    <col min="17" max="17" width="32" customWidth="1"/>
-    <col min="18" max="18" width="32.25" customWidth="1"/>
-    <col min="21" max="21" width="30.75" customWidth="1"/>
+    <col min="19" max="19" width="8.5" customWidth="1"/>
+    <col min="20" max="20" width="32" customWidth="1"/>
+    <col min="21" max="21" width="32.25" customWidth="1"/>
+    <col min="24" max="24" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1658,36 +1667,48 @@
         <v>8</v>
       </c>
       <c r="J1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="R1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="T1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="33">
         <v>0</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="34">
         <v>20</v>
@@ -1696,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="34">
         <v>5</v>
@@ -1711,16 +1732,16 @@
         <v>5</v>
       </c>
       <c r="J2" s="34">
+        <v>5</v>
+      </c>
+      <c r="K2" s="34">
+        <v>5</v>
+      </c>
+      <c r="L2" s="34">
         <v>60</v>
       </c>
-      <c r="K2" s="34">
+      <c r="M2" s="34">
         <v>40</v>
-      </c>
-      <c r="L2" s="34">
-        <v>40</v>
-      </c>
-      <c r="M2" s="34">
-        <v>20</v>
       </c>
       <c r="N2" s="34">
         <v>40</v>
@@ -1728,19 +1749,31 @@
       <c r="O2" s="34">
         <v>40</v>
       </c>
-      <c r="P2" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>40</v>
+      </c>
+      <c r="R2" s="34">
+        <v>40</v>
+      </c>
+      <c r="S2">
+        <v>40</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="34">
         <v>20</v>
@@ -1749,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="34">
         <v>5</v>
@@ -1764,36 +1797,48 @@
         <v>5</v>
       </c>
       <c r="J3" s="34">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="K3" s="34">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="L3" s="34">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M3" s="34">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N3" s="34">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="34">
-        <v>41</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>40</v>
+      </c>
+      <c r="P3" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>40</v>
+      </c>
+      <c r="R3" s="34">
+        <v>40</v>
+      </c>
+      <c r="S3">
+        <v>40</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="33">
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="34">
         <v>20</v>
@@ -1802,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="34">
         <v>5</v>
@@ -1817,36 +1862,48 @@
         <v>5</v>
       </c>
       <c r="J4" s="34">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="K4" s="34">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L4" s="34">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M4" s="34">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N4" s="34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O4" s="34">
-        <v>42</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>40</v>
+      </c>
+      <c r="P4" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>40</v>
+      </c>
+      <c r="R4" s="34">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>40</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="33">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="34">
         <v>20</v>
@@ -1855,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="34">
         <v>5</v>
@@ -1870,36 +1927,48 @@
         <v>5</v>
       </c>
       <c r="J5" s="34">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="K5" s="34">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L5" s="34">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M5" s="34">
+        <v>40</v>
+      </c>
+      <c r="N5" s="34">
+        <v>40</v>
+      </c>
+      <c r="O5" s="34">
+        <v>40</v>
+      </c>
+      <c r="P5" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>40</v>
+      </c>
+      <c r="R5" s="34">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+      <c r="T5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="34">
-        <v>43</v>
-      </c>
-      <c r="O5" s="34">
-        <v>43</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="U5" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="33">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="34">
         <v>20</v>
@@ -1908,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="34">
         <v>5</v>
@@ -1923,36 +1992,48 @@
         <v>5</v>
       </c>
       <c r="J6" s="34">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="K6" s="34">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="L6" s="34">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M6" s="34">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N6" s="34">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O6" s="34">
-        <v>44</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>40</v>
+      </c>
+      <c r="P6" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>40</v>
+      </c>
+      <c r="R6" s="34">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="33">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="34">
         <v>20</v>
@@ -1961,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="34">
         <v>5</v>
@@ -1976,28 +2057,40 @@
         <v>5</v>
       </c>
       <c r="J7" s="34">
+        <v>5</v>
+      </c>
+      <c r="K7" s="34">
+        <v>5</v>
+      </c>
+      <c r="L7" s="34">
+        <v>60</v>
+      </c>
+      <c r="M7" s="34">
         <v>40</v>
       </c>
-      <c r="K7" s="34">
+      <c r="N7" s="34">
+        <v>40</v>
+      </c>
+      <c r="O7" s="34">
+        <v>40</v>
+      </c>
+      <c r="P7" s="34">
         <v>20</v>
       </c>
-      <c r="L7" s="34">
-        <v>20</v>
-      </c>
-      <c r="M7" s="34">
-        <v>50</v>
-      </c>
-      <c r="N7" s="34">
-        <v>20</v>
-      </c>
-      <c r="O7" s="34">
-        <v>20</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="34" t="s">
-        <v>28</v>
+      <c r="Q7" s="34">
+        <v>40</v>
+      </c>
+      <c r="R7" s="34">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>40</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2026,40 +2119,40 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
       <c r="A1" s="31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2067,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2105,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -2143,10 +2236,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6">
         <v>32</v>
@@ -2181,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -2219,10 +2312,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -2257,10 +2350,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -2295,10 +2388,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -2333,10 +2426,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -2371,10 +2464,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -2409,10 +2502,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
@@ -2447,10 +2540,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -2485,10 +2578,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -2523,10 +2616,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
@@ -2561,10 +2654,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
@@ -2599,10 +2692,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -2769,8 +2862,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2781,13 +2874,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3460,15 +3553,15 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11">
         <v>16711680</v>
@@ -3476,7 +3569,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="13">
         <v>65280</v>
@@ -3484,7 +3577,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="13">
         <v>255</v>
@@ -3492,7 +3585,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" s="15">
         <v>8947848</v>
@@ -3517,24 +3610,24 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
@@ -3551,7 +3644,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="23">
         <v>0.8</v>
@@ -3568,7 +3661,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="23">
         <v>1.2</v>
@@ -3585,7 +3678,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" s="25">
         <v>1</v>
@@ -3623,13 +3716,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3637,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3648,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3659,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3670,10 +3763,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
@@ -3681,10 +3774,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3712,40 +3805,40 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3753,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -3776,10 +3869,10 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3787,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="6">
         <v>5</v>
@@ -3810,10 +3903,10 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3821,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -3844,10 +3937,10 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3855,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6">
         <v>5</v>
@@ -3880,10 +3973,10 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3891,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -3914,10 +4007,10 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:12">
@@ -3925,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
@@ -3950,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -308,8 +308,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -317,28 +317,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,15 +329,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,16 +367,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,22 +418,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,18 +443,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -473,13 +473,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,55 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,43 +581,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,55 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,21 +945,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,16 +965,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,11 +1012,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,15 +1042,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1054,25 +1054,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,118 +1081,118 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1624,13 +1624,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="19" max="19" width="8.5" customWidth="1"/>
     <col min="20" max="20" width="32" customWidth="1"/>
@@ -2091,6 +2091,71 @@
       </c>
       <c r="U7" s="34" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8">
+        <v>17</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>19</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3602,8 +3667,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3633,10 +3698,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="4">
         <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.8</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -3647,13 +3712,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="23">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -3664,10 +3729,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="6">
         <v>1.2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.8</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1816030\Project\Commander\Resource\DataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
-    <sheet name="MapChip" sheetId="2" r:id="rId2"/>
-    <sheet name="Exp" sheetId="3" r:id="rId3"/>
-    <sheet name="Attribute" sheetId="4" r:id="rId4"/>
-    <sheet name="AttributeRate" sheetId="5" r:id="rId5"/>
-    <sheet name="Map" sheetId="6" r:id="rId6"/>
-    <sheet name="WeaponType" sheetId="8" r:id="rId7"/>
-    <sheet name="Weapon" sheetId="7" r:id="rId8"/>
+    <sheet name="StartPlayerCharactor" sheetId="9" r:id="rId2"/>
+    <sheet name="MapChip" sheetId="2" r:id="rId3"/>
+    <sheet name="Exp" sheetId="3" r:id="rId4"/>
+    <sheet name="Attribute" sheetId="4" r:id="rId5"/>
+    <sheet name="AttributeRate" sheetId="5" r:id="rId6"/>
+    <sheet name="Map" sheetId="6" r:id="rId7"/>
+    <sheet name="WeaponType" sheetId="8" r:id="rId8"/>
+    <sheet name="Weapon" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>職業ID</t>
   </si>
@@ -387,19 +393,32 @@
   </si>
   <si>
     <t>リザーブ</t>
+  </si>
+  <si>
+    <t>キャラクターID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武器ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,345 +427,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1036,255 +740,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,62 +861,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1712,19 +1142,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="19" max="19" width="8.5" customWidth="1"/>
     <col min="20" max="20" width="5.75" customWidth="1"/>
@@ -1733,7 +1163,7 @@
     <col min="24" max="24" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="37">
         <v>0</v>
       </c>
@@ -1869,7 +1299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -1937,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="37">
         <v>2</v>
       </c>
@@ -2005,7 +1435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="37">
         <v>3</v>
       </c>
@@ -2073,7 +1503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="37">
         <v>4</v>
       </c>
@@ -2141,7 +1571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="37">
         <v>5</v>
       </c>
@@ -2210,21 +1640,137 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="4" width="13.25" customWidth="1"/>
@@ -2233,7 +1779,7 @@
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +1817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>0</v>
       </c>
@@ -2309,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -2347,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -2385,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -2423,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -2461,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="33">
         <v>5</v>
       </c>
@@ -2499,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>6</v>
       </c>
@@ -2537,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="33">
         <v>7</v>
       </c>
@@ -2575,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -2613,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
         <v>9</v>
       </c>
@@ -2651,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -2689,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
         <v>11</v>
       </c>
@@ -2727,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
         <v>12</v>
       </c>
@@ -2765,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>13</v>
       </c>
@@ -2803,7 +2349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="34">
         <v>14</v>
       </c>
@@ -2841,7 +2387,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2855,7 +2401,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2869,7 +2415,7 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2883,7 +2429,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2897,7 +2443,7 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2911,7 +2457,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2925,7 +2471,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2939,7 +2485,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2953,7 +2499,7 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2968,27 +2514,26 @@
       <c r="L25" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2999,7 +2544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -3010,7 +2555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -3023,7 +2568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -3036,7 +2581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -3049,7 +2594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -3062,7 +2607,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -3075,7 +2620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -3088,7 +2633,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -3101,7 +2646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -3114,7 +2659,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -3127,7 +2672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -3140,7 +2685,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
         <v>12</v>
       </c>
@@ -3153,7 +2698,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -3166,7 +2711,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>14</v>
       </c>
@@ -3179,7 +2724,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -3192,7 +2737,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
         <v>16</v>
       </c>
@@ -3205,7 +2750,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -3218,7 +2763,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <v>18</v>
       </c>
@@ -3231,7 +2776,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
         <v>19</v>
       </c>
@@ -3244,7 +2789,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
         <v>20</v>
       </c>
@@ -3257,7 +2802,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
         <v>21</v>
       </c>
@@ -3270,7 +2815,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <v>22</v>
       </c>
@@ -3283,7 +2828,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
         <v>23</v>
       </c>
@@ -3296,7 +2841,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <v>24</v>
       </c>
@@ -3309,7 +2854,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -3322,7 +2867,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <v>26</v>
       </c>
@@ -3335,7 +2880,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
         <v>27</v>
       </c>
@@ -3348,7 +2893,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <v>28</v>
       </c>
@@ -3361,7 +2906,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="33">
         <v>29</v>
       </c>
@@ -3374,7 +2919,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <v>30</v>
       </c>
@@ -3387,7 +2932,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
         <v>31</v>
       </c>
@@ -3400,7 +2945,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <v>32</v>
       </c>
@@ -3413,7 +2958,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -3426,7 +2971,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <v>34</v>
       </c>
@@ -3439,7 +2984,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="33">
         <v>35</v>
       </c>
@@ -3452,7 +2997,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="33">
         <v>36</v>
       </c>
@@ -3465,7 +3010,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="33">
         <v>37</v>
       </c>
@@ -3478,7 +3023,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="33">
         <v>38</v>
       </c>
@@ -3491,7 +3036,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="33">
         <v>39</v>
       </c>
@@ -3504,7 +3049,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="33">
         <v>40</v>
       </c>
@@ -3517,7 +3062,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="33">
         <v>41</v>
       </c>
@@ -3530,7 +3075,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="33">
         <v>42</v>
       </c>
@@ -3543,7 +3088,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="33">
         <v>43</v>
       </c>
@@ -3556,7 +3101,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="33">
         <v>44</v>
       </c>
@@ -3569,7 +3114,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="33">
         <v>45</v>
       </c>
@@ -3582,7 +3127,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="33">
         <v>46</v>
       </c>
@@ -3595,7 +3140,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -3608,7 +3153,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="33">
         <v>48</v>
       </c>
@@ -3621,7 +3166,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="33">
         <v>49</v>
       </c>
@@ -3634,7 +3179,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="34">
         <v>50</v>
       </c>
@@ -3648,26 +3193,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>0</v>
       </c>
@@ -3689,7 +3234,7 @@
         <v>16711680</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -3700,7 +3245,7 @@
         <v>65280</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -3711,7 +3256,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -3723,23 +3268,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I46" sqref="I46:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
@@ -3756,7 +3300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3773,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -3790,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3807,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -3825,27 +3369,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>66</v>
       </c>
@@ -3856,7 +3399,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>0</v>
       </c>
@@ -3867,7 +3410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -3878,7 +3421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -3889,7 +3432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -3900,7 +3443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -3912,26 +3455,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>77</v>
       </c>
@@ -3951,7 +3491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>0</v>
       </c>
@@ -3967,7 +3507,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -3983,7 +3523,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -3999,7 +3539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -4017,7 +3557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -4033,7 +3573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -4052,21 +3592,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
@@ -4074,7 +3611,7 @@
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -4106,7 +3643,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -4140,7 +3677,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4174,7 +3711,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -4208,7 +3745,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4242,7 +3779,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -4276,7 +3813,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4310,7 +3847,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -4344,7 +3881,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -4376,7 +3913,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -4408,7 +3945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -4440,7 +3977,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -4472,7 +4009,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -4504,7 +4041,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -4536,7 +4073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -4568,7 +4105,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -4600,7 +4137,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -4632,7 +4169,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -4664,7 +4201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -4696,7 +4233,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -4728,7 +4265,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -4760,7 +4297,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -4792,7 +4329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -4824,7 +4361,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -4856,7 +4393,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -4889,7 +4426,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1816030\Project\Commander\Resource\DataBase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7845" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <sheet name="WeaponType" sheetId="8" r:id="rId8"/>
     <sheet name="Weapon" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>職業ID</t>
   </si>
@@ -125,6 +120,18 @@
     <t>Resource/Image/Icon/priestIcon.png</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>キャラクターID</t>
+  </si>
+  <si>
+    <t>レベル</t>
+  </si>
+  <si>
+    <t>武器ID</t>
+  </si>
+  <si>
     <t>マップチップID</t>
   </si>
   <si>
@@ -194,9 +201,6 @@
     <t>mapchip4.png</t>
   </si>
   <si>
-    <t>レベル</t>
-  </si>
-  <si>
     <t>必要経験値</t>
   </si>
   <si>
@@ -215,12 +219,12 @@
     <t>赤</t>
   </si>
   <si>
+    <t>青</t>
+  </si>
+  <si>
     <t>緑</t>
   </si>
   <si>
-    <t>青</t>
-  </si>
-  <si>
     <t>無</t>
   </si>
   <si>
@@ -260,9 +264,6 @@
     <t>ワシントンD.C.</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>武器種名</t>
   </si>
   <si>
@@ -293,9 +294,6 @@
     <t>弓</t>
   </si>
   <si>
-    <t>武器ID</t>
-  </si>
-  <si>
     <t>武器種ID</t>
   </si>
   <si>
@@ -393,32 +391,19 @@
   </si>
   <si>
     <t>リザーブ</t>
-  </si>
-  <si>
-    <t>キャラクターID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レベル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>武器ID</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,27 +415,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -740,9 +1047,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -858,33 +1407,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1142,19 +1735,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="19" max="19" width="8.5" customWidth="1"/>
     <col min="20" max="20" width="5.75" customWidth="1"/>
@@ -1163,516 +1756,517 @@
     <col min="24" max="24" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="37" t="s">
+      <c r="O1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="37">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="41">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="37">
-        <v>0</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
         <v>20</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="41">
         <v>10</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="41">
         <v>10</v>
       </c>
-      <c r="G2" s="37">
-        <v>5</v>
-      </c>
-      <c r="H2" s="37">
-        <v>5</v>
-      </c>
-      <c r="I2" s="37">
-        <v>5</v>
-      </c>
-      <c r="J2" s="37">
-        <v>5</v>
-      </c>
-      <c r="K2" s="37">
-        <v>5</v>
-      </c>
-      <c r="L2" s="37">
-        <v>5</v>
-      </c>
-      <c r="M2" s="37">
+      <c r="G2" s="41">
+        <v>5</v>
+      </c>
+      <c r="H2" s="41">
+        <v>5</v>
+      </c>
+      <c r="I2" s="41">
+        <v>5</v>
+      </c>
+      <c r="J2" s="41">
+        <v>5</v>
+      </c>
+      <c r="K2" s="41">
+        <v>5</v>
+      </c>
+      <c r="L2" s="41">
+        <v>5</v>
+      </c>
+      <c r="M2" s="41">
         <v>60</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="41">
         <v>40</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="41">
         <v>40</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="41">
         <v>40</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="41">
         <v>20</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="41">
         <v>40</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="41">
         <v>40</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="41">
         <v>40</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="37">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
         <v>20</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="41">
         <v>10</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="41">
         <v>10</v>
       </c>
-      <c r="G3" s="37">
-        <v>5</v>
-      </c>
-      <c r="H3" s="37">
-        <v>5</v>
-      </c>
-      <c r="I3" s="37">
-        <v>5</v>
-      </c>
-      <c r="J3" s="37">
-        <v>5</v>
-      </c>
-      <c r="K3" s="37">
-        <v>5</v>
-      </c>
-      <c r="L3" s="37">
-        <v>5</v>
-      </c>
-      <c r="M3" s="37">
+      <c r="G3" s="41">
+        <v>5</v>
+      </c>
+      <c r="H3" s="41">
+        <v>5</v>
+      </c>
+      <c r="I3" s="41">
+        <v>5</v>
+      </c>
+      <c r="J3" s="41">
+        <v>5</v>
+      </c>
+      <c r="K3" s="41">
+        <v>5</v>
+      </c>
+      <c r="L3" s="41">
+        <v>5</v>
+      </c>
+      <c r="M3" s="41">
         <v>60</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="41">
         <v>40</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="41">
         <v>40</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="41">
         <v>40</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="41">
         <v>20</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="41">
         <v>40</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="41">
         <v>40</v>
       </c>
-      <c r="T3" s="37">
+      <c r="T3" s="41">
         <v>40</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="U3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
+    <row r="4" spans="1:22">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="41">
         <v>2</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="41">
         <v>20</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="41">
         <v>10</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="41">
         <v>10</v>
       </c>
-      <c r="G4" s="37">
-        <v>5</v>
-      </c>
-      <c r="H4" s="37">
-        <v>5</v>
-      </c>
-      <c r="I4" s="37">
-        <v>5</v>
-      </c>
-      <c r="J4" s="37">
-        <v>5</v>
-      </c>
-      <c r="K4" s="37">
-        <v>5</v>
-      </c>
-      <c r="L4" s="37">
-        <v>5</v>
-      </c>
-      <c r="M4" s="37">
+      <c r="G4" s="41">
+        <v>5</v>
+      </c>
+      <c r="H4" s="41">
+        <v>5</v>
+      </c>
+      <c r="I4" s="41">
+        <v>5</v>
+      </c>
+      <c r="J4" s="41">
+        <v>5</v>
+      </c>
+      <c r="K4" s="41">
+        <v>5</v>
+      </c>
+      <c r="L4" s="41">
+        <v>5</v>
+      </c>
+      <c r="M4" s="41">
         <v>60</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="41">
         <v>40</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="41">
         <v>40</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="41">
         <v>40</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="41">
         <v>20</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="41">
         <v>40</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="41">
         <v>40</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="41">
         <v>40</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="V4" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
+    <row r="5" spans="1:22">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="41">
         <v>3</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="41">
         <v>20</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="41">
         <v>10</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="41">
         <v>10</v>
       </c>
-      <c r="G5" s="37">
-        <v>5</v>
-      </c>
-      <c r="H5" s="37">
-        <v>5</v>
-      </c>
-      <c r="I5" s="37">
-        <v>5</v>
-      </c>
-      <c r="J5" s="37">
-        <v>5</v>
-      </c>
-      <c r="K5" s="37">
-        <v>5</v>
-      </c>
-      <c r="L5" s="37">
-        <v>5</v>
-      </c>
-      <c r="M5" s="37">
+      <c r="G5" s="41">
+        <v>5</v>
+      </c>
+      <c r="H5" s="41">
+        <v>5</v>
+      </c>
+      <c r="I5" s="41">
+        <v>5</v>
+      </c>
+      <c r="J5" s="41">
+        <v>5</v>
+      </c>
+      <c r="K5" s="41">
+        <v>5</v>
+      </c>
+      <c r="L5" s="41">
+        <v>5</v>
+      </c>
+      <c r="M5" s="41">
         <v>60</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="41">
         <v>40</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="41">
         <v>40</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="41">
         <v>40</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="41">
         <v>20</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="41">
         <v>40</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="41">
         <v>40</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="41">
         <v>40</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
+    <row r="6" spans="1:22">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="41">
         <v>4</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="41">
         <v>20</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="41">
         <v>10</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="41">
         <v>10</v>
       </c>
-      <c r="G6" s="37">
-        <v>5</v>
-      </c>
-      <c r="H6" s="37">
-        <v>5</v>
-      </c>
-      <c r="I6" s="37">
-        <v>5</v>
-      </c>
-      <c r="J6" s="37">
-        <v>5</v>
-      </c>
-      <c r="K6" s="37">
-        <v>5</v>
-      </c>
-      <c r="L6" s="37">
-        <v>5</v>
-      </c>
-      <c r="M6" s="37">
+      <c r="G6" s="41">
+        <v>5</v>
+      </c>
+      <c r="H6" s="41">
+        <v>5</v>
+      </c>
+      <c r="I6" s="41">
+        <v>5</v>
+      </c>
+      <c r="J6" s="41">
+        <v>5</v>
+      </c>
+      <c r="K6" s="41">
+        <v>5</v>
+      </c>
+      <c r="L6" s="41">
+        <v>5</v>
+      </c>
+      <c r="M6" s="41">
         <v>60</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="41">
         <v>40</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="41">
         <v>40</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="41">
         <v>40</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="41">
         <v>20</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="41">
         <v>40</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="41">
         <v>40</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="41">
         <v>40</v>
       </c>
-      <c r="U6" s="37" t="s">
+      <c r="U6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="37" t="s">
+      <c r="V6" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
-        <v>5</v>
-      </c>
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="37">
-        <v>5</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="C7" s="41">
+        <v>5</v>
+      </c>
+      <c r="D7" s="41">
         <v>20</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="41">
         <v>10</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="41">
         <v>10</v>
       </c>
-      <c r="G7" s="37">
-        <v>5</v>
-      </c>
-      <c r="H7" s="37">
-        <v>5</v>
-      </c>
-      <c r="I7" s="37">
-        <v>5</v>
-      </c>
-      <c r="J7" s="37">
-        <v>5</v>
-      </c>
-      <c r="K7" s="37">
-        <v>5</v>
-      </c>
-      <c r="L7" s="37">
-        <v>5</v>
-      </c>
-      <c r="M7" s="37">
+      <c r="G7" s="41">
+        <v>5</v>
+      </c>
+      <c r="H7" s="41">
+        <v>5</v>
+      </c>
+      <c r="I7" s="41">
+        <v>5</v>
+      </c>
+      <c r="J7" s="41">
+        <v>5</v>
+      </c>
+      <c r="K7" s="41">
+        <v>5</v>
+      </c>
+      <c r="L7" s="41">
+        <v>5</v>
+      </c>
+      <c r="M7" s="41">
         <v>60</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="41">
         <v>40</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="41">
         <v>40</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="41">
         <v>40</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="41">
         <v>20</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="41">
         <v>40</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="41">
         <v>40</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="41">
         <v>40</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="U7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="37" t="s">
+      <c r="V7" s="41" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="32">
         <v>0</v>
       </c>
@@ -1686,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -1700,7 +2294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -1714,7 +2308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -1728,7 +2322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -1742,7 +2336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -1757,20 +2351,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="4" width="13.25" customWidth="1"/>
@@ -1779,53 +2374,53 @@
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:12">
       <c r="A1" s="28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="32">
         <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -1855,15 +2450,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -1893,15 +2488,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="33">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="11">
         <v>32</v>
@@ -1931,15 +2526,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="33">
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -1969,15 +2564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="33">
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -2007,15 +2602,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="33">
         <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -2045,15 +2640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="33">
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -2083,15 +2678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="33">
         <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -2121,15 +2716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="33">
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -2159,15 +2754,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="33">
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -2197,15 +2792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="33">
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -2235,15 +2830,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="33">
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -2273,15 +2868,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="33">
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -2311,15 +2906,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="33">
         <v>13</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -2349,15 +2944,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" spans="1:12">
       <c r="A16" s="34">
         <v>14</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
@@ -2387,7 +2982,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2401,7 +2996,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2415,7 +3010,7 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2429,7 +3024,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2443,7 +3038,7 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2457,7 +3052,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2471,7 +3066,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2485,7 +3080,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2499,7 +3094,7 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2514,37 +3109,38 @@
       <c r="L25" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -2555,7 +3151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -2568,7 +3164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -2581,7 +3177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -2594,7 +3190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -2607,7 +3203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -2620,7 +3216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -2633,7 +3229,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -2646,7 +3242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -2659,7 +3255,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -2672,7 +3268,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -2685,7 +3281,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="33">
         <v>12</v>
       </c>
@@ -2698,7 +3294,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -2711,7 +3307,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="33">
         <v>14</v>
       </c>
@@ -2724,7 +3320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -2737,7 +3333,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="33">
         <v>16</v>
       </c>
@@ -2750,7 +3346,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -2763,7 +3359,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="33">
         <v>18</v>
       </c>
@@ -2776,7 +3372,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="33">
         <v>19</v>
       </c>
@@ -2789,7 +3385,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="33">
         <v>20</v>
       </c>
@@ -2802,7 +3398,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="33">
         <v>21</v>
       </c>
@@ -2815,7 +3411,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="33">
         <v>22</v>
       </c>
@@ -2828,7 +3424,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="33">
         <v>23</v>
       </c>
@@ -2841,7 +3437,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="33">
         <v>24</v>
       </c>
@@ -2854,7 +3450,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -2867,7 +3463,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="33">
         <v>26</v>
       </c>
@@ -2880,7 +3476,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="33">
         <v>27</v>
       </c>
@@ -2893,7 +3489,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="33">
         <v>28</v>
       </c>
@@ -2906,7 +3502,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="33">
         <v>29</v>
       </c>
@@ -2919,7 +3515,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="33">
         <v>30</v>
       </c>
@@ -2932,7 +3528,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="33">
         <v>31</v>
       </c>
@@ -2945,7 +3541,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="33">
         <v>32</v>
       </c>
@@ -2958,7 +3554,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -2971,7 +3567,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="33">
         <v>34</v>
       </c>
@@ -2984,7 +3580,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="33">
         <v>35</v>
       </c>
@@ -2997,7 +3593,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="33">
         <v>36</v>
       </c>
@@ -3010,7 +3606,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="33">
         <v>37</v>
       </c>
@@ -3023,7 +3619,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="33">
         <v>38</v>
       </c>
@@ -3036,7 +3632,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="33">
         <v>39</v>
       </c>
@@ -3049,7 +3645,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="33">
         <v>40</v>
       </c>
@@ -3062,7 +3658,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="33">
         <v>41</v>
       </c>
@@ -3075,7 +3671,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="33">
         <v>42</v>
       </c>
@@ -3088,7 +3684,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="33">
         <v>43</v>
       </c>
@@ -3101,7 +3697,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="33">
         <v>44</v>
       </c>
@@ -3114,7 +3710,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="33">
         <v>45</v>
       </c>
@@ -3127,7 +3723,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="33">
         <v>46</v>
       </c>
@@ -3140,7 +3736,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -3153,7 +3749,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="33">
         <v>48</v>
       </c>
@@ -3166,7 +3762,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="33">
         <v>49</v>
       </c>
@@ -3179,7 +3775,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" ht="14.25" spans="1:3">
       <c r="A51" s="34">
         <v>50</v>
       </c>
@@ -3193,99 +3789,101 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="3" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="32">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="17">
         <v>16711680</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="19">
         <v>65280</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="19">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="34">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="20">
         <v>8947848</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I46" sqref="I46:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -3300,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3317,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -3334,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3351,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -3369,134 +3967,138 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="25">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="26">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="21">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -3504,15 +4106,15 @@
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="21">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3520,15 +4122,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="21">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3536,15 +4138,15 @@
         <v>2</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="21">
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -3554,15 +4156,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="21">
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -3570,15 +4172,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
@@ -3588,22 +4190,25 @@
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
@@ -3611,39 +4216,39 @@
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3651,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -3677,7 +4282,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -3685,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="11">
         <v>5</v>
@@ -3711,7 +4316,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3719,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="11">
         <v>8</v>
@@ -3745,7 +4350,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -3753,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="11">
         <v>12</v>
@@ -3779,7 +4384,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3787,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="11">
         <v>4</v>
@@ -3813,7 +4418,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -3821,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="11">
         <v>6</v>
@@ -3847,7 +4452,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3855,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="11">
         <v>9</v>
@@ -3881,7 +4486,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3889,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" s="11">
         <v>13</v>
@@ -3913,7 +4518,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3921,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -3945,7 +4550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3953,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="11">
         <v>8</v>
@@ -3977,7 +4582,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3985,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" s="11">
         <v>11</v>
@@ -4009,7 +4614,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -4017,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" s="11">
         <v>16</v>
@@ -4041,7 +4646,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -4049,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="11">
         <v>3</v>
@@ -4073,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -4081,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="11">
         <v>8</v>
@@ -4105,7 +4710,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -4113,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="11">
         <v>9</v>
@@ -4137,7 +4742,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -4145,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="11">
         <v>12</v>
@@ -4169,7 +4774,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -4177,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18" s="11">
         <v>3</v>
@@ -4201,7 +4806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -4209,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -4233,7 +4838,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -4241,7 +4846,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" s="11">
         <v>9</v>
@@ -4265,7 +4870,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -4273,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="11">
         <v>12</v>
@@ -4297,7 +4902,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -4305,7 +4910,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="11">
         <v>8</v>
@@ -4329,7 +4934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -4337,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" s="11">
         <v>30</v>
@@ -4361,7 +4966,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -4369,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="11">
         <v>8</v>
@@ -4393,7 +4998,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" ht="14.25" spans="1:10">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -4401,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="15">
         <v>15</v>
@@ -4426,7 +5031,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1816030\Project\Commander\Resource\DataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,12 @@
     <sheet name="WeaponType" sheetId="8" r:id="rId8"/>
     <sheet name="Weapon" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
   <si>
     <t>職業ID</t>
   </si>
@@ -396,14 +401,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,345 +418,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1047,251 +723,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1423,61 +857,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1735,19 +1125,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="19" max="19" width="8.5" customWidth="1"/>
     <col min="20" max="20" width="5.75" customWidth="1"/>
@@ -1756,7 +1146,7 @@
     <col min="24" max="24" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="41">
         <v>0</v>
       </c>
@@ -1892,7 +1282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="41">
         <v>1</v>
       </c>
@@ -1960,7 +1350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="41">
         <v>2</v>
       </c>
@@ -2028,7 +1418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="41">
         <v>3</v>
       </c>
@@ -2096,7 +1486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="41">
         <v>4</v>
       </c>
@@ -2164,7 +1554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="41">
         <v>5</v>
       </c>
@@ -2233,26 +1623,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D7"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
@@ -2266,7 +1655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>0</v>
       </c>
@@ -2280,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -2294,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -2308,7 +1697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -2322,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -2336,7 +1725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
         <v>5</v>
       </c>
@@ -2351,21 +1740,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="4" width="13.25" customWidth="1"/>
@@ -2374,7 +1762,7 @@
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
@@ -2412,59 +1800,59 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="32">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="33">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
         <v>32</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="11">
         <v>32</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F3" s="11">
         <v>32</v>
@@ -2473,36 +1861,36 @@
         <v>32</v>
       </c>
       <c r="H3" s="11">
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="I3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="11">
         <v>0</v>
       </c>
       <c r="K3" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="33">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
         <v>32</v>
@@ -2511,22 +1899,22 @@
         <v>32</v>
       </c>
       <c r="H4" s="11">
-        <v>65280</v>
+        <v>6724095</v>
       </c>
       <c r="I4" s="11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="11">
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L4" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -2540,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F5" s="11">
         <v>32</v>
@@ -2564,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -2578,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F6" s="11">
         <v>32</v>
@@ -2602,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="33">
         <v>5</v>
       </c>
@@ -2616,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F7" s="11">
         <v>32</v>
@@ -2640,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>6</v>
       </c>
@@ -2654,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F8" s="11">
         <v>32</v>
@@ -2678,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="33">
         <v>7</v>
       </c>
@@ -2692,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F9" s="11">
         <v>32</v>
@@ -2716,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -2730,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F10" s="11">
         <v>32</v>
@@ -2754,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
         <v>9</v>
       </c>
@@ -2768,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="F11" s="11">
         <v>32</v>
@@ -2792,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -2806,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="F12" s="11">
         <v>32</v>
@@ -2830,21 +2218,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
         <v>32</v>
@@ -2853,7 +2241,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="11">
-        <v>6724095</v>
+        <v>6697728</v>
       </c>
       <c r="I13" s="11">
         <v>-1</v>
@@ -2868,15 +2256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -2885,104 +2273,80 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G14" s="11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H14" s="11">
-        <v>6697728</v>
+        <v>8947848</v>
       </c>
       <c r="I14" s="11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J14" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>64</v>
-      </c>
-      <c r="G15" s="11">
-        <v>64</v>
-      </c>
-      <c r="H15" s="11">
-        <v>8947848</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <v>2</v>
-      </c>
-      <c r="K15" s="11">
-        <v>30</v>
-      </c>
-      <c r="L15" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:12">
-      <c r="A16" s="34">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31" t="s">
+      <c r="B15" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
         <v>32</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G15" s="15">
         <v>32</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H15" s="15">
         <v>16711680</v>
       </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
         <v>-1</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K15" s="15">
         <v>-20</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L15" s="20">
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2996,7 +2360,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3010,7 +2374,7 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -3024,7 +2388,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3038,7 +2402,7 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3052,7 +2416,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3066,7 +2430,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -3080,7 +2444,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3094,42 +2458,27 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -3140,7 +2489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -3151,7 +2500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -3164,7 +2513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -3177,7 +2526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -3190,7 +2539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -3203,7 +2552,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -3216,7 +2565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -3229,7 +2578,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -3242,7 +2591,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -3255,7 +2604,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -3268,7 +2617,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -3281,7 +2630,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
         <v>12</v>
       </c>
@@ -3294,7 +2643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -3307,7 +2656,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>14</v>
       </c>
@@ -3320,7 +2669,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -3333,7 +2682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
         <v>16</v>
       </c>
@@ -3346,7 +2695,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -3359,7 +2708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <v>18</v>
       </c>
@@ -3372,7 +2721,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
         <v>19</v>
       </c>
@@ -3385,7 +2734,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
         <v>20</v>
       </c>
@@ -3398,7 +2747,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
         <v>21</v>
       </c>
@@ -3411,7 +2760,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <v>22</v>
       </c>
@@ -3424,7 +2773,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
         <v>23</v>
       </c>
@@ -3437,7 +2786,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <v>24</v>
       </c>
@@ -3450,7 +2799,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -3463,7 +2812,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <v>26</v>
       </c>
@@ -3476,7 +2825,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
         <v>27</v>
       </c>
@@ -3489,7 +2838,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <v>28</v>
       </c>
@@ -3502,7 +2851,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="33">
         <v>29</v>
       </c>
@@ -3515,7 +2864,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <v>30</v>
       </c>
@@ -3528,7 +2877,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
         <v>31</v>
       </c>
@@ -3541,7 +2890,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <v>32</v>
       </c>
@@ -3554,7 +2903,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -3567,7 +2916,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <v>34</v>
       </c>
@@ -3580,7 +2929,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="33">
         <v>35</v>
       </c>
@@ -3593,7 +2942,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="33">
         <v>36</v>
       </c>
@@ -3606,7 +2955,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="33">
         <v>37</v>
       </c>
@@ -3619,7 +2968,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="33">
         <v>38</v>
       </c>
@@ -3632,7 +2981,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="33">
         <v>39</v>
       </c>
@@ -3645,7 +2994,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="33">
         <v>40</v>
       </c>
@@ -3658,7 +3007,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="33">
         <v>41</v>
       </c>
@@ -3671,7 +3020,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="33">
         <v>42</v>
       </c>
@@ -3684,7 +3033,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="33">
         <v>43</v>
       </c>
@@ -3697,7 +3046,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="33">
         <v>44</v>
       </c>
@@ -3710,7 +3059,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="33">
         <v>45</v>
       </c>
@@ -3723,7 +3072,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="33">
         <v>46</v>
       </c>
@@ -3736,7 +3085,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -3749,7 +3098,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="33">
         <v>48</v>
       </c>
@@ -3762,7 +3111,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="33">
         <v>49</v>
       </c>
@@ -3775,7 +3124,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="34">
         <v>50</v>
       </c>
@@ -3789,27 +3138,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>61</v>
       </c>
@@ -3820,7 +3168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>0</v>
       </c>
@@ -3831,7 +3179,7 @@
         <v>16711680</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -3842,7 +3190,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -3853,7 +3201,7 @@
         <v>65280</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>3</v>
       </c>
@@ -3865,23 +3213,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I46" sqref="I46:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>68</v>
       </c>
@@ -3898,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3915,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -3932,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3949,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -3967,27 +3314,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
@@ -3998,7 +3344,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>0</v>
       </c>
@@ -4009,7 +3355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -4020,7 +3366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -4031,7 +3377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -4042,7 +3388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -4054,26 +3400,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
@@ -4093,7 +3436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>0</v>
       </c>
@@ -4109,7 +3452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -4125,7 +3468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -4141,7 +3484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -4159,7 +3502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -4175,7 +3518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -4194,21 +3537,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
@@ -4216,7 +3556,7 @@
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -4248,7 +3588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -4282,7 +3622,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4316,7 +3656,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -4350,7 +3690,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4384,7 +3724,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -4418,7 +3758,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4452,7 +3792,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -4486,7 +3826,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -4518,7 +3858,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -4550,7 +3890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -4582,7 +3922,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -4614,7 +3954,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -4646,7 +3986,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -4678,7 +4018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -4710,7 +4050,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -4742,7 +4082,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -4774,7 +4114,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -4806,7 +4146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -4838,7 +4178,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -4870,7 +4210,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -4902,7 +4242,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -4934,7 +4274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -4966,7 +4306,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -4998,7 +4338,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -5031,7 +4371,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -416,73 +416,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,17 +435,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +491,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -535,22 +513,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,31 +602,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,31 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,43 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,19 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,19 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,6 +1044,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,17 +1072,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,6 +1108,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1116,35 +1145,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1153,145 +1153,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1743,7 +1743,7 @@
   <sheetPr/>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2359,10 +2359,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2451,20 +2451,20 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F3" s="11">
         <v>32</v>
@@ -2473,36 +2473,36 @@
         <v>32</v>
       </c>
       <c r="H3" s="11">
-        <v>0</v>
+        <v>65280</v>
       </c>
       <c r="I3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="11">
         <v>0</v>
       </c>
       <c r="K3" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
         <v>32</v>
@@ -2511,23 +2511,23 @@
         <v>32</v>
       </c>
       <c r="H4" s="11">
-        <v>65280</v>
+        <v>6724095</v>
       </c>
       <c r="I4" s="11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="11">
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F5" s="11">
         <v>32</v>
@@ -2565,7 +2565,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F6" s="11">
         <v>32</v>
@@ -2603,7 +2603,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F7" s="11">
         <v>32</v>
@@ -2641,7 +2641,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F8" s="11">
         <v>32</v>
@@ -2679,7 +2679,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F9" s="11">
         <v>32</v>
@@ -2717,7 +2717,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F10" s="11">
         <v>32</v>
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="F11" s="11">
         <v>32</v>
@@ -2793,7 +2793,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="F12" s="11">
         <v>32</v>
@@ -2831,20 +2831,20 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
         <v>32</v>
@@ -2853,7 +2853,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="11">
-        <v>6724095</v>
+        <v>6697728</v>
       </c>
       <c r="I13" s="11">
         <v>-1</v>
@@ -2869,14 +2869,14 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -2885,102 +2885,78 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
+        <v>64</v>
+      </c>
+      <c r="G14" s="11">
+        <v>64</v>
+      </c>
+      <c r="H14" s="11">
+        <v>8947848</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2</v>
+      </c>
+      <c r="K14" s="11">
+        <v>30</v>
+      </c>
+      <c r="L14" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:12">
+      <c r="A15" s="32">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
         <v>32</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="15">
         <v>32</v>
       </c>
-      <c r="H14" s="11">
-        <v>6697728</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H15" s="15">
+        <v>16711680</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
         <v>-1</v>
       </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="33">
-        <v>13</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>64</v>
-      </c>
-      <c r="G15" s="11">
-        <v>64</v>
-      </c>
-      <c r="H15" s="11">
-        <v>8947848</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <v>2</v>
-      </c>
-      <c r="K15" s="11">
-        <v>30</v>
-      </c>
-      <c r="L15" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:12">
-      <c r="A16" s="34">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>32</v>
-      </c>
-      <c r="G16" s="15">
-        <v>32</v>
-      </c>
-      <c r="H16" s="15">
-        <v>16711680</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="J16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="K15" s="15">
         <v>-20</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L15" s="20">
         <v>-20</v>
       </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="36"/>
@@ -3093,20 +3069,6 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>職業ID</t>
   </si>
@@ -240,10 +240,16 @@
     <t>データパス</t>
   </si>
   <si>
+    <t>BGMパス</t>
+  </si>
+  <si>
     <t>ワルシャワ</t>
   </si>
   <si>
     <t>map0.map</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/map.mp3</t>
   </si>
   <si>
     <t>パリ</t>
@@ -398,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -419,30 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -452,41 +434,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,8 +454,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,15 +547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,22 +557,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,13 +602,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,103 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,19 +692,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,12 +758,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -986,73 +992,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,12 +1011,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1102,22 +1054,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,6 +1064,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,149 +1101,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,46 +1310,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1757,478 +1711,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="41" t="s">
+      <c r="O1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="41">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="43">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="41">
-        <v>0</v>
-      </c>
-      <c r="D2" s="41">
+      <c r="C2" s="43">
+        <v>0</v>
+      </c>
+      <c r="D2" s="43">
         <v>20</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="43">
         <v>10</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="43">
         <v>10</v>
       </c>
-      <c r="G2" s="41">
-        <v>5</v>
-      </c>
-      <c r="H2" s="41">
-        <v>5</v>
-      </c>
-      <c r="I2" s="41">
-        <v>5</v>
-      </c>
-      <c r="J2" s="41">
-        <v>5</v>
-      </c>
-      <c r="K2" s="41">
-        <v>5</v>
-      </c>
-      <c r="L2" s="41">
-        <v>5</v>
-      </c>
-      <c r="M2" s="41">
+      <c r="G2" s="43">
+        <v>5</v>
+      </c>
+      <c r="H2" s="43">
+        <v>5</v>
+      </c>
+      <c r="I2" s="43">
+        <v>5</v>
+      </c>
+      <c r="J2" s="43">
+        <v>5</v>
+      </c>
+      <c r="K2" s="43">
+        <v>5</v>
+      </c>
+      <c r="L2" s="43">
+        <v>5</v>
+      </c>
+      <c r="M2" s="43">
         <v>60</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="43">
         <v>40</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="43">
         <v>40</v>
       </c>
-      <c r="P2" s="41">
+      <c r="P2" s="43">
         <v>40</v>
       </c>
-      <c r="Q2" s="41">
+      <c r="Q2" s="43">
         <v>20</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="43">
         <v>40</v>
       </c>
-      <c r="S2" s="41">
+      <c r="S2" s="43">
         <v>40</v>
       </c>
-      <c r="T2" s="41">
+      <c r="T2" s="43">
         <v>40</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="41">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41">
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43">
         <v>20</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="43">
         <v>10</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="43">
         <v>10</v>
       </c>
-      <c r="G3" s="41">
-        <v>5</v>
-      </c>
-      <c r="H3" s="41">
-        <v>5</v>
-      </c>
-      <c r="I3" s="41">
-        <v>5</v>
-      </c>
-      <c r="J3" s="41">
-        <v>5</v>
-      </c>
-      <c r="K3" s="41">
-        <v>5</v>
-      </c>
-      <c r="L3" s="41">
-        <v>5</v>
-      </c>
-      <c r="M3" s="41">
+      <c r="G3" s="43">
+        <v>5</v>
+      </c>
+      <c r="H3" s="43">
+        <v>5</v>
+      </c>
+      <c r="I3" s="43">
+        <v>5</v>
+      </c>
+      <c r="J3" s="43">
+        <v>5</v>
+      </c>
+      <c r="K3" s="43">
+        <v>5</v>
+      </c>
+      <c r="L3" s="43">
+        <v>5</v>
+      </c>
+      <c r="M3" s="43">
         <v>60</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="43">
         <v>40</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="43">
         <v>40</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="43">
         <v>40</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="43">
         <v>20</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R3" s="43">
         <v>40</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S3" s="43">
         <v>40</v>
       </c>
-      <c r="T3" s="41">
+      <c r="T3" s="43">
         <v>40</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="41">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="43">
         <v>2</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="43">
         <v>20</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="43">
         <v>10</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="43">
         <v>10</v>
       </c>
-      <c r="G4" s="41">
-        <v>5</v>
-      </c>
-      <c r="H4" s="41">
-        <v>5</v>
-      </c>
-      <c r="I4" s="41">
-        <v>5</v>
-      </c>
-      <c r="J4" s="41">
-        <v>5</v>
-      </c>
-      <c r="K4" s="41">
-        <v>5</v>
-      </c>
-      <c r="L4" s="41">
-        <v>5</v>
-      </c>
-      <c r="M4" s="41">
+      <c r="G4" s="43">
+        <v>5</v>
+      </c>
+      <c r="H4" s="43">
+        <v>5</v>
+      </c>
+      <c r="I4" s="43">
+        <v>5</v>
+      </c>
+      <c r="J4" s="43">
+        <v>5</v>
+      </c>
+      <c r="K4" s="43">
+        <v>5</v>
+      </c>
+      <c r="L4" s="43">
+        <v>5</v>
+      </c>
+      <c r="M4" s="43">
         <v>60</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="43">
         <v>40</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="43">
         <v>40</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="43">
         <v>40</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="43">
         <v>20</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="43">
         <v>40</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="43">
         <v>40</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="43">
         <v>40</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="41" t="s">
+      <c r="V4" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="41">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="43">
         <v>3</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="43">
         <v>20</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="43">
         <v>10</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="43">
         <v>10</v>
       </c>
-      <c r="G5" s="41">
-        <v>5</v>
-      </c>
-      <c r="H5" s="41">
-        <v>5</v>
-      </c>
-      <c r="I5" s="41">
-        <v>5</v>
-      </c>
-      <c r="J5" s="41">
-        <v>5</v>
-      </c>
-      <c r="K5" s="41">
-        <v>5</v>
-      </c>
-      <c r="L5" s="41">
-        <v>5</v>
-      </c>
-      <c r="M5" s="41">
+      <c r="G5" s="43">
+        <v>5</v>
+      </c>
+      <c r="H5" s="43">
+        <v>5</v>
+      </c>
+      <c r="I5" s="43">
+        <v>5</v>
+      </c>
+      <c r="J5" s="43">
+        <v>5</v>
+      </c>
+      <c r="K5" s="43">
+        <v>5</v>
+      </c>
+      <c r="L5" s="43">
+        <v>5</v>
+      </c>
+      <c r="M5" s="43">
         <v>60</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="43">
         <v>40</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="43">
         <v>40</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="43">
         <v>40</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="43">
         <v>20</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="43">
         <v>40</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="43">
         <v>40</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="43">
         <v>40</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="U5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="41">
+      <c r="A6" s="43">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="43">
         <v>4</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="43">
         <v>20</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="43">
         <v>10</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="43">
         <v>10</v>
       </c>
-      <c r="G6" s="41">
-        <v>5</v>
-      </c>
-      <c r="H6" s="41">
-        <v>5</v>
-      </c>
-      <c r="I6" s="41">
-        <v>5</v>
-      </c>
-      <c r="J6" s="41">
-        <v>5</v>
-      </c>
-      <c r="K6" s="41">
-        <v>5</v>
-      </c>
-      <c r="L6" s="41">
-        <v>5</v>
-      </c>
-      <c r="M6" s="41">
+      <c r="G6" s="43">
+        <v>5</v>
+      </c>
+      <c r="H6" s="43">
+        <v>5</v>
+      </c>
+      <c r="I6" s="43">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43">
+        <v>5</v>
+      </c>
+      <c r="K6" s="43">
+        <v>5</v>
+      </c>
+      <c r="L6" s="43">
+        <v>5</v>
+      </c>
+      <c r="M6" s="43">
         <v>60</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="43">
         <v>40</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="43">
         <v>40</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="43">
         <v>40</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="43">
         <v>20</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="43">
         <v>40</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="43">
         <v>40</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="43">
         <v>40</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="U6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="41" t="s">
+      <c r="V6" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="41">
-        <v>5</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="41">
-        <v>5</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="C7" s="43">
+        <v>5</v>
+      </c>
+      <c r="D7" s="43">
         <v>20</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="43">
         <v>10</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="43">
         <v>10</v>
       </c>
-      <c r="G7" s="41">
-        <v>5</v>
-      </c>
-      <c r="H7" s="41">
-        <v>5</v>
-      </c>
-      <c r="I7" s="41">
-        <v>5</v>
-      </c>
-      <c r="J7" s="41">
-        <v>5</v>
-      </c>
-      <c r="K7" s="41">
-        <v>5</v>
-      </c>
-      <c r="L7" s="41">
-        <v>5</v>
-      </c>
-      <c r="M7" s="41">
+      <c r="G7" s="43">
+        <v>5</v>
+      </c>
+      <c r="H7" s="43">
+        <v>5</v>
+      </c>
+      <c r="I7" s="43">
+        <v>5</v>
+      </c>
+      <c r="J7" s="43">
+        <v>5</v>
+      </c>
+      <c r="K7" s="43">
+        <v>5</v>
+      </c>
+      <c r="L7" s="43">
+        <v>5</v>
+      </c>
+      <c r="M7" s="43">
         <v>60</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="43">
         <v>40</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="43">
         <v>40</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="43">
         <v>40</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="43">
         <v>20</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="43">
         <v>40</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="43">
         <v>40</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="43">
         <v>40</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="U7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="41" t="s">
+      <c r="V7" s="43" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2253,24 +2207,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="32">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29">
+      <c r="A2" s="26">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27">
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -2281,7 +2235,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="33">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="30">
@@ -2295,7 +2249,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
       <c r="B4" s="30">
@@ -2309,7 +2263,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
       <c r="B5" s="30">
@@ -2323,7 +2277,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
       <c r="B6" s="30">
@@ -2337,10 +2291,10 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="34">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="A7" s="32">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="15">
@@ -2361,7 +2315,7 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2329,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2408,15 +2362,15 @@
       <c r="K1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="32">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="26">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2451,7 +2405,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="32">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2489,7 +2443,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="32">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -2527,7 +2481,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="32">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -2565,7 +2519,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="32">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -2603,7 +2557,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="32">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -2641,7 +2595,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="32">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -2679,7 +2633,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="32">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -2717,7 +2671,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="32">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -2755,7 +2709,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="32">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -2793,7 +2747,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="32">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -2831,7 +2785,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="32">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
@@ -2869,7 +2823,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="32">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -2907,10 +2861,10 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:12">
-      <c r="A15" s="32">
+      <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2945,130 +2899,130 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3095,18 +3049,18 @@
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
         <v>100</v>
       </c>
       <c r="C2" s="17">
@@ -3114,7 +3068,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="30">
@@ -3127,7 +3081,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="30">
@@ -3140,7 +3094,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="33">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="30">
@@ -3153,7 +3107,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="30">
@@ -3166,7 +3120,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="30">
@@ -3179,7 +3133,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="30">
@@ -3192,7 +3146,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="30">
@@ -3205,7 +3159,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="30">
@@ -3218,7 +3172,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="33">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="30">
@@ -3231,7 +3185,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="33">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="30">
@@ -3244,7 +3198,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="33">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
       <c r="B13" s="30">
@@ -3257,7 +3211,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="33">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14" s="30">
@@ -3270,7 +3224,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="33">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
       <c r="B15" s="30">
@@ -3283,7 +3237,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="33">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16" s="30">
@@ -3296,7 +3250,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="33">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
       <c r="B17" s="30">
@@ -3309,7 +3263,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="33">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
       <c r="B18" s="30">
@@ -3322,7 +3276,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="33">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
       <c r="B19" s="30">
@@ -3335,7 +3289,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="33">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
       <c r="B20" s="30">
@@ -3348,7 +3302,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="33">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
       <c r="B21" s="30">
@@ -3361,7 +3315,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="33">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
       <c r="B22" s="30">
@@ -3374,7 +3328,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="33">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
       <c r="B23" s="30">
@@ -3387,7 +3341,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="33">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
       <c r="B24" s="30">
@@ -3400,7 +3354,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="33">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
       <c r="B25" s="30">
@@ -3413,7 +3367,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="33">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
       <c r="B26" s="30">
@@ -3426,7 +3380,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="33">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
       <c r="B27" s="30">
@@ -3439,7 +3393,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="33">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="30">
@@ -3452,7 +3406,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="33">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
       <c r="B29" s="30">
@@ -3465,7 +3419,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="33">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
       <c r="B30" s="30">
@@ -3478,7 +3432,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="33">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
       <c r="B31" s="30">
@@ -3491,7 +3445,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="33">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
       <c r="B32" s="30">
@@ -3504,7 +3458,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="33">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
       <c r="B33" s="30">
@@ -3517,7 +3471,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="33">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
       <c r="B34" s="30">
@@ -3530,7 +3484,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="33">
+      <c r="A35" s="29">
         <v>34</v>
       </c>
       <c r="B35" s="30">
@@ -3543,7 +3497,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="33">
+      <c r="A36" s="29">
         <v>35</v>
       </c>
       <c r="B36" s="30">
@@ -3556,7 +3510,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="33">
+      <c r="A37" s="29">
         <v>36</v>
       </c>
       <c r="B37" s="30">
@@ -3569,7 +3523,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="33">
+      <c r="A38" s="29">
         <v>37</v>
       </c>
       <c r="B38" s="30">
@@ -3582,7 +3536,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="33">
+      <c r="A39" s="29">
         <v>38</v>
       </c>
       <c r="B39" s="30">
@@ -3595,7 +3549,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="33">
+      <c r="A40" s="29">
         <v>39</v>
       </c>
       <c r="B40" s="30">
@@ -3608,7 +3562,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="33">
+      <c r="A41" s="29">
         <v>40</v>
       </c>
       <c r="B41" s="30">
@@ -3621,7 +3575,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="33">
+      <c r="A42" s="29">
         <v>41</v>
       </c>
       <c r="B42" s="30">
@@ -3634,7 +3588,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="33">
+      <c r="A43" s="29">
         <v>42</v>
       </c>
       <c r="B43" s="30">
@@ -3647,7 +3601,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="33">
+      <c r="A44" s="29">
         <v>43</v>
       </c>
       <c r="B44" s="30">
@@ -3660,7 +3614,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="33">
+      <c r="A45" s="29">
         <v>44</v>
       </c>
       <c r="B45" s="30">
@@ -3673,7 +3627,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="33">
+      <c r="A46" s="29">
         <v>45</v>
       </c>
       <c r="B46" s="30">
@@ -3686,7 +3640,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="33">
+      <c r="A47" s="29">
         <v>46</v>
       </c>
       <c r="B47" s="30">
@@ -3699,7 +3653,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="33">
+      <c r="A48" s="29">
         <v>47</v>
       </c>
       <c r="B48" s="30">
@@ -3712,7 +3666,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="33">
+      <c r="A49" s="29">
         <v>48</v>
       </c>
       <c r="B49" s="30">
@@ -3725,7 +3679,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="33">
+      <c r="A50" s="29">
         <v>49</v>
       </c>
       <c r="B50" s="30">
@@ -3738,10 +3692,10 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="34">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="33">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
@@ -3772,7 +3726,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3783,7 +3737,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32">
+      <c r="A2" s="26">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3794,7 +3748,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3805,7 +3759,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3816,7 +3770,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="34">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -3844,7 +3798,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="2">
@@ -3864,7 +3818,7 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>1</v>
       </c>
       <c r="C2" s="7">
@@ -3915,7 +3869,7 @@
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
       <c r="C5" s="15">
@@ -3937,19 +3891,20 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
@@ -3959,60 +3914,78 @@
       <c r="C1" s="24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="25">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="D1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D2" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="26">
+    <row r="3" spans="1:4">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="26">
+      <c r="B4" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="27">
+      <c r="B5" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>73</v>
+      <c r="B6" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4040,19 +4013,19 @@
         <v>32</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4060,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -4068,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4076,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -4084,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4092,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4100,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4108,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -4118,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4126,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4134,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4152,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4183,31 +4156,31 @@
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4218,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -4252,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="11">
         <v>5</v>
@@ -4286,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="11">
         <v>8</v>
@@ -4320,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" s="11">
         <v>12</v>
@@ -4354,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" s="11">
         <v>4</v>
@@ -4388,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" s="11">
         <v>6</v>
@@ -4422,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" s="11">
         <v>9</v>
@@ -4456,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9" s="11">
         <v>13</v>
@@ -4488,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -4520,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D11" s="11">
         <v>8</v>
@@ -4552,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D12" s="11">
         <v>11</v>
@@ -4584,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13" s="11">
         <v>16</v>
@@ -4616,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" s="11">
         <v>3</v>
@@ -4648,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="11">
         <v>8</v>
@@ -4680,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" s="11">
         <v>9</v>
@@ -4712,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="11">
         <v>12</v>
@@ -4744,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D18" s="11">
         <v>3</v>
@@ -4776,7 +4749,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -4808,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D20" s="11">
         <v>9</v>
@@ -4840,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D21" s="11">
         <v>12</v>
@@ -4872,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D22" s="11">
         <v>8</v>
@@ -4904,7 +4877,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D23" s="11">
         <v>30</v>
@@ -4936,7 +4909,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" s="11">
         <v>8</v>
@@ -4968,7 +4941,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D25" s="15">
         <v>15</v>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Map" sheetId="6" r:id="rId7"/>
     <sheet name="WeaponType" sheetId="8" r:id="rId8"/>
     <sheet name="Weapon" sheetId="7" r:id="rId9"/>
+    <sheet name="enum_match" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>職業ID</t>
   </si>
@@ -327,6 +328,9 @@
     <t>売価</t>
   </si>
   <si>
+    <t>攻撃エフェクトID</t>
+  </si>
+  <si>
     <t>訓練用剣</t>
   </si>
   <si>
@@ -397,6 +401,27 @@
   </si>
   <si>
     <t>リザーブ</t>
+  </si>
+  <si>
+    <t>CharactorType</t>
+  </si>
+  <si>
+    <t>BattleEffectType</t>
+  </si>
+  <si>
+    <t>slash,</t>
+  </si>
+  <si>
+    <t>magic,</t>
+  </si>
+  <si>
+    <t>arrow,</t>
+  </si>
+  <si>
+    <t>recover,</t>
+  </si>
+  <si>
+    <t>miss,</t>
   </si>
 </sst>
 </file>
@@ -404,10 +429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -426,7 +451,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,16 +475,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,14 +489,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -470,8 +496,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +527,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,30 +550,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,25 +580,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,6 +609,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,7 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +711,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,19 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,55 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,62 +787,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -772,6 +797,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -880,21 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -941,9 +966,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -959,8 +982,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -969,12 +994,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -987,11 +1008,74 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,21 +1091,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,31 +1119,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,6 +1148,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1101,276 +1176,288 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1698,7 +1785,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1711,482 +1798,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="43" t="s">
+      <c r="O1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="43">
-        <v>0</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="47">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43">
-        <v>0</v>
-      </c>
-      <c r="D2" s="43">
+      <c r="C2" s="47">
+        <v>0</v>
+      </c>
+      <c r="D2" s="47">
         <v>20</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="47">
         <v>10</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="47">
         <v>10</v>
       </c>
-      <c r="G2" s="43">
-        <v>5</v>
-      </c>
-      <c r="H2" s="43">
-        <v>5</v>
-      </c>
-      <c r="I2" s="43">
-        <v>5</v>
-      </c>
-      <c r="J2" s="43">
-        <v>5</v>
-      </c>
-      <c r="K2" s="43">
-        <v>5</v>
-      </c>
-      <c r="L2" s="43">
-        <v>5</v>
-      </c>
-      <c r="M2" s="43">
+      <c r="G2" s="47">
+        <v>5</v>
+      </c>
+      <c r="H2" s="47">
+        <v>5</v>
+      </c>
+      <c r="I2" s="47">
+        <v>5</v>
+      </c>
+      <c r="J2" s="47">
+        <v>5</v>
+      </c>
+      <c r="K2" s="47">
+        <v>5</v>
+      </c>
+      <c r="L2" s="47">
+        <v>5</v>
+      </c>
+      <c r="M2" s="47">
         <v>60</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="47">
         <v>40</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="47">
         <v>40</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="47">
         <v>40</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="Q2" s="47">
         <v>20</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="47">
         <v>40</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="47">
         <v>40</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="47">
         <v>40</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43">
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47">
         <v>20</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="47">
         <v>10</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="47">
         <v>10</v>
       </c>
-      <c r="G3" s="43">
-        <v>5</v>
-      </c>
-      <c r="H3" s="43">
-        <v>5</v>
-      </c>
-      <c r="I3" s="43">
-        <v>5</v>
-      </c>
-      <c r="J3" s="43">
-        <v>5</v>
-      </c>
-      <c r="K3" s="43">
-        <v>5</v>
-      </c>
-      <c r="L3" s="43">
-        <v>5</v>
-      </c>
-      <c r="M3" s="43">
+      <c r="G3" s="47">
+        <v>5</v>
+      </c>
+      <c r="H3" s="47">
+        <v>5</v>
+      </c>
+      <c r="I3" s="47">
+        <v>5</v>
+      </c>
+      <c r="J3" s="47">
+        <v>5</v>
+      </c>
+      <c r="K3" s="47">
+        <v>5</v>
+      </c>
+      <c r="L3" s="47">
+        <v>5</v>
+      </c>
+      <c r="M3" s="47">
         <v>60</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="47">
         <v>40</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="47">
         <v>40</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="47">
         <v>40</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="47">
         <v>20</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="47">
         <v>40</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="47">
         <v>40</v>
       </c>
-      <c r="T3" s="43">
+      <c r="T3" s="47">
         <v>40</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="43">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="47">
         <v>2</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="47">
         <v>20</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="47">
         <v>10</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="47">
         <v>10</v>
       </c>
-      <c r="G4" s="43">
-        <v>5</v>
-      </c>
-      <c r="H4" s="43">
-        <v>5</v>
-      </c>
-      <c r="I4" s="43">
-        <v>5</v>
-      </c>
-      <c r="J4" s="43">
-        <v>5</v>
-      </c>
-      <c r="K4" s="43">
-        <v>5</v>
-      </c>
-      <c r="L4" s="43">
-        <v>5</v>
-      </c>
-      <c r="M4" s="43">
+      <c r="G4" s="47">
+        <v>5</v>
+      </c>
+      <c r="H4" s="47">
+        <v>5</v>
+      </c>
+      <c r="I4" s="47">
+        <v>5</v>
+      </c>
+      <c r="J4" s="47">
+        <v>5</v>
+      </c>
+      <c r="K4" s="47">
+        <v>5</v>
+      </c>
+      <c r="L4" s="47">
+        <v>5</v>
+      </c>
+      <c r="M4" s="47">
         <v>60</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="47">
         <v>40</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="47">
         <v>40</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="47">
         <v>40</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="47">
         <v>20</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="47">
         <v>40</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="47">
         <v>40</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="47">
         <v>40</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="43">
+      <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="47">
         <v>3</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="47">
         <v>20</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="47">
         <v>10</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="47">
         <v>10</v>
       </c>
-      <c r="G5" s="43">
-        <v>5</v>
-      </c>
-      <c r="H5" s="43">
-        <v>5</v>
-      </c>
-      <c r="I5" s="43">
-        <v>5</v>
-      </c>
-      <c r="J5" s="43">
-        <v>5</v>
-      </c>
-      <c r="K5" s="43">
-        <v>5</v>
-      </c>
-      <c r="L5" s="43">
-        <v>5</v>
-      </c>
-      <c r="M5" s="43">
+      <c r="G5" s="47">
+        <v>5</v>
+      </c>
+      <c r="H5" s="47">
+        <v>5</v>
+      </c>
+      <c r="I5" s="47">
+        <v>5</v>
+      </c>
+      <c r="J5" s="47">
+        <v>5</v>
+      </c>
+      <c r="K5" s="47">
+        <v>5</v>
+      </c>
+      <c r="L5" s="47">
+        <v>5</v>
+      </c>
+      <c r="M5" s="47">
         <v>60</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="47">
         <v>40</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="47">
         <v>40</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="47">
         <v>40</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="47">
         <v>20</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="47">
         <v>40</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="47">
         <v>40</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="47">
         <v>40</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="U5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="V5" s="47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="43">
+      <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="47">
         <v>4</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="47">
         <v>20</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="47">
         <v>10</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="47">
         <v>10</v>
       </c>
-      <c r="G6" s="43">
-        <v>5</v>
-      </c>
-      <c r="H6" s="43">
-        <v>5</v>
-      </c>
-      <c r="I6" s="43">
-        <v>5</v>
-      </c>
-      <c r="J6" s="43">
-        <v>5</v>
-      </c>
-      <c r="K6" s="43">
-        <v>5</v>
-      </c>
-      <c r="L6" s="43">
-        <v>5</v>
-      </c>
-      <c r="M6" s="43">
+      <c r="G6" s="47">
+        <v>5</v>
+      </c>
+      <c r="H6" s="47">
+        <v>5</v>
+      </c>
+      <c r="I6" s="47">
+        <v>5</v>
+      </c>
+      <c r="J6" s="47">
+        <v>5</v>
+      </c>
+      <c r="K6" s="47">
+        <v>5</v>
+      </c>
+      <c r="L6" s="47">
+        <v>5</v>
+      </c>
+      <c r="M6" s="47">
         <v>60</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="47">
         <v>40</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="47">
         <v>40</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="47">
         <v>40</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="47">
         <v>20</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="47">
         <v>40</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="47">
         <v>40</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="47">
         <v>40</v>
       </c>
-      <c r="U6" s="43" t="s">
+      <c r="U6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="43" t="s">
+      <c r="V6" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="43">
-        <v>5</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="47">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="43">
-        <v>5</v>
-      </c>
-      <c r="D7" s="43">
+      <c r="C7" s="47">
+        <v>5</v>
+      </c>
+      <c r="D7" s="47">
         <v>20</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="47">
         <v>10</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="47">
         <v>10</v>
       </c>
-      <c r="G7" s="43">
-        <v>5</v>
-      </c>
-      <c r="H7" s="43">
-        <v>5</v>
-      </c>
-      <c r="I7" s="43">
-        <v>5</v>
-      </c>
-      <c r="J7" s="43">
-        <v>5</v>
-      </c>
-      <c r="K7" s="43">
-        <v>5</v>
-      </c>
-      <c r="L7" s="43">
-        <v>5</v>
-      </c>
-      <c r="M7" s="43">
+      <c r="G7" s="47">
+        <v>5</v>
+      </c>
+      <c r="H7" s="47">
+        <v>5</v>
+      </c>
+      <c r="I7" s="47">
+        <v>5</v>
+      </c>
+      <c r="J7" s="47">
+        <v>5</v>
+      </c>
+      <c r="K7" s="47">
+        <v>5</v>
+      </c>
+      <c r="L7" s="47">
+        <v>5</v>
+      </c>
+      <c r="M7" s="47">
         <v>60</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="47">
         <v>40</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="47">
         <v>40</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="47">
         <v>40</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="47">
         <v>20</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="47">
         <v>40</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="47">
         <v>40</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="47">
         <v>40</v>
       </c>
-      <c r="U7" s="43" t="s">
+      <c r="U7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="43" t="s">
+      <c r="V7" s="47" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B3:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2207,100 +2403,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="26">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="A2" s="31">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>5</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+      <c r="D3" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="35">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>5</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="14">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="29">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="35">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="14">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="29">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="32">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="A7" s="37">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="39">
         <v>20</v>
       </c>
     </row>
@@ -2329,700 +2525,700 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="26">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
         <v>32</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <v>32</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>32</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="14">
         <v>32</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="14">
         <v>32</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="14">
         <v>32</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>65280</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="14">
         <v>2</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>30</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="26">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
         <v>32</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="14">
         <v>32</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="14">
         <v>6724095</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="14">
         <v>-1</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="19">
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="26">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
         <v>32</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <v>32</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <v>32</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>6724095</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>-1</v>
       </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19">
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="26">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <v>64</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="14">
         <v>32</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="14">
         <v>32</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="14">
         <v>6724095</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="14">
         <v>-1</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="19">
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="26">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
         <v>96</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="14">
         <v>32</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <v>32</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="14">
         <v>6724095</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="14">
         <v>-1</v>
       </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="26">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
         <v>128</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="14">
         <v>32</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <v>32</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="14">
         <v>6724095</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="14">
         <v>-1</v>
       </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="26">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
         <v>160</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="14">
         <v>32</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <v>32</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="14">
         <v>6724095</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="14">
         <v>-1</v>
       </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="26">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>192</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="14">
         <v>32</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <v>32</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
         <v>6724095</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="14">
         <v>-1</v>
       </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="26">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
         <v>224</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="14">
         <v>32</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <v>32</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <v>6724095</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="14">
         <v>-1</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="26">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
         <v>256</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="14">
         <v>32</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="14">
         <v>32</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="14">
         <v>6724095</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="14">
         <v>-1</v>
       </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="26">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
         <v>32</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="14">
         <v>32</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="14">
         <v>6697728</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="14">
         <v>-1</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="19">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="26">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
         <v>64</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="14">
         <v>64</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="14">
         <v>8947848</v>
       </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
         <v>2</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="14">
         <v>30</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="36">
         <v>30</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:12">
-      <c r="A15" s="26">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
         <v>32</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="18">
         <v>32</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="18">
         <v>16711680</v>
       </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
         <v>-1</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="18">
         <v>-20</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="39">
         <v>-20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3046,660 +3242,660 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
         <v>100</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="35">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="36">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="35">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="36">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="35">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="36">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="36">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="29">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="35">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="36">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="35">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="36">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="29">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="35">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="36">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="36">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="29">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="36">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="29">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="36">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29">
+      <c r="A13" s="34">
         <v>12</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="36">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="29">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="36">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="29">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="36">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="29">
+      <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="36">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="29">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="35">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="36">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="29">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="35">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="36">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="29">
+      <c r="A19" s="34">
         <v>18</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="35">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="36">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="29">
+      <c r="A20" s="34">
         <v>19</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="35">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="36">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="29">
+      <c r="A21" s="34">
         <v>20</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="35">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="36">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="29">
+      <c r="A22" s="34">
         <v>21</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="35">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="36">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="29">
+      <c r="A23" s="34">
         <v>22</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="35">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="36">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="29">
+      <c r="A24" s="34">
         <v>23</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="35">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="36">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="29">
+      <c r="A25" s="34">
         <v>24</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="35">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="36">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="29">
+      <c r="A26" s="34">
         <v>25</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="35">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="36">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="29">
+      <c r="A27" s="34">
         <v>26</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="35">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="36">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="29">
+      <c r="A28" s="34">
         <v>27</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="35">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="36">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="29">
+      <c r="A29" s="34">
         <v>28</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="35">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="36">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="29">
+      <c r="A30" s="34">
         <v>29</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="35">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="36">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="29">
+      <c r="A31" s="34">
         <v>30</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="35">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="36">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="29">
+      <c r="A32" s="34">
         <v>31</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="35">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="36">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="29">
+      <c r="A33" s="34">
         <v>32</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="35">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="36">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="29">
+      <c r="A34" s="34">
         <v>33</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="35">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="36">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="29">
+      <c r="A35" s="34">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="35">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="36">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="29">
+      <c r="A36" s="34">
         <v>35</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="35">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="36">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="29">
+      <c r="A37" s="34">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="35">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="36">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="29">
+      <c r="A38" s="34">
         <v>37</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="35">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="36">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="29">
+      <c r="A39" s="34">
         <v>38</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="35">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="36">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="29">
+      <c r="A40" s="34">
         <v>39</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="35">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="36">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="29">
+      <c r="A41" s="34">
         <v>40</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="35">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="36">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="29">
+      <c r="A42" s="34">
         <v>41</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="35">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="36">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="29">
+      <c r="A43" s="34">
         <v>42</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="35">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="36">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="29">
+      <c r="A44" s="34">
         <v>43</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="35">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="36">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="29">
+      <c r="A45" s="34">
         <v>44</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="35">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="36">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="29">
+      <c r="A46" s="34">
         <v>45</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="35">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="36">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="29">
+      <c r="A47" s="34">
         <v>46</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="35">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="36">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="29">
+      <c r="A48" s="34">
         <v>47</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="35">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="36">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="29">
+      <c r="A49" s="34">
         <v>48</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="35">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="36">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29">
+      <c r="A50" s="34">
         <v>49</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="35">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="36">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="32">
+      <c r="A51" s="37">
         <v>50</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="38">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="39">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -3726,57 +3922,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="31">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="33">
         <v>16711680</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="36">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="34">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="36">
         <v>65280</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="32">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="39">
         <v>8947848</v>
       </c>
     </row>
@@ -3798,87 +3994,87 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="B1" s="5">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>0.8</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>1.2</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
         <v>1.2</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
         <v>0.8</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="35">
         <v>0.8</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>1.2</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="12">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="33">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="B5" s="38">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3893,7 +4089,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3905,86 +4101,86 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="26">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="29">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="32">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="39" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4009,122 +4205,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="28">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="21">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="21">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="28">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="21">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="21">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="28">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
         <v>3</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4139,830 +4335,905 @@
   <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="K1" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>100</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
         <v>4</v>
       </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
         <v>100</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="11">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
         <v>90</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="19">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="24">
         <v>500</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="14">
         <v>8</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="14">
         <v>85</v>
       </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
         <v>10</v>
       </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19">
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24">
         <v>900</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="14">
         <v>12</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="14">
         <v>90</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
         <v>8</v>
       </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24">
         <v>1200</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="14">
         <v>4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="14">
         <v>90</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>5</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>5</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24">
         <v>100</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="14">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <v>80</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24">
         <v>500</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="14">
         <v>9</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="14">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <v>11</v>
       </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="24">
         <v>900</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8">
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="14">
         <v>13</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <v>80</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
         <v>9</v>
       </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8">
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="14">
         <v>6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="14">
         <v>80</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
         <v>6</v>
       </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8">
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="14">
         <v>70</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>7</v>
       </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="14">
         <v>11</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="14">
         <v>65</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
         <v>12</v>
       </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="24">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8">
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="12">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="14">
         <v>16</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="14">
         <v>70</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
         <v>10</v>
       </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24">
         <v>1200</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8">
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="12">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="14">
         <v>3</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="14">
         <v>90</v>
       </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
         <v>3</v>
       </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="24">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8">
+      <c r="K14" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="14">
         <v>8</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="14">
         <v>85</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
         <v>6</v>
       </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="24">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8">
+      <c r="K15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="14">
         <v>9</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="14">
         <v>75</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="14">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="14">
         <v>7</v>
       </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
         <v>3</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="24">
         <v>900</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="8">
+      <c r="K16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="14">
         <v>12</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="14">
         <v>65</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="14">
         <v>25</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="14">
         <v>10</v>
       </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
         <v>2</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="24">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="8">
+      <c r="K17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="12">
         <v>4</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="14">
         <v>3</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
         <v>90</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>5</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14">
         <v>2</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="14">
         <v>2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="24">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="8">
+      <c r="K18" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="14">
         <v>6</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="14">
         <v>85</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
         <v>6</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="14">
         <v>2</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="14">
         <v>2</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="24">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="8">
+      <c r="K19" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="12">
         <v>4</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="14">
         <v>9</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="14">
         <v>80</v>
       </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
         <v>11</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="14">
         <v>2</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="14">
         <v>2</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="24">
         <v>900</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="8">
+      <c r="K20" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="14">
         <v>12</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="14">
         <v>75</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
         <v>9</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="14">
         <v>2</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="14">
         <v>2</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="24">
         <v>1200</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="8">
+      <c r="K21" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
-        <v>5</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="B22" s="12">
+        <v>5</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="14">
         <v>8</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
         <v>100</v>
       </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19">
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+      <c r="J22" s="24">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="8">
+      <c r="K22" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
-        <v>5</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="14">
         <v>30</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="14">
         <v>100</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11">
-        <v>1</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="8">
+      <c r="K23" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
-        <v>5</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="B24" s="12">
+        <v>5</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="14">
         <v>8</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="14">
         <v>100</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
         <v>10</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="24">
         <v>900</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:10">
-      <c r="A25" s="12">
+      <c r="K24" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:11">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
-        <v>5</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="B25" s="16">
+        <v>5</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="18">
         <v>15</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="18">
         <v>100</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>1</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
         <v>10</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="26">
         <v>1200</v>
+      </c>
+      <c r="K25" s="27">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="WeaponType" sheetId="8" r:id="rId8"/>
     <sheet name="Weapon" sheetId="7" r:id="rId9"/>
     <sheet name="enum_match" sheetId="10" r:id="rId10"/>
+    <sheet name="BattleEffect" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
   <si>
     <t>職業ID</t>
   </si>
@@ -422,6 +423,30 @@
   </si>
   <si>
     <t>miss,</t>
+  </si>
+  <si>
+    <t>SEパス</t>
+  </si>
+  <si>
+    <t>斬撃</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/ax_slash.mp3</t>
+  </si>
+  <si>
+    <t>魔術</t>
+  </si>
+  <si>
+    <t>強弓</t>
+  </si>
+  <si>
+    <t>治癒</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/miss.mp3</t>
   </si>
 </sst>
 </file>
@@ -430,8 +455,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -450,24 +475,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,7 +507,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,84 +589,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,6 +602,13 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,7 +628,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +712,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,19 +772,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,138 +808,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -797,16 +822,136 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -951,10 +1096,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -966,7 +1109,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -979,13 +1124,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -994,7 +1135,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1005,10 +1148,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1022,60 +1165,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,60 +1182,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,6 +1205,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1176,67 +1276,67 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1245,55 +1345,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,162 +1411,174 @@
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1798,478 +1919,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47" t="s">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="47" t="s">
+      <c r="O1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="47">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="54">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="47">
-        <v>0</v>
-      </c>
-      <c r="D2" s="47">
+      <c r="C2" s="54">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54">
         <v>20</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="54">
         <v>10</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="54">
         <v>10</v>
       </c>
-      <c r="G2" s="47">
-        <v>5</v>
-      </c>
-      <c r="H2" s="47">
-        <v>5</v>
-      </c>
-      <c r="I2" s="47">
-        <v>5</v>
-      </c>
-      <c r="J2" s="47">
-        <v>5</v>
-      </c>
-      <c r="K2" s="47">
-        <v>5</v>
-      </c>
-      <c r="L2" s="47">
-        <v>5</v>
-      </c>
-      <c r="M2" s="47">
+      <c r="G2" s="54">
+        <v>5</v>
+      </c>
+      <c r="H2" s="54">
+        <v>5</v>
+      </c>
+      <c r="I2" s="54">
+        <v>5</v>
+      </c>
+      <c r="J2" s="54">
+        <v>5</v>
+      </c>
+      <c r="K2" s="54">
+        <v>5</v>
+      </c>
+      <c r="L2" s="54">
+        <v>5</v>
+      </c>
+      <c r="M2" s="54">
         <v>60</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="54">
         <v>40</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="54">
         <v>40</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="54">
         <v>40</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="54">
         <v>20</v>
       </c>
-      <c r="R2" s="47">
+      <c r="R2" s="54">
         <v>40</v>
       </c>
-      <c r="S2" s="47">
+      <c r="S2" s="54">
         <v>40</v>
       </c>
-      <c r="T2" s="47">
+      <c r="T2" s="54">
         <v>40</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="54">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47">
+      <c r="C3" s="54">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54">
         <v>20</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="54">
         <v>10</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="54">
         <v>10</v>
       </c>
-      <c r="G3" s="47">
-        <v>5</v>
-      </c>
-      <c r="H3" s="47">
-        <v>5</v>
-      </c>
-      <c r="I3" s="47">
-        <v>5</v>
-      </c>
-      <c r="J3" s="47">
-        <v>5</v>
-      </c>
-      <c r="K3" s="47">
-        <v>5</v>
-      </c>
-      <c r="L3" s="47">
-        <v>5</v>
-      </c>
-      <c r="M3" s="47">
+      <c r="G3" s="54">
+        <v>5</v>
+      </c>
+      <c r="H3" s="54">
+        <v>5</v>
+      </c>
+      <c r="I3" s="54">
+        <v>5</v>
+      </c>
+      <c r="J3" s="54">
+        <v>5</v>
+      </c>
+      <c r="K3" s="54">
+        <v>5</v>
+      </c>
+      <c r="L3" s="54">
+        <v>5</v>
+      </c>
+      <c r="M3" s="54">
         <v>60</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="54">
         <v>40</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="54">
         <v>40</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="54">
         <v>40</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="54">
         <v>20</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="54">
         <v>40</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="54">
         <v>40</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="54">
         <v>40</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="47">
+      <c r="A4" s="54">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="54">
         <v>2</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="54">
         <v>20</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="54">
         <v>10</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="54">
         <v>10</v>
       </c>
-      <c r="G4" s="47">
-        <v>5</v>
-      </c>
-      <c r="H4" s="47">
-        <v>5</v>
-      </c>
-      <c r="I4" s="47">
-        <v>5</v>
-      </c>
-      <c r="J4" s="47">
-        <v>5</v>
-      </c>
-      <c r="K4" s="47">
-        <v>5</v>
-      </c>
-      <c r="L4" s="47">
-        <v>5</v>
-      </c>
-      <c r="M4" s="47">
+      <c r="G4" s="54">
+        <v>5</v>
+      </c>
+      <c r="H4" s="54">
+        <v>5</v>
+      </c>
+      <c r="I4" s="54">
+        <v>5</v>
+      </c>
+      <c r="J4" s="54">
+        <v>5</v>
+      </c>
+      <c r="K4" s="54">
+        <v>5</v>
+      </c>
+      <c r="L4" s="54">
+        <v>5</v>
+      </c>
+      <c r="M4" s="54">
         <v>60</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="54">
         <v>40</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="54">
         <v>40</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="54">
         <v>40</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="54">
         <v>20</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="54">
         <v>40</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="54">
         <v>40</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="54">
         <v>40</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="U4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="47" t="s">
+      <c r="V4" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="47">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="54">
         <v>3</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="54">
         <v>20</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="54">
         <v>10</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="54">
         <v>10</v>
       </c>
-      <c r="G5" s="47">
-        <v>5</v>
-      </c>
-      <c r="H5" s="47">
-        <v>5</v>
-      </c>
-      <c r="I5" s="47">
-        <v>5</v>
-      </c>
-      <c r="J5" s="47">
-        <v>5</v>
-      </c>
-      <c r="K5" s="47">
-        <v>5</v>
-      </c>
-      <c r="L5" s="47">
-        <v>5</v>
-      </c>
-      <c r="M5" s="47">
+      <c r="G5" s="54">
+        <v>5</v>
+      </c>
+      <c r="H5" s="54">
+        <v>5</v>
+      </c>
+      <c r="I5" s="54">
+        <v>5</v>
+      </c>
+      <c r="J5" s="54">
+        <v>5</v>
+      </c>
+      <c r="K5" s="54">
+        <v>5</v>
+      </c>
+      <c r="L5" s="54">
+        <v>5</v>
+      </c>
+      <c r="M5" s="54">
         <v>60</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="54">
         <v>40</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="54">
         <v>40</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="54">
         <v>40</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="54">
         <v>20</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="54">
         <v>40</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="54">
         <v>40</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="54">
         <v>40</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="47">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="54">
         <v>4</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="54">
         <v>20</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="54">
         <v>10</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="54">
         <v>10</v>
       </c>
-      <c r="G6" s="47">
-        <v>5</v>
-      </c>
-      <c r="H6" s="47">
-        <v>5</v>
-      </c>
-      <c r="I6" s="47">
-        <v>5</v>
-      </c>
-      <c r="J6" s="47">
-        <v>5</v>
-      </c>
-      <c r="K6" s="47">
-        <v>5</v>
-      </c>
-      <c r="L6" s="47">
-        <v>5</v>
-      </c>
-      <c r="M6" s="47">
+      <c r="G6" s="54">
+        <v>5</v>
+      </c>
+      <c r="H6" s="54">
+        <v>5</v>
+      </c>
+      <c r="I6" s="54">
+        <v>5</v>
+      </c>
+      <c r="J6" s="54">
+        <v>5</v>
+      </c>
+      <c r="K6" s="54">
+        <v>5</v>
+      </c>
+      <c r="L6" s="54">
+        <v>5</v>
+      </c>
+      <c r="M6" s="54">
         <v>60</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="54">
         <v>40</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="54">
         <v>40</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="54">
         <v>40</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="54">
         <v>20</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="54">
         <v>40</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="54">
         <v>40</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="54">
         <v>40</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="U6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="V6" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="47">
-        <v>5</v>
-      </c>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="54">
+        <v>5</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="47">
-        <v>5</v>
-      </c>
-      <c r="D7" s="47">
+      <c r="C7" s="54">
+        <v>5</v>
+      </c>
+      <c r="D7" s="54">
         <v>20</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="54">
         <v>10</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="54">
         <v>10</v>
       </c>
-      <c r="G7" s="47">
-        <v>5</v>
-      </c>
-      <c r="H7" s="47">
-        <v>5</v>
-      </c>
-      <c r="I7" s="47">
-        <v>5</v>
-      </c>
-      <c r="J7" s="47">
-        <v>5</v>
-      </c>
-      <c r="K7" s="47">
-        <v>5</v>
-      </c>
-      <c r="L7" s="47">
-        <v>5</v>
-      </c>
-      <c r="M7" s="47">
+      <c r="G7" s="54">
+        <v>5</v>
+      </c>
+      <c r="H7" s="54">
+        <v>5</v>
+      </c>
+      <c r="I7" s="54">
+        <v>5</v>
+      </c>
+      <c r="J7" s="54">
+        <v>5</v>
+      </c>
+      <c r="K7" s="54">
+        <v>5</v>
+      </c>
+      <c r="L7" s="54">
+        <v>5</v>
+      </c>
+      <c r="M7" s="54">
         <v>60</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="54">
         <v>40</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="54">
         <v>40</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="54">
         <v>40</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="54">
         <v>20</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="54">
         <v>40</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="54">
         <v>40</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="54">
         <v>40</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="47" t="s">
+      <c r="V7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2285,96 +2406,96 @@
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="2">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="2">
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="13">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="2">
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="13">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2383,6 +2504,104 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2403,100 +2622,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="31">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>5</v>
-      </c>
-      <c r="D2" s="33">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>5</v>
+      </c>
+      <c r="D2" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="34">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44">
         <v>1</v>
       </c>
       <c r="C3" s="14">
         <v>5</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="34">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="44">
         <v>2</v>
       </c>
       <c r="C4" s="14">
         <v>5</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="45">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="34">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="44">
         <v>3</v>
       </c>
       <c r="C5" s="14">
         <v>5</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="45">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="34">
+      <c r="A6" s="43">
         <v>4</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="44">
         <v>4</v>
       </c>
       <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="45">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="37">
-        <v>5</v>
-      </c>
-      <c r="B7" s="38">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18">
-        <v>5</v>
-      </c>
-      <c r="D7" s="39">
+      <c r="A7" s="46">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5</v>
+      </c>
+      <c r="D7" s="48">
         <v>20</v>
       </c>
     </row>
@@ -2525,86 +2744,86 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="31">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
         <v>32</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="21">
         <v>32</v>
       </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-      <c r="L2" s="33">
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21">
+        <v>0</v>
+      </c>
+      <c r="L2" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2634,15 +2853,15 @@
       <c r="K3" s="14">
         <v>30</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="31">
+      <c r="A4" s="40">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2672,15 +2891,15 @@
       <c r="K4" s="14">
         <v>0</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="31">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2710,15 +2929,15 @@
       <c r="K5" s="14">
         <v>0</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="31">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2748,15 +2967,15 @@
       <c r="K6" s="14">
         <v>0</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="31">
-        <v>5</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="40">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -2786,15 +3005,15 @@
       <c r="K7" s="14">
         <v>0</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="31">
+      <c r="A8" s="40">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2824,15 +3043,15 @@
       <c r="K8" s="14">
         <v>0</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="31">
+      <c r="A9" s="40">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2862,15 +3081,15 @@
       <c r="K9" s="14">
         <v>0</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="31">
+      <c r="A10" s="40">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2900,15 +3119,15 @@
       <c r="K10" s="14">
         <v>0</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="31">
+      <c r="A11" s="40">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -2938,15 +3157,15 @@
       <c r="K11" s="14">
         <v>0</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="31">
+      <c r="A12" s="40">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2976,15 +3195,15 @@
       <c r="K12" s="14">
         <v>0</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31">
+      <c r="A13" s="40">
         <v>11</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="44" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -3014,15 +3233,15 @@
       <c r="K13" s="14">
         <v>0</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="31">
+      <c r="A14" s="40">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="44" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -3052,173 +3271,173 @@
       <c r="K14" s="14">
         <v>30</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="45">
         <v>30</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:12">
-      <c r="A15" s="31">
+      <c r="A15" s="40">
         <v>13</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
         <v>32</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="28">
         <v>32</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="28">
         <v>16711680</v>
       </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18">
+      <c r="I15" s="28">
+        <v>1</v>
+      </c>
+      <c r="J15" s="28">
         <v>-1</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="28">
         <v>-20</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="48">
         <v>-20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3242,660 +3461,660 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
         <v>100</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="42">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="44">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="45">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="44">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="45">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="34">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="44">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="45">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35">
+      <c r="A6" s="43">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="45">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="34">
+      <c r="A7" s="43">
         <v>6</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="44">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="45">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="34">
+      <c r="A8" s="43">
         <v>7</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="44">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="45">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34">
+      <c r="A9" s="43">
         <v>8</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="44">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="45">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34">
+      <c r="A10" s="43">
         <v>9</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="44">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="45">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34">
+      <c r="A11" s="43">
         <v>10</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="44">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="45">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34">
+      <c r="A12" s="43">
         <v>11</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="44">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="45">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34">
+      <c r="A13" s="43">
         <v>12</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="44">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="45">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="34">
+      <c r="A14" s="43">
         <v>13</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="44">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="45">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="34">
+      <c r="A15" s="43">
         <v>14</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="44">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="45">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="34">
+      <c r="A16" s="43">
         <v>15</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="44">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="45">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="34">
+      <c r="A17" s="43">
         <v>16</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="44">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="45">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="34">
+      <c r="A18" s="43">
         <v>17</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="44">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="45">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="34">
+      <c r="A19" s="43">
         <v>18</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="44">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="45">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="34">
+      <c r="A20" s="43">
         <v>19</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="44">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="45">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="34">
+      <c r="A21" s="43">
         <v>20</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="44">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="45">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="34">
+      <c r="A22" s="43">
         <v>21</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="44">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="45">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="34">
+      <c r="A23" s="43">
         <v>22</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="44">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="45">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="34">
+      <c r="A24" s="43">
         <v>23</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="44">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="45">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="34">
+      <c r="A25" s="43">
         <v>24</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="44">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="45">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="34">
+      <c r="A26" s="43">
         <v>25</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="44">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="45">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="34">
+      <c r="A27" s="43">
         <v>26</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="44">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="45">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="34">
+      <c r="A28" s="43">
         <v>27</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="44">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="45">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="34">
+      <c r="A29" s="43">
         <v>28</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="44">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="45">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="34">
+      <c r="A30" s="43">
         <v>29</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="44">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="45">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="34">
+      <c r="A31" s="43">
         <v>30</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="44">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="45">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="34">
+      <c r="A32" s="43">
         <v>31</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="44">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="45">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="34">
+      <c r="A33" s="43">
         <v>32</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="44">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="45">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="34">
+      <c r="A34" s="43">
         <v>33</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="44">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="45">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="34">
+      <c r="A35" s="43">
         <v>34</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="44">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="45">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="34">
+      <c r="A36" s="43">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="44">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="45">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="34">
+      <c r="A37" s="43">
         <v>36</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="44">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="45">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="34">
+      <c r="A38" s="43">
         <v>37</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="44">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="45">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="34">
+      <c r="A39" s="43">
         <v>38</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="44">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="45">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="34">
+      <c r="A40" s="43">
         <v>39</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="44">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="45">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="34">
+      <c r="A41" s="43">
         <v>40</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="44">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="45">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="34">
+      <c r="A42" s="43">
         <v>41</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="44">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="45">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="34">
+      <c r="A43" s="43">
         <v>42</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="44">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="45">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="34">
+      <c r="A44" s="43">
         <v>43</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="44">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="45">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="34">
+      <c r="A45" s="43">
         <v>44</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="44">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="45">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="34">
+      <c r="A46" s="43">
         <v>45</v>
       </c>
-      <c r="B46" s="35">
+      <c r="B46" s="44">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="45">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="34">
+      <c r="A47" s="43">
         <v>46</v>
       </c>
-      <c r="B47" s="35">
+      <c r="B47" s="44">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="45">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="34">
+      <c r="A48" s="43">
         <v>47</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B48" s="44">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="45">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="34">
+      <c r="A49" s="43">
         <v>48</v>
       </c>
-      <c r="B49" s="35">
+      <c r="B49" s="44">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="45">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="34">
+      <c r="A50" s="43">
         <v>49</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="44">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="45">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="37">
+      <c r="A51" s="46">
         <v>50</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="47">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="48">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -3922,57 +4141,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="39" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="42">
         <v>16711680</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="45">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="43">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="45">
         <v>65280</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="37">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="48">
         <v>8947848</v>
       </c>
     </row>
@@ -3994,44 +4213,44 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5">
+      <c r="B1" s="16">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16">
         <v>2</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
         <v>0.8</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="21">
         <v>1.2</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44">
         <v>1.2</v>
       </c>
       <c r="C3" s="14">
@@ -4040,15 +4259,15 @@
       <c r="D3" s="14">
         <v>0.8</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="44">
         <v>0.8</v>
       </c>
       <c r="C4" s="14">
@@ -4057,24 +4276,24 @@
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="15">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="38">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="B5" s="47">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48">
         <v>1</v>
       </c>
     </row>
@@ -4101,86 +4320,86 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="31">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="34">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="34">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="34">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="37">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4205,35 +4424,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="28">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="28">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="14" t="s">
@@ -4241,15 +4460,15 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="28">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -4257,15 +4476,15 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="28">
+      <c r="E4" s="12">
         <v>2</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -4273,17 +4492,17 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="28">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -4291,15 +4510,15 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="28">
+      <c r="E6" s="12">
         <v>3</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -4307,17 +4526,17 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28">
-        <v>5</v>
-      </c>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="12">
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -4335,8 +4554,8 @@
   <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4348,85 +4567,85 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="21">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="21">
         <v>100</v>
       </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
         <v>4</v>
       </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21">
+      <c r="H2" s="21">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="J2" s="31">
         <v>100</v>
       </c>
-      <c r="K2" s="22">
-        <v>0</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="K2" s="32">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="14">
@@ -4447,23 +4666,23 @@
       <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="34">
         <v>500</v>
       </c>
-      <c r="K3" s="25">
-        <v>0</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="K3" s="35">
+        <v>0</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="11">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="14">
@@ -4484,23 +4703,23 @@
       <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="34">
         <v>900</v>
       </c>
-      <c r="K4" s="25">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="K4" s="35">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="11">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="23">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="14">
@@ -4521,23 +4740,23 @@
       <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="34">
         <v>1200</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="11">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="14">
@@ -4558,23 +4777,23 @@
       <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="34">
         <v>100</v>
       </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="K6" s="35">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="14">
@@ -4595,23 +4814,23 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="34">
         <v>500</v>
       </c>
-      <c r="K7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="K7" s="35">
+        <v>0</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="11">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="14">
@@ -4632,23 +4851,23 @@
       <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="34">
         <v>900</v>
       </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="11">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="14">
@@ -4669,21 +4888,21 @@
       <c r="I9" s="14">
         <v>1</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="34">
         <v>1200</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="11">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="23">
         <v>2</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="14">
@@ -4704,21 +4923,21 @@
       <c r="I10" s="14">
         <v>1</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="34">
         <v>100</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="11">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="24" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="14">
@@ -4739,21 +4958,21 @@
       <c r="I11" s="14">
         <v>1</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="34">
         <v>500</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="11">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="23">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="24" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="14">
@@ -4774,21 +4993,21 @@
       <c r="I12" s="14">
         <v>1</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="34">
         <v>900</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="23">
         <v>2</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D13" s="14">
@@ -4809,21 +5028,21 @@
       <c r="I13" s="14">
         <v>1</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="34">
         <v>1200</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="11">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="23">
         <v>3</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="24" t="s">
         <v>114</v>
       </c>
       <c r="D14" s="14">
@@ -4844,21 +5063,21 @@
       <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="34">
         <v>100</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="11">
+      <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="23">
         <v>3</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="24" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="14">
@@ -4879,21 +5098,21 @@
       <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="34">
         <v>500</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="11">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="23">
         <v>3</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="24" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="14">
@@ -4914,21 +5133,21 @@
       <c r="I16" s="14">
         <v>3</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="34">
         <v>900</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="11">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="23">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D17" s="14">
@@ -4949,21 +5168,21 @@
       <c r="I17" s="14">
         <v>2</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="34">
         <v>1200</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="11">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="23">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="24" t="s">
         <v>118</v>
       </c>
       <c r="D18" s="14">
@@ -4984,21 +5203,21 @@
       <c r="I18" s="14">
         <v>2</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="34">
         <v>100</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="11">
+      <c r="A19" s="22">
         <v>17</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="23">
         <v>4</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="14">
@@ -5019,21 +5238,21 @@
       <c r="I19" s="14">
         <v>2</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="34">
         <v>500</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="11">
+      <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="23">
         <v>4</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="14">
@@ -5054,21 +5273,21 @@
       <c r="I20" s="14">
         <v>2</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="34">
         <v>900</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="11">
+      <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="23">
         <v>4</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="24" t="s">
         <v>121</v>
       </c>
       <c r="D21" s="14">
@@ -5089,21 +5308,21 @@
       <c r="I21" s="14">
         <v>2</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="34">
         <v>1200</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="11">
+      <c r="A22" s="22">
         <v>20</v>
       </c>
-      <c r="B22" s="12">
-        <v>5</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="23">
+        <v>5</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="14">
@@ -5124,21 +5343,21 @@
       <c r="I22" s="14">
         <v>1</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="34">
         <v>100</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="11">
+      <c r="A23" s="22">
         <v>21</v>
       </c>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>123</v>
       </c>
       <c r="D23" s="14">
@@ -5159,21 +5378,21 @@
       <c r="I23" s="14">
         <v>1</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="34">
         <v>500</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="11">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="23">
+        <v>5</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="14">
@@ -5194,45 +5413,45 @@
       <c r="I24" s="14">
         <v>10</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="34">
         <v>900</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:11">
-      <c r="A25" s="15">
+      <c r="A25" s="25">
         <v>23</v>
       </c>
-      <c r="B25" s="16">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="26">
+        <v>5</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="28">
         <v>15</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="28">
         <v>100</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>1</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <v>0</v>
+      </c>
+      <c r="H25" s="28">
+        <v>1</v>
+      </c>
+      <c r="I25" s="28">
         <v>10</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="36">
         <v>1200</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="37">
         <v>3</v>
       </c>
     </row>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="10"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
   <si>
     <t>職業ID</t>
   </si>
@@ -245,7 +245,7 @@
     <t>BGMパス</t>
   </si>
   <si>
-    <t>ワルシャワ</t>
+    <t>山岳の掃討戦1</t>
   </si>
   <si>
     <t>map0.map</t>
@@ -254,22 +254,19 @@
     <t>Resource/Sound/BGM/map.mp3</t>
   </si>
   <si>
-    <t>パリ</t>
+    <t>山岳の掃討戦2</t>
   </si>
   <si>
     <t>map1.map</t>
   </si>
   <si>
-    <t>ロンドン</t>
-  </si>
-  <si>
-    <t>map2.map</t>
-  </si>
-  <si>
-    <t>モスクワ</t>
-  </si>
-  <si>
-    <t>ワシントンD.C.</t>
+    <t>山岳の掃討戦3</t>
+  </si>
+  <si>
+    <t>山岳の掃討戦4</t>
+  </si>
+  <si>
+    <t>山岳の掃討戦5</t>
   </si>
   <si>
     <t>武器種名</t>
@@ -475,16 +472,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +510,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -507,7 +550,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,35 +569,6 @@
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,27 +587,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,23 +602,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,7 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,37 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +667,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +709,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,49 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,31 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,6 +1164,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,6 +1212,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1217,39 +1238,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,6 +1256,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1276,7 +1273,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,140 +1282,140 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,18 +1488,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1551,19 +1542,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -1919,478 +1910,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54" t="s">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="54" t="s">
+      <c r="O1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="52" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="54">
-        <v>0</v>
-      </c>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="52">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="54">
-        <v>0</v>
-      </c>
-      <c r="D2" s="54">
+      <c r="C2" s="52">
+        <v>0</v>
+      </c>
+      <c r="D2" s="52">
         <v>20</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="52">
         <v>10</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="52">
         <v>10</v>
       </c>
-      <c r="G2" s="54">
-        <v>5</v>
-      </c>
-      <c r="H2" s="54">
-        <v>5</v>
-      </c>
-      <c r="I2" s="54">
-        <v>5</v>
-      </c>
-      <c r="J2" s="54">
-        <v>5</v>
-      </c>
-      <c r="K2" s="54">
-        <v>5</v>
-      </c>
-      <c r="L2" s="54">
-        <v>5</v>
-      </c>
-      <c r="M2" s="54">
+      <c r="G2" s="52">
+        <v>5</v>
+      </c>
+      <c r="H2" s="52">
+        <v>5</v>
+      </c>
+      <c r="I2" s="52">
+        <v>5</v>
+      </c>
+      <c r="J2" s="52">
+        <v>5</v>
+      </c>
+      <c r="K2" s="52">
+        <v>5</v>
+      </c>
+      <c r="L2" s="52">
+        <v>5</v>
+      </c>
+      <c r="M2" s="52">
         <v>60</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="52">
         <v>40</v>
       </c>
-      <c r="O2" s="54">
+      <c r="O2" s="52">
         <v>40</v>
       </c>
-      <c r="P2" s="54">
+      <c r="P2" s="52">
         <v>40</v>
       </c>
-      <c r="Q2" s="54">
+      <c r="Q2" s="52">
         <v>20</v>
       </c>
-      <c r="R2" s="54">
+      <c r="R2" s="52">
         <v>40</v>
       </c>
-      <c r="S2" s="54">
+      <c r="S2" s="52">
         <v>40</v>
       </c>
-      <c r="T2" s="54">
+      <c r="T2" s="52">
         <v>40</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="54">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="54">
-        <v>1</v>
-      </c>
-      <c r="D3" s="54">
+      <c r="C3" s="52">
+        <v>1</v>
+      </c>
+      <c r="D3" s="52">
         <v>20</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="52">
         <v>10</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="52">
         <v>10</v>
       </c>
-      <c r="G3" s="54">
-        <v>5</v>
-      </c>
-      <c r="H3" s="54">
-        <v>5</v>
-      </c>
-      <c r="I3" s="54">
-        <v>5</v>
-      </c>
-      <c r="J3" s="54">
-        <v>5</v>
-      </c>
-      <c r="K3" s="54">
-        <v>5</v>
-      </c>
-      <c r="L3" s="54">
-        <v>5</v>
-      </c>
-      <c r="M3" s="54">
+      <c r="G3" s="52">
+        <v>5</v>
+      </c>
+      <c r="H3" s="52">
+        <v>5</v>
+      </c>
+      <c r="I3" s="52">
+        <v>5</v>
+      </c>
+      <c r="J3" s="52">
+        <v>5</v>
+      </c>
+      <c r="K3" s="52">
+        <v>5</v>
+      </c>
+      <c r="L3" s="52">
+        <v>5</v>
+      </c>
+      <c r="M3" s="52">
         <v>60</v>
       </c>
-      <c r="N3" s="54">
+      <c r="N3" s="52">
         <v>40</v>
       </c>
-      <c r="O3" s="54">
+      <c r="O3" s="52">
         <v>40</v>
       </c>
-      <c r="P3" s="54">
+      <c r="P3" s="52">
         <v>40</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="52">
         <v>20</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="52">
         <v>40</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="52">
         <v>40</v>
       </c>
-      <c r="T3" s="54">
+      <c r="T3" s="52">
         <v>40</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="52">
         <v>2</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="52">
         <v>20</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="52">
         <v>10</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="52">
         <v>10</v>
       </c>
-      <c r="G4" s="54">
-        <v>5</v>
-      </c>
-      <c r="H4" s="54">
-        <v>5</v>
-      </c>
-      <c r="I4" s="54">
-        <v>5</v>
-      </c>
-      <c r="J4" s="54">
-        <v>5</v>
-      </c>
-      <c r="K4" s="54">
-        <v>5</v>
-      </c>
-      <c r="L4" s="54">
-        <v>5</v>
-      </c>
-      <c r="M4" s="54">
+      <c r="G4" s="52">
+        <v>5</v>
+      </c>
+      <c r="H4" s="52">
+        <v>5</v>
+      </c>
+      <c r="I4" s="52">
+        <v>5</v>
+      </c>
+      <c r="J4" s="52">
+        <v>5</v>
+      </c>
+      <c r="K4" s="52">
+        <v>5</v>
+      </c>
+      <c r="L4" s="52">
+        <v>5</v>
+      </c>
+      <c r="M4" s="52">
         <v>60</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="52">
         <v>40</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="52">
         <v>40</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="52">
         <v>40</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="52">
         <v>20</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="52">
         <v>40</v>
       </c>
-      <c r="S4" s="54">
+      <c r="S4" s="52">
         <v>40</v>
       </c>
-      <c r="T4" s="54">
+      <c r="T4" s="52">
         <v>40</v>
       </c>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="54">
+      <c r="A5" s="52">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="52">
         <v>3</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="52">
         <v>20</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="52">
         <v>10</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="52">
         <v>10</v>
       </c>
-      <c r="G5" s="54">
-        <v>5</v>
-      </c>
-      <c r="H5" s="54">
-        <v>5</v>
-      </c>
-      <c r="I5" s="54">
-        <v>5</v>
-      </c>
-      <c r="J5" s="54">
-        <v>5</v>
-      </c>
-      <c r="K5" s="54">
-        <v>5</v>
-      </c>
-      <c r="L5" s="54">
-        <v>5</v>
-      </c>
-      <c r="M5" s="54">
+      <c r="G5" s="52">
+        <v>5</v>
+      </c>
+      <c r="H5" s="52">
+        <v>5</v>
+      </c>
+      <c r="I5" s="52">
+        <v>5</v>
+      </c>
+      <c r="J5" s="52">
+        <v>5</v>
+      </c>
+      <c r="K5" s="52">
+        <v>5</v>
+      </c>
+      <c r="L5" s="52">
+        <v>5</v>
+      </c>
+      <c r="M5" s="52">
         <v>60</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="52">
         <v>40</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="52">
         <v>40</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="52">
         <v>40</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="52">
         <v>20</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="52">
         <v>40</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="52">
         <v>40</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="52">
         <v>40</v>
       </c>
-      <c r="U5" s="54" t="s">
+      <c r="U5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="54" t="s">
+      <c r="V5" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <v>4</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="52">
         <v>20</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="52">
         <v>10</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="52">
         <v>10</v>
       </c>
-      <c r="G6" s="54">
-        <v>5</v>
-      </c>
-      <c r="H6" s="54">
-        <v>5</v>
-      </c>
-      <c r="I6" s="54">
-        <v>5</v>
-      </c>
-      <c r="J6" s="54">
-        <v>5</v>
-      </c>
-      <c r="K6" s="54">
-        <v>5</v>
-      </c>
-      <c r="L6" s="54">
-        <v>5</v>
-      </c>
-      <c r="M6" s="54">
+      <c r="G6" s="52">
+        <v>5</v>
+      </c>
+      <c r="H6" s="52">
+        <v>5</v>
+      </c>
+      <c r="I6" s="52">
+        <v>5</v>
+      </c>
+      <c r="J6" s="52">
+        <v>5</v>
+      </c>
+      <c r="K6" s="52">
+        <v>5</v>
+      </c>
+      <c r="L6" s="52">
+        <v>5</v>
+      </c>
+      <c r="M6" s="52">
         <v>60</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="52">
         <v>40</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="52">
         <v>40</v>
       </c>
-      <c r="P6" s="54">
+      <c r="P6" s="52">
         <v>40</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="52">
         <v>20</v>
       </c>
-      <c r="R6" s="54">
+      <c r="R6" s="52">
         <v>40</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="52">
         <v>40</v>
       </c>
-      <c r="T6" s="54">
+      <c r="T6" s="52">
         <v>40</v>
       </c>
-      <c r="U6" s="54" t="s">
+      <c r="U6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="54" t="s">
+      <c r="V6" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="54">
-        <v>5</v>
-      </c>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="52">
+        <v>5</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="54">
-        <v>5</v>
-      </c>
-      <c r="D7" s="54">
+      <c r="C7" s="52">
+        <v>5</v>
+      </c>
+      <c r="D7" s="52">
         <v>20</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="52">
         <v>10</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="52">
         <v>10</v>
       </c>
-      <c r="G7" s="54">
-        <v>5</v>
-      </c>
-      <c r="H7" s="54">
-        <v>5</v>
-      </c>
-      <c r="I7" s="54">
-        <v>5</v>
-      </c>
-      <c r="J7" s="54">
-        <v>5</v>
-      </c>
-      <c r="K7" s="54">
-        <v>5</v>
-      </c>
-      <c r="L7" s="54">
-        <v>5</v>
-      </c>
-      <c r="M7" s="54">
+      <c r="G7" s="52">
+        <v>5</v>
+      </c>
+      <c r="H7" s="52">
+        <v>5</v>
+      </c>
+      <c r="I7" s="52">
+        <v>5</v>
+      </c>
+      <c r="J7" s="52">
+        <v>5</v>
+      </c>
+      <c r="K7" s="52">
+        <v>5</v>
+      </c>
+      <c r="L7" s="52">
+        <v>5</v>
+      </c>
+      <c r="M7" s="52">
         <v>60</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="52">
         <v>40</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="52">
         <v>40</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="52">
         <v>40</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="52">
         <v>20</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="52">
         <v>40</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="52">
         <v>40</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="52">
         <v>40</v>
       </c>
-      <c r="U7" s="54" t="s">
+      <c r="U7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="54" t="s">
+      <c r="V7" s="52" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2413,11 +2404,11 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -2432,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2446,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2460,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -2474,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -2488,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -2514,7 +2505,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2531,7 +2522,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -2540,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -2552,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -2564,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -2576,10 +2567,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -2588,10 +2579,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -2622,100 +2613,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="40">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41">
+      <c r="A2" s="38">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39">
         <v>0</v>
       </c>
       <c r="C2" s="21">
         <v>5</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45">
         <v>1</v>
       </c>
       <c r="C3" s="14">
         <v>5</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="43">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="45">
         <v>2</v>
       </c>
       <c r="C4" s="14">
         <v>5</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="45">
         <v>3</v>
       </c>
       <c r="C5" s="14">
         <v>5</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="42">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="45">
         <v>4</v>
       </c>
       <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="42">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="46">
-        <v>5</v>
-      </c>
-      <c r="B7" s="47">
-        <v>5</v>
-      </c>
-      <c r="C7" s="28">
-        <v>5</v>
-      </c>
-      <c r="D7" s="48">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7" s="46">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>5</v>
+      </c>
+      <c r="D7" s="44">
         <v>20</v>
       </c>
     </row>
@@ -2744,7 +2735,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -2777,15 +2768,15 @@
       <c r="K1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="40">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="38">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -2815,15 +2806,15 @@
       <c r="K2" s="21">
         <v>0</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="38">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2853,15 +2844,15 @@
       <c r="K3" s="14">
         <v>30</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="40">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2891,15 +2882,15 @@
       <c r="K4" s="14">
         <v>0</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="40">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2929,15 +2920,15 @@
       <c r="K5" s="14">
         <v>0</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="40">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2967,15 +2958,15 @@
       <c r="K6" s="14">
         <v>0</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="40">
-        <v>5</v>
-      </c>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -3005,15 +2996,15 @@
       <c r="K7" s="14">
         <v>0</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="40">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -3043,15 +3034,15 @@
       <c r="K8" s="14">
         <v>0</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="40">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -3081,15 +3072,15 @@
       <c r="K9" s="14">
         <v>0</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="40">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -3119,15 +3110,15 @@
       <c r="K10" s="14">
         <v>0</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="40">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -3157,15 +3148,15 @@
       <c r="K11" s="14">
         <v>0</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="40">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3195,15 +3186,15 @@
       <c r="K12" s="14">
         <v>0</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="40">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -3233,15 +3224,15 @@
       <c r="K13" s="14">
         <v>0</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="40">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -3271,45 +3262,45 @@
       <c r="K14" s="14">
         <v>30</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:12">
-      <c r="A15" s="40">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="28">
-        <v>0</v>
-      </c>
-      <c r="E15" s="28">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28">
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
         <v>32</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <v>32</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="26">
         <v>16711680</v>
       </c>
-      <c r="I15" s="28">
-        <v>1</v>
-      </c>
-      <c r="J15" s="28">
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="J15" s="26">
         <v>-1</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="26">
         <v>-20</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="44">
         <v>-20</v>
       </c>
     </row>
@@ -3464,657 +3455,657 @@
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
         <v>100</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="43">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="45">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="42">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="45">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="42">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="45">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="42">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="43">
-        <v>5</v>
-      </c>
-      <c r="B6" s="44">
+      <c r="A6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="42">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="43">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="45">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="42">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="43">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="45">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="42">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="43">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="45">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="42">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="43">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="45">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="42">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="43">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="45">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="42">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="43">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="45">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="42">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="43">
+      <c r="A13" s="41">
         <v>12</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="45">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="42">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="43">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="45">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="42">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="43">
+      <c r="A15" s="41">
         <v>14</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="45">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="42">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="43">
+      <c r="A16" s="41">
         <v>15</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="45">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="42">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="43">
+      <c r="A17" s="41">
         <v>16</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="45">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="42">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="43">
+      <c r="A18" s="41">
         <v>17</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="45">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="42">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="43">
+      <c r="A19" s="41">
         <v>18</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="45">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="42">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="43">
+      <c r="A20" s="41">
         <v>19</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="45">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="42">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="43">
+      <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="45">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="42">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="43">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="45">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="42">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="43">
+      <c r="A23" s="41">
         <v>22</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="45">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="42">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="43">
+      <c r="A24" s="41">
         <v>23</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="45">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="42">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="43">
+      <c r="A25" s="41">
         <v>24</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="45">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="42">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="43">
+      <c r="A26" s="41">
         <v>25</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="45">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="42">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="43">
+      <c r="A27" s="41">
         <v>26</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="45">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="42">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="43">
+      <c r="A28" s="41">
         <v>27</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="45">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="42">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="43">
+      <c r="A29" s="41">
         <v>28</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="45">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="42">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="43">
+      <c r="A30" s="41">
         <v>29</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="45">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="42">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="43">
+      <c r="A31" s="41">
         <v>30</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="45">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="42">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="43">
+      <c r="A32" s="41">
         <v>31</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="45">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="42">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="43">
+      <c r="A33" s="41">
         <v>32</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="45">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="42">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="43">
+      <c r="A34" s="41">
         <v>33</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="45">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="42">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="43">
+      <c r="A35" s="41">
         <v>34</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="45">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="42">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="43">
+      <c r="A36" s="41">
         <v>35</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="45">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="42">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="43">
+      <c r="A37" s="41">
         <v>36</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="45">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="42">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="43">
+      <c r="A38" s="41">
         <v>37</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="45">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="42">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="43">
+      <c r="A39" s="41">
         <v>38</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="45">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="42">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="43">
+      <c r="A40" s="41">
         <v>39</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="45">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="42">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="43">
+      <c r="A41" s="41">
         <v>40</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="45">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="42">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="43">
+      <c r="A42" s="41">
         <v>41</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="45">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="42">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="43">
+      <c r="A43" s="41">
         <v>42</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="45">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="42">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="43">
+      <c r="A44" s="41">
         <v>43</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="45">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="42">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="43">
+      <c r="A45" s="41">
         <v>44</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="45">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="42">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="43">
+      <c r="A46" s="41">
         <v>45</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="45">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="42">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="43">
+      <c r="A47" s="41">
         <v>46</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="45">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="42">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="43">
+      <c r="A48" s="41">
         <v>47</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="45">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="42">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="43">
+      <c r="A49" s="41">
         <v>48</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="45">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="42">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="43">
+      <c r="A50" s="41">
         <v>49</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="45">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="42">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="46">
+      <c r="A51" s="43">
         <v>50</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="46">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="44">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -4141,57 +4132,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40">
+      <c r="A2" s="38">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>16711680</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="43">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="42">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43">
+      <c r="A4" s="41">
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="42">
         <v>65280</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="46">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="44">
         <v>8947848</v>
       </c>
     </row>
@@ -4213,7 +4204,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="16">
@@ -4233,7 +4224,7 @@
       <c r="A2" s="18">
         <v>0</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <v>1</v>
       </c>
       <c r="C2" s="21">
@@ -4242,7 +4233,7 @@
       <c r="D2" s="21">
         <v>1.2</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="40">
         <v>1</v>
       </c>
     </row>
@@ -4250,7 +4241,7 @@
       <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="45">
         <v>1.2</v>
       </c>
       <c r="C3" s="14">
@@ -4259,7 +4250,7 @@
       <c r="D3" s="14">
         <v>0.8</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="42">
         <v>1</v>
       </c>
     </row>
@@ -4267,7 +4258,7 @@
       <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="45">
         <v>0.8</v>
       </c>
       <c r="C4" s="14">
@@ -4276,24 +4267,24 @@
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="47">
-        <v>1</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4308,8 +4299,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -4320,7 +4311,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -4329,77 +4320,77 @@
       <c r="C1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="40">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="38">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="43">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="43">
-        <v>3</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="46">
+      <c r="A6" s="43">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4428,19 +4419,19 @@
         <v>32</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4448,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -4456,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4464,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -4472,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4480,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -4488,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4496,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -4506,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4514,7 +4505,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4522,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4540,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4571,34 +4562,34 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4609,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="21">
         <v>3</v>
@@ -4629,14 +4620,14 @@
       <c r="I2" s="21">
         <v>1</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="29">
         <v>100</v>
       </c>
-      <c r="K2" s="32">
-        <v>0</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="K2" s="30">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="22">
@@ -4645,8 +4636,8 @@
       <c r="B3" s="23">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>103</v>
+      <c r="C3" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="14">
         <v>5</v>
@@ -4666,14 +4657,14 @@
       <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="32">
         <v>500</v>
       </c>
-      <c r="K3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="K3" s="33">
+        <v>0</v>
+      </c>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="22">
@@ -4682,8 +4673,8 @@
       <c r="B4" s="23">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>104</v>
+      <c r="C4" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D4" s="14">
         <v>8</v>
@@ -4703,14 +4694,14 @@
       <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="32">
         <v>900</v>
       </c>
-      <c r="K4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="K4" s="33">
+        <v>0</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="22">
@@ -4719,8 +4710,8 @@
       <c r="B5" s="23">
         <v>0</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>105</v>
+      <c r="C5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="D5" s="14">
         <v>12</v>
@@ -4740,14 +4731,14 @@
       <c r="I5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="32">
         <v>1200</v>
       </c>
-      <c r="K5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="K5" s="30">
+        <v>0</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="22">
@@ -4756,8 +4747,8 @@
       <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>106</v>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D6" s="14">
         <v>4</v>
@@ -4777,14 +4768,14 @@
       <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="32">
         <v>100</v>
       </c>
-      <c r="K6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="22">
@@ -4793,8 +4784,8 @@
       <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>107</v>
+      <c r="C7" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="14">
         <v>6</v>
@@ -4814,14 +4805,14 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="32">
         <v>500</v>
       </c>
-      <c r="K7" s="35">
-        <v>0</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="22">
@@ -4830,8 +4821,8 @@
       <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>108</v>
+      <c r="C8" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D8" s="14">
         <v>9</v>
@@ -4851,14 +4842,14 @@
       <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="32">
         <v>900</v>
       </c>
-      <c r="K8" s="32">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="22">
@@ -4867,8 +4858,8 @@
       <c r="B9" s="23">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>109</v>
+      <c r="C9" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D9" s="14">
         <v>13</v>
@@ -4888,10 +4879,10 @@
       <c r="I9" s="14">
         <v>1</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="32">
         <v>1200</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4902,8 +4893,8 @@
       <c r="B10" s="23">
         <v>2</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>110</v>
+      <c r="C10" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="14">
         <v>6</v>
@@ -4923,10 +4914,10 @@
       <c r="I10" s="14">
         <v>1</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <v>100</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4937,8 +4928,8 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>111</v>
+      <c r="C11" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="14">
         <v>8</v>
@@ -4958,10 +4949,10 @@
       <c r="I11" s="14">
         <v>1</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="32">
         <v>500</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="30">
         <v>0</v>
       </c>
     </row>
@@ -4972,8 +4963,8 @@
       <c r="B12" s="23">
         <v>2</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>112</v>
+      <c r="C12" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D12" s="14">
         <v>11</v>
@@ -4993,10 +4984,10 @@
       <c r="I12" s="14">
         <v>1</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="32">
         <v>900</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5007,8 +4998,8 @@
       <c r="B13" s="23">
         <v>2</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>113</v>
+      <c r="C13" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D13" s="14">
         <v>16</v>
@@ -5028,10 +5019,10 @@
       <c r="I13" s="14">
         <v>1</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="32">
         <v>1200</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5042,8 +5033,8 @@
       <c r="B14" s="23">
         <v>3</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>114</v>
+      <c r="C14" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D14" s="14">
         <v>3</v>
@@ -5063,10 +5054,10 @@
       <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="32">
         <v>100</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5077,8 +5068,8 @@
       <c r="B15" s="23">
         <v>3</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>115</v>
+      <c r="C15" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="14">
         <v>8</v>
@@ -5098,10 +5089,10 @@
       <c r="I15" s="14">
         <v>2</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="32">
         <v>500</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5112,8 +5103,8 @@
       <c r="B16" s="23">
         <v>3</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>116</v>
+      <c r="C16" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D16" s="14">
         <v>9</v>
@@ -5133,10 +5124,10 @@
       <c r="I16" s="14">
         <v>3</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="32">
         <v>900</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5147,8 +5138,8 @@
       <c r="B17" s="23">
         <v>3</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>117</v>
+      <c r="C17" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D17" s="14">
         <v>12</v>
@@ -5168,10 +5159,10 @@
       <c r="I17" s="14">
         <v>2</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="32">
         <v>1200</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5182,8 +5173,8 @@
       <c r="B18" s="23">
         <v>4</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>118</v>
+      <c r="C18" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D18" s="14">
         <v>3</v>
@@ -5203,10 +5194,10 @@
       <c r="I18" s="14">
         <v>2</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="32">
         <v>100</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>2</v>
       </c>
     </row>
@@ -5217,8 +5208,8 @@
       <c r="B19" s="23">
         <v>4</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>119</v>
+      <c r="C19" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D19" s="14">
         <v>6</v>
@@ -5238,10 +5229,10 @@
       <c r="I19" s="14">
         <v>2</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="32">
         <v>500</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>2</v>
       </c>
     </row>
@@ -5252,8 +5243,8 @@
       <c r="B20" s="23">
         <v>4</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>120</v>
+      <c r="C20" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D20" s="14">
         <v>9</v>
@@ -5273,10 +5264,10 @@
       <c r="I20" s="14">
         <v>2</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="32">
         <v>900</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>2</v>
       </c>
     </row>
@@ -5287,8 +5278,8 @@
       <c r="B21" s="23">
         <v>4</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>121</v>
+      <c r="C21" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D21" s="14">
         <v>12</v>
@@ -5308,10 +5299,10 @@
       <c r="I21" s="14">
         <v>2</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="32">
         <v>1200</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>2</v>
       </c>
     </row>
@@ -5322,8 +5313,8 @@
       <c r="B22" s="23">
         <v>5</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>122</v>
+      <c r="C22" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D22" s="14">
         <v>8</v>
@@ -5343,10 +5334,10 @@
       <c r="I22" s="14">
         <v>1</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <v>100</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="33">
         <v>3</v>
       </c>
     </row>
@@ -5357,8 +5348,8 @@
       <c r="B23" s="23">
         <v>5</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>123</v>
+      <c r="C23" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D23" s="14">
         <v>30</v>
@@ -5378,10 +5369,10 @@
       <c r="I23" s="14">
         <v>1</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="32">
         <v>500</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <v>3</v>
       </c>
     </row>
@@ -5392,8 +5383,8 @@
       <c r="B24" s="23">
         <v>5</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>124</v>
+      <c r="C24" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D24" s="14">
         <v>8</v>
@@ -5413,45 +5404,45 @@
       <c r="I24" s="14">
         <v>10</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="32">
         <v>900</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:11">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>23</v>
       </c>
-      <c r="B25" s="26">
-        <v>5</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="28">
+      <c r="B25" s="25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="26">
         <v>15</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="26">
         <v>100</v>
       </c>
-      <c r="F25" s="28">
-        <v>0</v>
-      </c>
-      <c r="G25" s="28">
-        <v>0</v>
-      </c>
-      <c r="H25" s="28">
-        <v>1</v>
-      </c>
-      <c r="I25" s="28">
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="26">
         <v>10</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="34">
         <v>1200</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="35">
         <v>3</v>
       </c>
     </row>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13065" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Weapon" sheetId="7" r:id="rId9"/>
     <sheet name="enum_match" sheetId="10" r:id="rId10"/>
     <sheet name="BattleEffect" sheetId="11" r:id="rId11"/>
+    <sheet name="AdvanceLoad" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
   <si>
     <t>職業ID</t>
   </si>
@@ -444,6 +445,321 @@
   </si>
   <si>
     <t>Resource/Sound/SE/BattleEffectSE/miss.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/battleNameWindow_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/battleParamWindow_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/battleParamWindow_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/battleWindow_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/battleWindow_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/cutin.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/floor.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/floor_big.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/floor_small.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/game_over.jpg</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/hpDotMask.bmp</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/light.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/magicCircle.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/magicCircleBlur.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/movableMass.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Battle/battleNameWindow_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/swordman_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/swordman_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/warrior_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/warrior_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/archer_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/archer_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/charactor.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/mage_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/mage_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/priest_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/priest_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/soldier_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Charactor/soldier_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Effect/terrainDamageEffect.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Effect/terrainRecoverEffect.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Effect/arrow.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Effect/magicEffect.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Effect/recoverEffect.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Effect/slashingEffect.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/MapChip/mapchip0.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/MapChip/mapchip1.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/MapChip/mapchip2.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/MapChip/mapchip3.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/MapChip/mapchip4.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/MapChip/cursor.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Title/title.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/Title/title_bks.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/mapNameFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/mapSelectBG.jpg</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/menuFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/quillPen.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/statusWindow1.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/statusWindow2.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/tag_enemy.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/tag_player.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/terrainAvoid.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/terrainDef.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/terrainNameFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/terrainRecover.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/turnCntFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/verticalWindow.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/weaponTextFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/window0.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/window1.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/window2.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/window3.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/arrow.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/checkWindow.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/checkWindowSelect.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/clear.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/equipmentFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/equipmentStatusFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/fukidashi.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/horizontalWindow.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/itemFrame.png</t>
+  </si>
+  <si>
+    <t>Resource/Image/UI/levelUp.png</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/mapSelect.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/preparation.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/title.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/battle.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/heal.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/game_over.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/select05.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/sceneswitch2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/pin.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/ok2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/ok.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/menu_open.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/menu_close.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/hp_se.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/healStart.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/dash.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/damage5.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/cursor.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/catin2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/catin.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/cancel2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/cancel.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/battleStart.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/shock1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/shakin1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/select06.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/消滅_レトロ.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/消滅.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/消滅2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/magic-cure1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/magic-gravity1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/arrow.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/fire.mp3</t>
   </si>
 </sst>
 </file>
@@ -451,10 +767,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -472,8 +788,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,24 +856,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +879,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -533,9 +895,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,67 +926,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,13 +941,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,13 +983,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,13 +1013,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,31 +1091,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,66 +1121,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -822,6 +1138,51 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1034,10 +1395,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1056,34 +1415,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1164,15 +1495,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,20 +1516,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,17 +1564,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,15 +1596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1273,174 +1604,177 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,20 +1786,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,103 +1873,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1910,478 +2253,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="52">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="56">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="52">
-        <v>0</v>
-      </c>
-      <c r="D2" s="52">
+      <c r="C2" s="56">
+        <v>0</v>
+      </c>
+      <c r="D2" s="56">
         <v>20</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="56">
         <v>10</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="56">
         <v>10</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="56">
         <v>5</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="56">
         <v>5</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="56">
         <v>5</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="56">
         <v>5</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="56">
         <v>5</v>
       </c>
-      <c r="L2" s="52">
+      <c r="L2" s="56">
         <v>5</v>
       </c>
-      <c r="M2" s="52">
+      <c r="M2" s="56">
         <v>60</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="56">
         <v>40</v>
       </c>
-      <c r="O2" s="52">
+      <c r="O2" s="56">
         <v>40</v>
       </c>
-      <c r="P2" s="52">
+      <c r="P2" s="56">
         <v>40</v>
       </c>
-      <c r="Q2" s="52">
+      <c r="Q2" s="56">
         <v>20</v>
       </c>
-      <c r="R2" s="52">
+      <c r="R2" s="56">
         <v>40</v>
       </c>
-      <c r="S2" s="52">
+      <c r="S2" s="56">
         <v>40</v>
       </c>
-      <c r="T2" s="52">
+      <c r="T2" s="56">
         <v>40</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="52">
-        <v>1</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="52">
-        <v>1</v>
-      </c>
-      <c r="D3" s="52">
+      <c r="C3" s="56">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56">
         <v>20</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="56">
         <v>10</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="56">
         <v>10</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="56">
         <v>5</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="56">
         <v>5</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="56">
         <v>5</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="56">
         <v>5</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="56">
         <v>5</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="56">
         <v>5</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="56">
         <v>60</v>
       </c>
-      <c r="N3" s="52">
+      <c r="N3" s="56">
         <v>40</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="56">
         <v>40</v>
       </c>
-      <c r="P3" s="52">
+      <c r="P3" s="56">
         <v>40</v>
       </c>
-      <c r="Q3" s="52">
+      <c r="Q3" s="56">
         <v>20</v>
       </c>
-      <c r="R3" s="52">
+      <c r="R3" s="56">
         <v>40</v>
       </c>
-      <c r="S3" s="52">
+      <c r="S3" s="56">
         <v>40</v>
       </c>
-      <c r="T3" s="52">
+      <c r="T3" s="56">
         <v>40</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="52">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="56">
         <v>2</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="56">
         <v>20</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="56">
         <v>10</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="56">
         <v>10</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="56">
         <v>5</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="56">
         <v>5</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="56">
         <v>5</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="56">
         <v>5</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="56">
         <v>5</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="56">
         <v>5</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="56">
         <v>60</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="56">
         <v>40</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="56">
         <v>40</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="56">
         <v>40</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="56">
         <v>20</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="56">
         <v>40</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="56">
         <v>40</v>
       </c>
-      <c r="T4" s="52">
+      <c r="T4" s="56">
         <v>40</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="52">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="56">
         <v>3</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="56">
         <v>20</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="56">
         <v>10</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="56">
         <v>10</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="56">
         <v>5</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="56">
         <v>5</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="56">
         <v>5</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="56">
         <v>5</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="56">
         <v>5</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="56">
         <v>5</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="56">
         <v>60</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="56">
         <v>40</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="56">
         <v>40</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="56">
         <v>40</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="56">
         <v>20</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="56">
         <v>40</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="56">
         <v>40</v>
       </c>
-      <c r="T5" s="52">
+      <c r="T5" s="56">
         <v>40</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="U5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="V5" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="52">
+      <c r="A6" s="56">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="56">
         <v>4</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="56">
         <v>20</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="56">
         <v>10</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="56">
         <v>10</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="56">
         <v>5</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="56">
         <v>5</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="56">
         <v>5</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="56">
         <v>5</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="56">
         <v>5</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="56">
         <v>5</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="56">
         <v>60</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="56">
         <v>40</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="56">
         <v>40</v>
       </c>
-      <c r="P6" s="52">
+      <c r="P6" s="56">
         <v>40</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="56">
         <v>20</v>
       </c>
-      <c r="R6" s="52">
+      <c r="R6" s="56">
         <v>40</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="56">
         <v>40</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="56">
         <v>40</v>
       </c>
-      <c r="U6" s="52" t="s">
+      <c r="U6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="52" t="s">
+      <c r="V6" s="56" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="52">
+      <c r="A7" s="56">
         <v>5</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="56">
         <v>5</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="56">
         <v>20</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="56">
         <v>10</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="56">
         <v>10</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="56">
         <v>5</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="56">
         <v>5</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="56">
         <v>5</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="56">
         <v>5</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="56">
         <v>5</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="56">
         <v>5</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="56">
         <v>60</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="56">
         <v>40</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="56">
         <v>40</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="56">
         <v>40</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="56">
         <v>20</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="56">
         <v>40</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="56">
         <v>40</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="56">
         <v>40</v>
       </c>
-      <c r="U7" s="52" t="s">
+      <c r="U7" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="52" t="s">
+      <c r="V7" s="56" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2403,90 +2746,90 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="13">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="18">
         <v>2</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="13">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="13">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="13">
+      <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2515,82 +2858,672 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="54.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="11" t="s">
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="1:1">
+      <c r="A114" s="5" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2613,100 +3546,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="38">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="A2" s="43">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
         <v>5</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
         <v>5</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="46">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="49">
         <v>2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="19">
         <v>5</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="49">
         <v>3</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="19">
         <v>5</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="49">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="19">
         <v>5</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="46">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="43">
+      <c r="A7" s="47">
         <v>5</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="50">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="31">
         <v>5</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="48">
         <v>20</v>
       </c>
     </row>
@@ -2735,700 +3668,700 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="38">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="43">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="21">
-        <v>0</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
         <v>32</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="26">
         <v>32</v>
       </c>
-      <c r="H2" s="21">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21">
-        <v>0</v>
-      </c>
-      <c r="K2" s="21">
-        <v>0</v>
-      </c>
-      <c r="L2" s="40">
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>1</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26">
+        <v>0</v>
+      </c>
+      <c r="L2" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="38">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="19">
         <v>32</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="19">
         <v>32</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="19">
         <v>32</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="19">
         <v>32</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="19">
         <v>65280</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="19">
         <v>2</v>
       </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
         <v>30</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="38">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
         <v>32</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="19">
         <v>32</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="19">
         <v>6724095</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="19">
         <v>-1</v>
       </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="42">
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
         <v>32</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="19">
         <v>32</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="19">
         <v>32</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="19">
         <v>6724095</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="19">
         <v>-1</v>
       </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="42">
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="38">
+      <c r="A6" s="43">
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
         <v>64</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="19">
         <v>32</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="19">
         <v>32</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="19">
         <v>6724095</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="19">
         <v>-1</v>
       </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="42">
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38">
+      <c r="A7" s="43">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
         <v>96</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="19">
         <v>32</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="19">
         <v>32</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="19">
         <v>6724095</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="19">
         <v>-1</v>
       </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="42">
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38">
+      <c r="A8" s="43">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
         <v>128</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="19">
         <v>32</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="19">
         <v>32</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="19">
         <v>6724095</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="19">
         <v>-1</v>
       </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="42">
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38">
+      <c r="A9" s="43">
         <v>7</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
         <v>160</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="19">
         <v>32</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="19">
         <v>32</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="19">
         <v>6724095</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="19">
         <v>-1</v>
       </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="42">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="38">
+      <c r="A10" s="43">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>192</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="19">
         <v>32</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="19">
         <v>32</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="19">
         <v>6724095</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="19">
         <v>-1</v>
       </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="42">
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="38">
+      <c r="A11" s="43">
         <v>9</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>224</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="19">
         <v>32</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="19">
         <v>32</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="19">
         <v>6724095</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="19">
         <v>-1</v>
       </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="42">
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38">
+      <c r="A12" s="43">
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
         <v>256</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="19">
         <v>32</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="19">
         <v>32</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="19">
         <v>6724095</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="19">
         <v>-1</v>
       </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="42">
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38">
+      <c r="A13" s="43">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
         <v>32</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="19">
         <v>32</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="19">
         <v>6697728</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="19">
         <v>-1</v>
       </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="42">
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="38">
+      <c r="A14" s="43">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
         <v>64</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="19">
         <v>64</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="19">
         <v>8947848</v>
       </c>
-      <c r="I14" s="14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
         <v>2</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="19">
         <v>30</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:12">
-      <c r="A15" s="38">
+      <c r="A15" s="43">
         <v>13</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
-      <c r="E15" s="26">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
         <v>32</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="31">
         <v>32</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="31">
         <v>16711680</v>
       </c>
-      <c r="I15" s="26">
-        <v>1</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31">
         <v>-1</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="31">
         <v>-20</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="48">
         <v>-20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3452,660 +4385,660 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="38">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39">
+      <c r="A2" s="43">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44">
         <v>100</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="45">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="49">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="46">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="49">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="46">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="41">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="49">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="46">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="41">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="49">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="46">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="41">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="49">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="46">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="49">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="46">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="41">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="49">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="46">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="41">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="49">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="46">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="41">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="49">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="46">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="41">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="49">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="46">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="41">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="49">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="46">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="41">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="49">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="46">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="41">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="49">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="46">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="41">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="49">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="46">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="41">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="49">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="46">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="41">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="49">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="46">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="41">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="49">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="46">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="41">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="49">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="46">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="41">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="49">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="46">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="41">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="49">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="46">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="41">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="49">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="46">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="41">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="49">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="46">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="41">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="49">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="46">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="41">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="49">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="46">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="41">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="49">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="46">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="41">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="49">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="46">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="41">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="49">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="46">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="41">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="49">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="46">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="41">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="49">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="46">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="41">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="49">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="46">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="41">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="49">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="46">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="41">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="49">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="46">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="41">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="49">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="46">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="41">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="49">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="46">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="41">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="49">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="46">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="41">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="49">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="46">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="41">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="49">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="46">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="41">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="49">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="46">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="41">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="49">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="46">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="41">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="49">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="46">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="41">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="45">
+      <c r="B43" s="49">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="46">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="41">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="49">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="46">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="41">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="45">
+      <c r="B45" s="49">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="46">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="41">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="49">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="46">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="41">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="45">
+      <c r="B47" s="49">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="46">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="41">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="49">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="46">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="41">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="49">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="46">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="41">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="49">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="46">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="43">
+      <c r="A51" s="47">
         <v>50</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="50">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="44">
+      <c r="C51" s="48">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -4132,57 +5065,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="38">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="43">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="45">
         <v>16711680</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="46">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="46">
         <v>65280</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="43">
+      <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="48">
         <v>8947848</v>
       </c>
     </row>
@@ -4204,87 +5137,87 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="16">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16">
+      <c r="B1" s="21">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21">
         <v>2</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
         <v>0.8</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="26">
         <v>1.2</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49">
         <v>1.2</v>
       </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
         <v>0.8</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="49">
         <v>0.8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="19">
         <v>1.2</v>
       </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="42">
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="46">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26">
-        <v>1</v>
-      </c>
-      <c r="E5" s="44">
+      <c r="B5" s="50">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48">
         <v>1</v>
       </c>
     </row>
@@ -4299,7 +5232,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4311,86 +5244,86 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="38">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="43">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="43">
+      <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4415,122 +5348,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="17">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12">
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="17">
         <v>3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17">
         <v>3</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4558,891 +5491,891 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:11">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="33" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="18">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="26">
         <v>3</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="26">
         <v>100</v>
       </c>
-      <c r="F2" s="21">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
         <v>4</v>
       </c>
-      <c r="H2" s="21">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21">
-        <v>1</v>
-      </c>
-      <c r="J2" s="29">
+      <c r="H2" s="26">
+        <v>1</v>
+      </c>
+      <c r="I2" s="26">
+        <v>1</v>
+      </c>
+      <c r="J2" s="34">
         <v>100</v>
       </c>
-      <c r="K2" s="30">
-        <v>0</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="K2" s="35">
+        <v>0</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="22">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="19">
         <v>5</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="19">
         <v>90</v>
       </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
         <v>5</v>
       </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1</v>
-      </c>
-      <c r="J3" s="32">
+      <c r="H3" s="19">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="37">
         <v>500</v>
       </c>
-      <c r="K3" s="33">
-        <v>0</v>
-      </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="22">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="19">
         <v>8</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="19">
         <v>85</v>
       </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
         <v>10</v>
       </c>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32">
+      <c r="H4" s="19">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="37">
         <v>900</v>
       </c>
-      <c r="K4" s="33">
-        <v>0</v>
-      </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="K4" s="38">
+        <v>0</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="22">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="19">
         <v>12</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="19">
         <v>90</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
         <v>8</v>
       </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1</v>
-      </c>
-      <c r="J5" s="32">
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="37">
         <v>1200</v>
       </c>
-      <c r="K5" s="30">
-        <v>0</v>
-      </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="K5" s="35">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="22">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="19">
         <v>4</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="19">
         <v>90</v>
       </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
         <v>5</v>
       </c>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1</v>
-      </c>
-      <c r="J6" s="32">
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="37">
         <v>100</v>
       </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="K6" s="38">
+        <v>0</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="22">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="23">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="19">
         <v>6</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="19">
         <v>80</v>
       </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
         <v>6</v>
       </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="32">
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="37">
         <v>500</v>
       </c>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="K7" s="38">
+        <v>0</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="22">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="19">
         <v>9</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="19">
         <v>75</v>
       </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
         <v>11</v>
       </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1</v>
-      </c>
-      <c r="J8" s="32">
+      <c r="H8" s="19">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="37">
         <v>900</v>
       </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
+      <c r="K8" s="35">
+        <v>0</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="22">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="19">
         <v>13</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="19">
         <v>80</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
         <v>9</v>
       </c>
-      <c r="H9" s="14">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1</v>
-      </c>
-      <c r="J9" s="32">
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="37">
         <v>1200</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="22">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="19">
         <v>6</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="19">
         <v>80</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
         <v>6</v>
       </c>
-      <c r="H10" s="14">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1</v>
-      </c>
-      <c r="J10" s="32">
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="37">
         <v>100</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="22">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="19">
         <v>8</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="19">
         <v>70</v>
       </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
         <v>7</v>
       </c>
-      <c r="H11" s="14">
-        <v>1</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1</v>
-      </c>
-      <c r="J11" s="32">
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="37">
         <v>500</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="28">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="19">
         <v>11</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="19">
         <v>65</v>
       </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
         <v>12</v>
       </c>
-      <c r="H12" s="14">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1</v>
-      </c>
-      <c r="J12" s="32">
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="37">
         <v>900</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="22">
+      <c r="A13" s="27">
         <v>11</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="28">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="19">
         <v>16</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="19">
         <v>70</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
         <v>10</v>
       </c>
-      <c r="H13" s="14">
-        <v>1</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1</v>
-      </c>
-      <c r="J13" s="32">
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="37">
         <v>1200</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="22">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="28">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="19">
         <v>3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="19">
         <v>90</v>
       </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
         <v>3</v>
       </c>
-      <c r="H14" s="14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
         <v>2</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="37">
         <v>100</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="22">
+      <c r="A15" s="27">
         <v>13</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="28">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="19">
         <v>8</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="19">
         <v>85</v>
       </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
         <v>6</v>
       </c>
-      <c r="H15" s="14">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
         <v>2</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="37">
         <v>500</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="22">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="28">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="19">
         <v>9</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="19">
         <v>75</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="19">
         <v>10</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="19">
         <v>7</v>
       </c>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
         <v>3</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="37">
         <v>900</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="22">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="28">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="19">
         <v>12</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="19">
         <v>65</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="19">
         <v>25</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="19">
         <v>10</v>
       </c>
-      <c r="H17" s="14">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
         <v>2</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="37">
         <v>1200</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="22">
+      <c r="A18" s="27">
         <v>16</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="28">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="19">
         <v>3</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="19">
         <v>90</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
         <v>5</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="19">
         <v>2</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="19">
         <v>2</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="37">
         <v>100</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="22">
+      <c r="A19" s="27">
         <v>17</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="28">
         <v>4</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="19">
         <v>6</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="19">
         <v>85</v>
       </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
         <v>6</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="19">
         <v>2</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="19">
         <v>2</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="37">
         <v>500</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="22">
+      <c r="A20" s="27">
         <v>18</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="28">
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="19">
         <v>9</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="19">
         <v>80</v>
       </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
         <v>11</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="19">
         <v>2</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="19">
         <v>2</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="37">
         <v>900</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="22">
+      <c r="A21" s="27">
         <v>19</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="28">
         <v>4</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="19">
         <v>12</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="19">
         <v>75</v>
       </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
         <v>9</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="19">
         <v>2</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="19">
         <v>2</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="37">
         <v>1200</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="22">
+      <c r="A22" s="27">
         <v>20</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="28">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="19">
         <v>8</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="19">
         <v>100</v>
       </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>1</v>
-      </c>
-      <c r="I22" s="14">
-        <v>1</v>
-      </c>
-      <c r="J22" s="32">
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37">
         <v>100</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="22">
+      <c r="A23" s="27">
         <v>21</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="28">
         <v>5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="19">
         <v>30</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="19">
         <v>100</v>
       </c>
-      <c r="F23" s="14">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <v>1</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1</v>
-      </c>
-      <c r="J23" s="32">
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1</v>
+      </c>
+      <c r="J23" s="37">
         <v>500</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="22">
+      <c r="A24" s="27">
         <v>22</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="28">
         <v>5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="19">
         <v>8</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="19">
         <v>100</v>
       </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14">
-        <v>1</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
         <v>10</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="37">
         <v>900</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:11">
-      <c r="A25" s="24">
+      <c r="A25" s="29">
         <v>23</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="30">
         <v>5</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="31">
         <v>15</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="31">
         <v>100</v>
       </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>1</v>
-      </c>
-      <c r="I25" s="26">
+      <c r="F25" s="31">
+        <v>0</v>
+      </c>
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
+        <v>1</v>
+      </c>
+      <c r="I25" s="31">
         <v>10</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="39">
         <v>1200</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="40">
         <v>3</v>
       </c>
     </row>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" firstSheet="1" activeTab="11"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>職業ID</t>
   </si>
@@ -186,6 +186,9 @@
     <t>mapchip1.png</t>
   </si>
   <si>
+    <t>海</t>
+  </si>
+  <si>
     <t>岩</t>
   </si>
   <si>
@@ -204,6 +207,12 @@
     <t>mapchip4.png</t>
   </si>
   <si>
+    <t>橋</t>
+  </si>
+  <si>
+    <t>bridge.png</t>
+  </si>
+  <si>
     <t>必要経験値</t>
   </si>
   <si>
@@ -366,7 +375,7 @@
     <t>銀の斧</t>
   </si>
   <si>
-    <t>ファイアー</t>
+    <t>グラビティ-</t>
   </si>
   <si>
     <t>ボルガノン</t>
@@ -767,10 +776,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -789,10 +798,56 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,8 +858,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,14 +890,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -841,15 +897,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -864,31 +912,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -903,25 +928,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -947,19 +956,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,13 +1016,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,7 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,19 +1058,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,31 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,49 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,11 +1523,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,35 +1590,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,21 +1605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1604,22 +1613,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1628,121 +1637,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1759,9 +1768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1888,9 +1894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1901,6 +1904,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
@@ -2240,7 +2249,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2337,10 +2346,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="56">
+        <v>5</v>
+      </c>
+      <c r="G2" s="56">
         <v>10</v>
-      </c>
-      <c r="G2" s="56">
-        <v>5</v>
       </c>
       <c r="H2" s="56">
         <v>5</v>
@@ -2349,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K2" s="56">
         <v>5</v>
@@ -2358,28 +2367,28 @@
         <v>5</v>
       </c>
       <c r="M2" s="56">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N2" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O2" s="56">
         <v>40</v>
       </c>
       <c r="P2" s="56">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="56">
         <v>40</v>
       </c>
-      <c r="Q2" s="56">
-        <v>20</v>
-      </c>
       <c r="R2" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S2" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T2" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U2" s="56" t="s">
         <v>15</v>
@@ -2405,10 +2414,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="56">
+        <v>5</v>
+      </c>
+      <c r="G3" s="56">
         <v>10</v>
-      </c>
-      <c r="G3" s="56">
-        <v>5</v>
       </c>
       <c r="H3" s="56">
         <v>5</v>
@@ -2417,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K3" s="56">
         <v>5</v>
@@ -2426,28 +2435,28 @@
         <v>5</v>
       </c>
       <c r="M3" s="56">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N3" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O3" s="56">
         <v>40</v>
       </c>
       <c r="P3" s="56">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="56">
         <v>40</v>
       </c>
-      <c r="Q3" s="56">
-        <v>20</v>
-      </c>
       <c r="R3" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S3" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T3" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U3" s="56" t="s">
         <v>18</v>
@@ -2473,10 +2482,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="56">
+        <v>5</v>
+      </c>
+      <c r="G4" s="56">
         <v>10</v>
-      </c>
-      <c r="G4" s="56">
-        <v>5</v>
       </c>
       <c r="H4" s="56">
         <v>5</v>
@@ -2485,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4" s="56">
         <v>5</v>
@@ -2494,28 +2503,28 @@
         <v>5</v>
       </c>
       <c r="M4" s="56">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N4" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O4" s="56">
         <v>40</v>
       </c>
       <c r="P4" s="56">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="56">
         <v>40</v>
       </c>
-      <c r="Q4" s="56">
-        <v>20</v>
-      </c>
       <c r="R4" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S4" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T4" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U4" s="56" t="s">
         <v>21</v>
@@ -2538,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="56">
         <v>10</v>
@@ -2547,13 +2556,13 @@
         <v>5</v>
       </c>
       <c r="H5" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5" s="56">
         <v>5</v>
       </c>
       <c r="J5" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K5" s="56">
         <v>5</v>
@@ -2562,28 +2571,28 @@
         <v>5</v>
       </c>
       <c r="M5" s="56">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" s="56">
         <v>40</v>
       </c>
       <c r="O5" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P5" s="56">
         <v>40</v>
       </c>
       <c r="Q5" s="56">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="R5" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S5" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T5" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U5" s="56" t="s">
         <v>24</v>
@@ -2609,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" s="56">
         <v>5</v>
@@ -2621,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6" s="56">
         <v>5</v>
@@ -2630,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="56">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N6" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O6" s="56">
         <v>40</v>
@@ -2642,16 +2651,16 @@
         <v>40</v>
       </c>
       <c r="Q6" s="56">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R6" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S6" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T6" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U6" s="56" t="s">
         <v>27</v>
@@ -2674,7 +2683,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="56">
         <v>10</v>
@@ -2683,13 +2692,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="56">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" s="56">
         <v>5</v>
       </c>
       <c r="J7" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" s="56">
         <v>5</v>
@@ -2704,22 +2713,22 @@
         <v>40</v>
       </c>
       <c r="O7" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P7" s="56">
         <v>40</v>
       </c>
       <c r="Q7" s="56">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="R7" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S7" s="56">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T7" s="56">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U7" s="56" t="s">
         <v>30</v>
@@ -2746,90 +2755,90 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="17"/>
+      <c r="B3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>127</v>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>128</v>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>2</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>129</v>
+      <c r="F6" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>130</v>
+      <c r="F7" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>4</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>131</v>
+      <c r="F8" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2858,82 +2867,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="B4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2946,7 +2955,7 @@
   <sheetPr/>
   <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A114"/>
     </sheetView>
   </sheetViews>
@@ -2957,177 +2966,177 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3162,367 +3171,367 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="4" t="s">
-        <v>241</v>
+      <c r="A110" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="4" t="s">
-        <v>242</v>
+      <c r="A111" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="4" t="s">
-        <v>139</v>
+      <c r="A112" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="4" t="s">
-        <v>243</v>
+      <c r="A113" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:1">
-      <c r="A114" s="5" t="s">
-        <v>244</v>
+      <c r="A114" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3560,16 +3569,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="43">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="A2" s="42">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
         <v>5</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>0</v>
       </c>
     </row>
@@ -3577,13 +3586,13 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="B3" s="47">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
         <v>5</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>4</v>
       </c>
     </row>
@@ -3591,13 +3600,13 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>8</v>
       </c>
     </row>
@@ -3605,13 +3614,13 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>5</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>12</v>
       </c>
     </row>
@@ -3619,27 +3628,27 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="47">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="48">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>5</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="46">
         <v>20</v>
       </c>
     </row>
@@ -3652,10 +3661,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3668,700 +3677,954 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="43">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="42">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
         <v>32</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>32</v>
       </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26">
-        <v>1</v>
-      </c>
-      <c r="J2" s="26">
-        <v>0</v>
-      </c>
-      <c r="K2" s="26">
-        <v>0</v>
-      </c>
-      <c r="L2" s="45">
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>32</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>32</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>32</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>32</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>65280</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>2</v>
       </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
         <v>30</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="43">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
         <v>32</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>32</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>6724095</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>-1</v>
       </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="46">
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="43">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
         <v>32</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>32</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>32</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>6724095</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>-1</v>
       </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="46">
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="43">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
         <v>64</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>32</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>32</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>6724095</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>-1</v>
       </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="46">
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="43">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
         <v>96</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>32</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>32</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>6724095</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>-1</v>
       </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="46">
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="43">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
         <v>128</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>32</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>32</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>6724095</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>-1</v>
       </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="46">
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="43">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
         <v>160</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>32</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>32</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>6724095</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>-1</v>
       </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="46">
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="43">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
         <v>192</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>32</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>32</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>6724095</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>-1</v>
       </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="46">
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="43">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
         <v>224</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>32</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>32</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>6724095</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>-1</v>
       </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="46">
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="43">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
         <v>256</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>32</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>32</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>6724095</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>-1</v>
       </c>
-      <c r="J12" s="19">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="46">
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="43">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="18">
+        <v>32</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>32</v>
+      </c>
+      <c r="G13" s="18">
+        <v>32</v>
+      </c>
+      <c r="H13" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I13" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="18">
+        <v>32</v>
+      </c>
+      <c r="E14" s="18">
+        <v>32</v>
+      </c>
+      <c r="F14" s="18">
+        <v>32</v>
+      </c>
+      <c r="G14" s="18">
+        <v>32</v>
+      </c>
+      <c r="H14" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I14" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="18">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18">
+        <v>64</v>
+      </c>
+      <c r="F15" s="18">
+        <v>32</v>
+      </c>
+      <c r="G15" s="18">
+        <v>32</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I15" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="18">
+        <v>32</v>
+      </c>
+      <c r="E16" s="18">
+        <v>96</v>
+      </c>
+      <c r="F16" s="18">
+        <v>32</v>
+      </c>
+      <c r="G16" s="18">
+        <v>32</v>
+      </c>
+      <c r="H16" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I16" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="18">
+        <v>32</v>
+      </c>
+      <c r="E17" s="18">
+        <v>160</v>
+      </c>
+      <c r="F17" s="18">
+        <v>32</v>
+      </c>
+      <c r="G17" s="18">
+        <v>32</v>
+      </c>
+      <c r="H17" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I17" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="18">
+        <v>32</v>
+      </c>
+      <c r="E18" s="18">
+        <v>192</v>
+      </c>
+      <c r="F18" s="18">
+        <v>32</v>
+      </c>
+      <c r="G18" s="18">
+        <v>32</v>
+      </c>
+      <c r="H18" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I18" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="18">
+        <v>32</v>
+      </c>
+      <c r="E19" s="18">
+        <v>224</v>
+      </c>
+      <c r="F19" s="18">
+        <v>32</v>
+      </c>
+      <c r="G19" s="18">
+        <v>32</v>
+      </c>
+      <c r="H19" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I19" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="18">
+        <v>32</v>
+      </c>
+      <c r="E20" s="18">
+        <v>256</v>
+      </c>
+      <c r="F20" s="18">
+        <v>32</v>
+      </c>
+      <c r="G20" s="18">
+        <v>32</v>
+      </c>
+      <c r="H20" s="18">
+        <v>6724095</v>
+      </c>
+      <c r="I20" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="C21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
         <v>32</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G21" s="18">
         <v>32</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H21" s="18">
         <v>6697728</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I21" s="18">
         <v>-1</v>
       </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0</v>
-      </c>
-      <c r="L13" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="43">
-        <v>12</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="C22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
         <v>64</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G22" s="18">
         <v>64</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H22" s="18">
         <v>8947848</v>
       </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19">
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
         <v>2</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K22" s="18">
         <v>30</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L22" s="45">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:12">
-      <c r="A15" s="43">
-        <v>13</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="31" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
+      <c r="C23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
         <v>32</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G23" s="18">
         <v>32</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H23" s="18">
         <v>16711680</v>
       </c>
-      <c r="I15" s="31">
-        <v>1</v>
-      </c>
-      <c r="J15" s="31">
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
         <v>-1</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K23" s="18">
         <v>-20</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L23" s="45">
         <v>-20</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-    </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>32</v>
+      </c>
+      <c r="G24" s="18">
+        <v>32</v>
+      </c>
+      <c r="H24" s="18">
+        <v>8421504</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:12">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="51">
+        <v>0</v>
+      </c>
+      <c r="E25" s="51">
+        <v>32</v>
+      </c>
+      <c r="F25" s="51">
+        <v>32</v>
+      </c>
+      <c r="G25" s="51">
+        <v>32</v>
+      </c>
+      <c r="H25" s="51">
+        <v>8421504</v>
+      </c>
+      <c r="I25" s="30">
+        <v>1</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0</v>
+      </c>
+      <c r="K25" s="30">
+        <v>0</v>
+      </c>
+      <c r="L25" s="46">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4385,24 +4648,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>60</v>
+      <c r="B1" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43">
-        <v>1</v>
-      </c>
-      <c r="B2" s="44">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43">
         <v>100</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="44">
         <v>50</v>
       </c>
     </row>
@@ -4410,11 +4673,11 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <f>ROUNDDOWN(B2*1.1,0)</f>
         <v>110</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <f>ROUNDDOWN(C2*1.1,0)</f>
         <v>55</v>
       </c>
@@ -4423,11 +4686,11 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f t="shared" ref="B4:B51" si="0">ROUNDDOWN(B3*1.1,0)</f>
         <v>121</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <f t="shared" ref="C4:C44" si="1">ROUNDDOWN(C3*1.1,0)</f>
         <v>60</v>
       </c>
@@ -4436,11 +4699,11 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -4449,11 +4712,11 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -4462,11 +4725,11 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -4475,11 +4738,11 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -4488,11 +4751,11 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
@@ -4501,11 +4764,11 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
@@ -4514,11 +4777,11 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="47">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
@@ -4527,11 +4790,11 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="47">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
@@ -4540,11 +4803,11 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="47">
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
@@ -4553,11 +4816,11 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="47">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
@@ -4566,11 +4829,11 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="47">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="45">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
@@ -4579,11 +4842,11 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="45">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
@@ -4592,11 +4855,11 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="47">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="45">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
@@ -4605,11 +4868,11 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="47">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="45">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
@@ -4618,11 +4881,11 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="47">
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="45">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
@@ -4631,11 +4894,11 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="47">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="45">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
@@ -4644,11 +4907,11 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="47">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="45">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
@@ -4657,11 +4920,11 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="47">
         <f t="shared" si="0"/>
         <v>655</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="45">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
@@ -4670,11 +4933,11 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="47">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="45">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
@@ -4683,11 +4946,11 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="47">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="45">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
@@ -4696,11 +4959,11 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="47">
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="45">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
@@ -4709,11 +4972,11 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="47">
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="45">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
@@ -4722,11 +4985,11 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="47">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="45">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -4735,11 +4998,11 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="47">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="45">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
@@ -4748,11 +5011,11 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="47">
         <f t="shared" si="0"/>
         <v>1273</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="45">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
@@ -4761,11 +5024,11 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="47">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="45">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
@@ -4774,11 +5037,11 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="47">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="45">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
@@ -4787,11 +5050,11 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="47">
         <f t="shared" si="0"/>
         <v>1694</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="45">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
@@ -4800,11 +5063,11 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="47">
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="45">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
@@ -4813,11 +5076,11 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="47">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="45">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
@@ -4826,11 +5089,11 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="47">
         <f t="shared" si="0"/>
         <v>2253</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="45">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
@@ -4839,11 +5102,11 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="47">
         <f t="shared" si="0"/>
         <v>2478</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="45">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
@@ -4852,11 +5115,11 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="47">
         <f t="shared" si="0"/>
         <v>2725</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="45">
         <f t="shared" si="1"/>
         <v>1292</v>
       </c>
@@ -4865,11 +5128,11 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="47">
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="45">
         <f t="shared" si="1"/>
         <v>1421</v>
       </c>
@@ -4878,11 +5141,11 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="47">
         <f t="shared" si="0"/>
         <v>3296</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="45">
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
@@ -4891,11 +5154,11 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="47">
         <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="45">
         <f t="shared" si="1"/>
         <v>1719</v>
       </c>
@@ -4904,11 +5167,11 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="47">
         <f t="shared" si="0"/>
         <v>3987</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="45">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
@@ -4917,11 +5180,11 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="47">
         <f t="shared" si="0"/>
         <v>4385</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="45">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
@@ -4930,11 +5193,11 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="47">
         <f t="shared" si="0"/>
         <v>4823</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="45">
         <f t="shared" si="1"/>
         <v>2286</v>
       </c>
@@ -4943,11 +5206,11 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="47">
         <f t="shared" si="0"/>
         <v>5305</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="45">
         <f t="shared" si="1"/>
         <v>2514</v>
       </c>
@@ -4956,11 +5219,11 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="47">
         <f t="shared" si="0"/>
         <v>5835</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="45">
         <f t="shared" ref="C45:C51" si="2">ROUNDDOWN(C44*1.1,0)</f>
         <v>2765</v>
       </c>
@@ -4969,11 +5232,11 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="47">
         <f t="shared" si="0"/>
         <v>6418</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="45">
         <f t="shared" si="2"/>
         <v>3041</v>
       </c>
@@ -4982,11 +5245,11 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="47">
         <f t="shared" si="0"/>
         <v>7059</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="45">
         <f t="shared" si="2"/>
         <v>3345</v>
       </c>
@@ -4995,11 +5258,11 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="47">
         <f t="shared" si="0"/>
         <v>7764</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="45">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
@@ -5008,11 +5271,11 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="47">
         <f t="shared" si="0"/>
         <v>8540</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="45">
         <f t="shared" si="2"/>
         <v>4046</v>
       </c>
@@ -5021,24 +5284,24 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="47">
         <f t="shared" si="0"/>
         <v>9394</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="45">
         <f t="shared" si="2"/>
         <v>4450</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="47">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="50">
+      <c r="B51" s="48">
         <f t="shared" si="0"/>
         <v>10333</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="46">
         <f t="shared" si="2"/>
         <v>4895</v>
       </c>
@@ -5065,24 +5328,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>63</v>
+      <c r="A1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="45">
+      <c r="A2" s="42">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="44">
         <v>16711680</v>
       </c>
     </row>
@@ -5090,10 +5353,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="B3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="45">
         <v>255</v>
       </c>
     </row>
@@ -5101,21 +5364,21 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="B4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="45">
         <v>65280</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="47">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="48">
+      <c r="B5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="46">
         <v>8947848</v>
       </c>
     </row>
@@ -5130,94 +5393,94 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I46" sqref="I46:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="21">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21">
-        <v>1</v>
-      </c>
-      <c r="D1" s="21">
+      <c r="A1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="20">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20">
         <v>2</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25">
         <v>0.8</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>1.2</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47">
         <v>1.2</v>
       </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
         <v>0.8</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>0.8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>1.2</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="46">
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="B5" s="48">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5244,87 +5507,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>72</v>
       </c>
+      <c r="B1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="43">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>75</v>
+      <c r="A2" s="42">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>75</v>
+      <c r="B3" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>75</v>
+      <c r="B5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="47">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>75</v>
+      <c r="B6" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5348,123 +5611,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>84</v>
+      <c r="E1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>86</v>
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>86</v>
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17">
+      <c r="B4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>86</v>
+      <c r="F4" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="17">
+      <c r="F6" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>3</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>86</v>
+      <c r="F7" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5742,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5491,891 +5754,891 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:11">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="G1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="21" t="s">
         <v>100</v>
       </c>
+      <c r="I1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="23">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="25">
         <v>3</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>100</v>
       </c>
-      <c r="F2" s="26">
-        <v>0</v>
-      </c>
-      <c r="G2" s="26">
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
         <v>4</v>
       </c>
-      <c r="H2" s="26">
-        <v>1</v>
-      </c>
-      <c r="I2" s="26">
-        <v>1</v>
-      </c>
-      <c r="J2" s="34">
+      <c r="H2" s="25">
+        <v>1</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33">
         <v>100</v>
       </c>
-      <c r="K2" s="35">
-        <v>0</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="K2" s="34">
+        <v>0</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="18">
         <v>5</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>90</v>
       </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
         <v>5</v>
       </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="37">
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="36">
         <v>500</v>
       </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="K3" s="37">
+        <v>0</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="18">
         <v>8</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>85</v>
       </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
         <v>10</v>
       </c>
-      <c r="H4" s="19">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="J4" s="37">
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="36">
         <v>900</v>
       </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="K4" s="37">
+        <v>0</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="18">
         <v>12</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>90</v>
       </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
         <v>8</v>
       </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="37">
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="36">
         <v>1200</v>
       </c>
-      <c r="K5" s="35">
-        <v>0</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="K5" s="34">
+        <v>0</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="18">
         <v>4</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>90</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
         <v>5</v>
       </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="37">
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="36">
         <v>100</v>
       </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
+      <c r="K6" s="37">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="28">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="18">
         <v>6</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>80</v>
       </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
         <v>6</v>
       </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="37">
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36">
         <v>500</v>
       </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="18">
         <v>9</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>75</v>
       </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
         <v>11</v>
       </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="37">
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="36">
         <v>900</v>
       </c>
-      <c r="K8" s="35">
-        <v>0</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="K8" s="34">
+        <v>0</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="18">
         <v>13</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>80</v>
       </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="37">
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
         <v>1200</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="18">
         <v>6</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>80</v>
       </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
         <v>6</v>
       </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="37">
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
         <v>100</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="18">
         <v>8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>70</v>
       </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
         <v>7</v>
       </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="37">
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
         <v>500</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="18">
         <v>11</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>65</v>
       </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
-        <v>1</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="37">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="36">
         <v>900</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>2</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="18">
         <v>16</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>70</v>
       </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
         <v>10</v>
       </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="37">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36">
         <v>1200</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="18">
         <v>3</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>90</v>
       </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
         <v>3</v>
       </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
         <v>2</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>100</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="18">
         <v>8</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>85</v>
       </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
         <v>6</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
         <v>2</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>500</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="C16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="18">
         <v>9</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>75</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>10</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>7</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
         <v>3</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>900</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>3</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="C17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="18">
         <v>12</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>65</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>25</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>10</v>
       </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
         <v>2</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>1200</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>16</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>4</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="C18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="18">
         <v>3</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>90</v>
       </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
         <v>5</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>2</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <v>100</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>17</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>4</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="C19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="18">
         <v>6</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>85</v>
       </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
         <v>6</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>2</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>500</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>18</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>4</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="18">
         <v>9</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>80</v>
       </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
         <v>11</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>2</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>2</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <v>900</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>19</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="C21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="18">
         <v>12</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>75</v>
       </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
         <v>9</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>2</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <v>2</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="36">
         <v>1200</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>20</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="C22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="18">
         <v>8</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>100</v>
       </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="37">
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="36">
         <v>100</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>21</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>5</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="19">
+      <c r="C23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="18">
         <v>30</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>100</v>
       </c>
-      <c r="F23" s="19">
-        <v>0</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="19">
-        <v>1</v>
-      </c>
-      <c r="J23" s="37">
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="36">
         <v>500</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>22</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>5</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="19">
+      <c r="C24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="18">
         <v>8</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>100</v>
       </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
         <v>10</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="36">
         <v>900</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:11">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>23</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="29">
         <v>5</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="C25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="30">
         <v>15</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <v>100</v>
       </c>
-      <c r="F25" s="31">
-        <v>0</v>
-      </c>
-      <c r="G25" s="31">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31">
-        <v>1</v>
-      </c>
-      <c r="I25" s="31">
+      <c r="F25" s="30">
+        <v>0</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30">
+        <v>1</v>
+      </c>
+      <c r="I25" s="30">
         <v>10</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="38">
         <v>1200</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="39">
         <v>3</v>
       </c>
     </row>

--- a/Resource/DataBase/DataBase.xlsx
+++ b/Resource/DataBase/DataBase.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\git\Commander\Resource\DataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3553EA-578E-4F4B-AD88-7CBEFA8D1F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charactor" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,12 @@
     <sheet name="BattleEffect" sheetId="11" r:id="rId11"/>
     <sheet name="AdvanceLoad" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="247">
   <si>
     <t>職業ID</t>
   </si>
@@ -669,119 +675,111 @@
     <t>Resource/Image/UI/itemFrame.png</t>
   </si>
   <si>
-    <t>Resource/Image/UI/levelUp.png</t>
+    <t>Resource/Sound/BGM/preparation.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/title.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/battle.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/heal.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/BGM/game_over.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/select05.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/sceneswitch2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/pin.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/ok2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/ok.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/menu_open.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/menu_close.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/hp_se.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/healStart.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/dash.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/damage5.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/cursor.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/catin2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/catin.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/cancel2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/cancel.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/battleStart.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/shock1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/shakin1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/select06.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/消滅_レトロ.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/消滅.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/消滅2.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/magic-cure1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/magic-gravity1.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/arrow.mp3</t>
+  </si>
+  <si>
+    <t>Resource/Sound/SE/BattleEffectSE/fire.mp3</t>
   </si>
   <si>
     <t>Resource/Sound/BGM/mapSelect.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/BGM/preparation.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/BGM/title.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/BGM/battle.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/BGM/heal.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/BGM/game_over.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/select05.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/sceneswitch2.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/pin.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/ok2.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/ok.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/menu_open.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/menu_close.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/hp_se.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/healStart.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/dash.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/damage5.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/cursor.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/catin2.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/catin.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/cancel2.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/cancel.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/battleStart.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/shock1.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/shakin1.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/select06.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/消滅_レトロ.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/消滅.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/消滅2.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/BattleEffectSE/magic-cure1.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/BattleEffectSE/magic-gravity1.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/BattleEffectSE/arrow.mp3</t>
-  </si>
-  <si>
-    <t>Resource/Sound/SE/BattleEffectSE/fire.mp3</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,345 +795,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1507,255 +1190,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1927,62 +1368,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2240,19 +1643,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="19" max="19" width="8.5" customWidth="1"/>
     <col min="20" max="20" width="5.75" customWidth="1"/>
@@ -2261,7 +1664,7 @@
     <col min="24" max="24" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +1732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="56">
         <v>0</v>
       </c>
@@ -2397,7 +1800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="56">
         <v>1</v>
       </c>
@@ -2465,7 +1868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="56">
         <v>2</v>
       </c>
@@ -2533,7 +1936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="56">
         <v>3</v>
       </c>
@@ -2601,7 +2004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="56">
         <v>4</v>
       </c>
@@ -2669,7 +2072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="56">
         <v>5</v>
       </c>
@@ -2738,33 +2141,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:6">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="57"/>
+      <c r="E3" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="17">
         <v>0</v>
       </c>
@@ -2778,7 +2180,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>1</v>
       </c>
@@ -2792,7 +2194,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>2</v>
       </c>
@@ -2806,7 +2208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>3</v>
       </c>
@@ -2820,7 +2222,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>4</v>
       </c>
@@ -2834,7 +2236,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>5</v>
       </c>
@@ -2847,26 +2249,25 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -2878,7 +2279,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -2890,7 +2291,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2902,7 +2303,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2914,7 +2315,7 @@
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2926,7 +2327,7 @@
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -2938,623 +2339,616 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:A114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:A113"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A114"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
+    <row r="113" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" spans="1:1">
-      <c r="A114" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D7"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
@@ -3568,7 +2962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="42">
         <v>0</v>
       </c>
@@ -3582,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3596,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3610,7 +3004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3624,7 +3018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3638,7 +3032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3653,21 +3047,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="4" width="13.25" customWidth="1"/>
@@ -3676,7 +3069,7 @@
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>36</v>
       </c>
@@ -3714,7 +3107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="42">
         <v>0</v>
       </c>
@@ -3752,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3790,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3828,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3866,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3904,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3942,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3980,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4018,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4056,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4094,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4132,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4170,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4208,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4246,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4284,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4322,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4360,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4398,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4436,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4474,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4512,7 +3905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4550,7 +3943,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4588,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -4627,27 +4020,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
@@ -4658,7 +4050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="42">
         <v>1</v>
       </c>
@@ -4669,7 +4061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4682,7 +4074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4695,7 +4087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4708,7 +4100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4721,7 +4113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4734,7 +4126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4747,7 +4139,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4760,7 +4152,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4773,7 +4165,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4786,7 +4178,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4799,7 +4191,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4812,7 +4204,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4825,7 +4217,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4838,7 +4230,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4851,7 +4243,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4864,7 +4256,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4877,7 +4269,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4890,7 +4282,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4903,7 +4295,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4916,7 +4308,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4929,7 +4321,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4942,7 +4334,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4955,7 +4347,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4968,7 +4360,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4981,7 +4373,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4994,7 +4386,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5007,7 +4399,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5020,7 +4412,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5033,7 +4425,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5046,7 +4438,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5059,7 +4451,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5072,7 +4464,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5085,7 +4477,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5098,7 +4490,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5111,7 +4503,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5124,7 +4516,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5137,7 +4529,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5150,7 +4542,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5163,7 +4555,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5176,7 +4568,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5189,7 +4581,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5202,7 +4594,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5215,7 +4607,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5228,7 +4620,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5241,7 +4633,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5254,7 +4646,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5267,7 +4659,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5280,7 +4672,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5293,7 +4685,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5307,27 +4699,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>64</v>
       </c>
@@ -5338,7 +4729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="42">
         <v>0</v>
       </c>
@@ -5349,7 +4740,7 @@
         <v>16711680</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5360,7 +4751,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5371,7 +4762,7 @@
         <v>65280</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5383,23 +4774,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I46" sqref="I46:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>71</v>
       </c>
@@ -5416,7 +4806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -5433,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -5450,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -5467,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -5485,28 +4875,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>72</v>
       </c>
@@ -5520,7 +4909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="42">
         <v>0</v>
       </c>
@@ -5534,7 +4923,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5548,7 +4937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5562,7 +4951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5576,7 +4965,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5591,26 +4980,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
@@ -5630,7 +5016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>0</v>
       </c>
@@ -5646,7 +5032,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -5662,7 +5048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -5678,7 +5064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -5696,7 +5082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -5712,7 +5098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -5731,21 +5117,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
@@ -5753,7 +5138,7 @@
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
@@ -5788,7 +5173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -5825,7 +5210,7 @@
       <c r="M2" s="35"/>
       <c r="N2" s="35"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -5862,7 +5247,7 @@
       <c r="M3" s="35"/>
       <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -5899,7 +5284,7 @@
       <c r="M4" s="35"/>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -5936,7 +5321,7 @@
       <c r="M5" s="35"/>
       <c r="N5" s="35"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>4</v>
       </c>
@@ -5973,7 +5358,7 @@
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>5</v>
       </c>
@@ -6010,7 +5395,7 @@
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>6</v>
       </c>
@@ -6047,7 +5432,7 @@
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>7</v>
       </c>
@@ -6082,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>8</v>
       </c>
@@ -6117,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>9</v>
       </c>
@@ -6152,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>10</v>
       </c>
@@ -6187,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
         <v>11</v>
       </c>
@@ -6222,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>12</v>
       </c>
@@ -6257,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
         <v>13</v>
       </c>
@@ -6292,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>14</v>
       </c>
@@ -6327,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
         <v>15</v>
       </c>
@@ -6362,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>16</v>
       </c>
@@ -6397,7 +5782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
         <v>17</v>
       </c>
@@ -6432,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>18</v>
       </c>
@@ -6467,7 +5852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="26">
         <v>19</v>
       </c>
@@ -6502,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>20</v>
       </c>
@@ -6537,7 +5922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <v>21</v>
       </c>
@@ -6572,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>22</v>
       </c>
@@ -6607,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="28">
         <v>23</v>
       </c>
@@ -6643,7 +6028,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>